--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\Desktop\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FBBD9B-9691-4A67-9B85-99807AE58792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B153085D-6227-4CF4-8698-1308D560B19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Type</t>
   </si>
@@ -127,6 +127,54 @@
   </si>
   <si>
     <t>2024 WiseTechSource</t>
+  </si>
+  <si>
+    <t>mainProductList1</t>
+  </si>
+  <si>
+    <t>mainProductList2</t>
+  </si>
+  <si>
+    <t>mainProductList3</t>
+  </si>
+  <si>
+    <t>mainProductList4</t>
+  </si>
+  <si>
+    <t>mainProductList5</t>
+  </si>
+  <si>
+    <t>mainProductList6</t>
+  </si>
+  <si>
+    <t>mainProductList7</t>
+  </si>
+  <si>
+    <t>mainProductList8</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Human Resource</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Image Processing</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Management</t>
   </si>
 </sst>
 </file>
@@ -164,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,12 +235,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -205,6 +264,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -486,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,12 +721,98 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="http://www.wisetechsource.com/" xr:uid="{5B4B2A46-4186-41EC-9984-3BB742783381}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\Desktop\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B153085D-6227-4CF4-8698-1308D560B19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D796DC-4387-4002-9BEC-7AD744F8735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Type</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>Management</t>
+  </si>
+  <si>
+    <t>subHeadingMain1</t>
+  </si>
+  <si>
+    <t>Your partner for automation</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>WISETECHSOURCE</t>
   </si>
 </sst>
 </file>
@@ -251,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -267,7 +279,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,44 +736,44 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -766,10 +781,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -777,10 +792,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -788,10 +803,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -799,12 +814,34 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>4</v>
       </c>
     </row>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\Desktop\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D796DC-4387-4002-9BEC-7AD744F8735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD976C-F97E-4F28-B15D-9CB973C83BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Type</t>
   </si>
@@ -78,9 +78,6 @@
     <t>facebookLogo</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>twitterLogo</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>www.wisetechsource.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>WISE PRODUCT CATALOG</t>
   </si>
   <si>
@@ -187,6 +181,21 @@
   </si>
   <si>
     <t>WISETECHSOURCE</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/wisetech-source-pvt-ltd/</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SourceWisetech</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/WiseTechSource</t>
+  </si>
+  <si>
+    <t>instagramLogo</t>
   </si>
 </sst>
 </file>
@@ -282,7 +291,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -594,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -605,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -616,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -627,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -638,16 +647,18 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -658,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -669,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -680,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -691,7 +702,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -702,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -713,41 +724,47 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B17" t="s">
@@ -758,33 +775,33 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
+      <c r="A19" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -792,10 +809,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -803,10 +820,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -814,10 +831,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -825,10 +842,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -836,12 +853,23 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
         <v>4</v>
       </c>
     </row>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\Desktop\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD976C-F97E-4F28-B15D-9CB973C83BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C21A20-201C-4997-AB96-BD4558A20EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,9 +174,6 @@
     <t>subHeadingMain1</t>
   </si>
   <si>
-    <t>Your partner for automation</t>
-  </si>
-  <si>
     <t>companyName</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>instagramLogo</t>
+  </si>
+  <si>
+    <t>Your Partner For Automation</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,10 +724,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -735,21 +735,21 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -757,18 +757,18 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
@@ -779,7 +779,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\Desktop\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C21A20-201C-4997-AB96-BD4558A20EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9371B69-2371-4096-8C3E-A354EA1A4628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="184">
   <si>
     <t>Type</t>
   </si>
@@ -69,9 +70,6 @@
     <t>wiseLinkFooter</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>copyRights</t>
   </si>
   <si>
@@ -114,15 +112,9 @@
     <t>See product catalog</t>
   </si>
   <si>
-    <t>www.wisetechsource.com</t>
-  </si>
-  <si>
     <t>WISE PRODUCT CATALOG</t>
   </si>
   <si>
-    <t>2024 WiseTechSource</t>
-  </si>
-  <si>
     <t>mainProductList1</t>
   </si>
   <si>
@@ -138,39 +130,6 @@
     <t>mainProductList5</t>
   </si>
   <si>
-    <t>mainProductList6</t>
-  </si>
-  <si>
-    <t>mainProductList7</t>
-  </si>
-  <si>
-    <t>mainProductList8</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Human Resource</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Image Processing</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
     <t>subHeadingMain1</t>
   </si>
   <si>
@@ -183,9 +142,6 @@
     <t>https://www.linkedin.com/company/wisetech-source-pvt-ltd/</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>https://twitter.com/SourceWisetech</t>
   </si>
   <si>
@@ -196,6 +152,438 @@
   </si>
   <si>
     <t>Your Partner For Automation</t>
+  </si>
+  <si>
+    <t>https://github.com/WisetechSourceProduct/AutomationProductCatalogue/blob/main/WTSCatalogue/static/images/WTS_Logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>Copyrights @2024wisetechsource.com</t>
+  </si>
+  <si>
+    <t>wiseFooterCompanyName</t>
+  </si>
+  <si>
+    <t>WiseTechSource</t>
+  </si>
+  <si>
+    <t>wiseFooterTagLine</t>
+  </si>
+  <si>
+    <t>We promise it will be worth the wait</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>wiseFooterContactHeading</t>
+  </si>
+  <si>
+    <t>wiseFooterLocation</t>
+  </si>
+  <si>
+    <t>XXX, XXX,XXX</t>
+  </si>
+  <si>
+    <t>wiseFooterPhoneNumber</t>
+  </si>
+  <si>
+    <t>XXXXX XXXXX</t>
+  </si>
+  <si>
+    <t>wiseFooterGmail</t>
+  </si>
+  <si>
+    <t>example@gmail.com</t>
+  </si>
+  <si>
+    <t>wiseFooterClock</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+  </si>
+  <si>
+    <t>wiseNavbar</t>
+  </si>
+  <si>
+    <t>Sub Topics</t>
+  </si>
+  <si>
+    <t>sub Topicscontent</t>
+  </si>
+  <si>
+    <t>sub Topicsvalue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General      
+</t>
+  </si>
+  <si>
+    <t>General1</t>
+  </si>
+  <si>
+    <t>This is content for General 1</t>
+  </si>
+  <si>
+    <t>This is value for General1</t>
+  </si>
+  <si>
+    <t>General2</t>
+  </si>
+  <si>
+    <t>This is content for General 2</t>
+  </si>
+  <si>
+    <t>This is value for General2</t>
+  </si>
+  <si>
+    <t>General3</t>
+  </si>
+  <si>
+    <t>This is content for General 3</t>
+  </si>
+  <si>
+    <t>This is value for General3</t>
+  </si>
+  <si>
+    <t>General5</t>
+  </si>
+  <si>
+    <t>This is content for General 4</t>
+  </si>
+  <si>
+    <t>This is value for General4</t>
+  </si>
+  <si>
+    <t>General6</t>
+  </si>
+  <si>
+    <t>This is content for General 5</t>
+  </si>
+  <si>
+    <t>This is value for General5</t>
+  </si>
+  <si>
+    <t>General7</t>
+  </si>
+  <si>
+    <t>This is content for General 6</t>
+  </si>
+  <si>
+    <t>This is value for General6</t>
+  </si>
+  <si>
+    <t>General8</t>
+  </si>
+  <si>
+    <t>This is content for General 7</t>
+  </si>
+  <si>
+    <t>This is value for General7</t>
+  </si>
+  <si>
+    <t>General9</t>
+  </si>
+  <si>
+    <t>This is content for General 8</t>
+  </si>
+  <si>
+    <t>This is value for General8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Resource
+</t>
+  </si>
+  <si>
+    <t>certificate generator</t>
+  </si>
+  <si>
+    <t>This is content for hr certificate generator</t>
+  </si>
+  <si>
+    <t>This is value for hr certificate generator</t>
+  </si>
+  <si>
+    <t>letter generator</t>
+  </si>
+  <si>
+    <t>This is content for hr letter generator</t>
+  </si>
+  <si>
+    <t>This is value for hr letter generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">management  
+</t>
+  </si>
+  <si>
+    <t>management1</t>
+  </si>
+  <si>
+    <t>This is for content for management1</t>
+  </si>
+  <si>
+    <t>management2</t>
+  </si>
+  <si>
+    <t>This is for content for management2</t>
+  </si>
+  <si>
+    <t>management3</t>
+  </si>
+  <si>
+    <t>This is for content for management3</t>
+  </si>
+  <si>
+    <t>management4</t>
+  </si>
+  <si>
+    <t>management5</t>
+  </si>
+  <si>
+    <t>This is for content for management5</t>
+  </si>
+  <si>
+    <t>management6</t>
+  </si>
+  <si>
+    <t>This is for content for management6</t>
+  </si>
+  <si>
+    <t>management7</t>
+  </si>
+  <si>
+    <t>This is for content for management7</t>
+  </si>
+  <si>
+    <t>management8</t>
+  </si>
+  <si>
+    <t>This is for content for management8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounts
+</t>
+  </si>
+  <si>
+    <t>education1</t>
+  </si>
+  <si>
+    <t>This is for content for education1</t>
+  </si>
+  <si>
+    <t>education2</t>
+  </si>
+  <si>
+    <t>This is for content for education2</t>
+  </si>
+  <si>
+    <t>education3</t>
+  </si>
+  <si>
+    <t>This is for content for education3</t>
+  </si>
+  <si>
+    <t>education4</t>
+  </si>
+  <si>
+    <t>This is for content for education4</t>
+  </si>
+  <si>
+    <t>education5</t>
+  </si>
+  <si>
+    <t>This is for content for education5</t>
+  </si>
+  <si>
+    <t>This is the value for education5</t>
+  </si>
+  <si>
+    <t>education6</t>
+  </si>
+  <si>
+    <t>This is for content for education6</t>
+  </si>
+  <si>
+    <t>education7</t>
+  </si>
+  <si>
+    <t>This is for content for education7</t>
+  </si>
+  <si>
+    <t>education8</t>
+  </si>
+  <si>
+    <t>This is for content for education8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance
+</t>
+  </si>
+  <si>
+    <t>finance1</t>
+  </si>
+  <si>
+    <t>This is conent for finance1</t>
+  </si>
+  <si>
+    <t>finance2</t>
+  </si>
+  <si>
+    <t>This is conent for finance2</t>
+  </si>
+  <si>
+    <t>finance3</t>
+  </si>
+  <si>
+    <t>finance4</t>
+  </si>
+  <si>
+    <t>This is conent for finance4</t>
+  </si>
+  <si>
+    <t>finance5</t>
+  </si>
+  <si>
+    <t>This is conent for finance5</t>
+  </si>
+  <si>
+    <t>finance6</t>
+  </si>
+  <si>
+    <t>This is conent for finance6</t>
+  </si>
+  <si>
+    <t>finance7</t>
+  </si>
+  <si>
+    <t>This is conent for finance7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software
+</t>
+  </si>
+  <si>
+    <t>software1</t>
+  </si>
+  <si>
+    <t>This is content for software1</t>
+  </si>
+  <si>
+    <t>software2</t>
+  </si>
+  <si>
+    <t>This is content for software2</t>
+  </si>
+  <si>
+    <t>software3</t>
+  </si>
+  <si>
+    <t>This is content for software3</t>
+  </si>
+  <si>
+    <t>software4</t>
+  </si>
+  <si>
+    <t>This is content for software4</t>
+  </si>
+  <si>
+    <t>software5</t>
+  </si>
+  <si>
+    <t>This is content for software5</t>
+  </si>
+  <si>
+    <t>software6</t>
+  </si>
+  <si>
+    <t>This is content for software6</t>
+  </si>
+  <si>
+    <t>software7</t>
+  </si>
+  <si>
+    <t>This is content for software7</t>
+  </si>
+  <si>
+    <t>software8</t>
+  </si>
+  <si>
+    <t>This is content for software8</t>
+  </si>
+  <si>
+    <t>software9</t>
+  </si>
+  <si>
+    <t>This is content for software9</t>
+  </si>
+  <si>
+    <t>software10</t>
+  </si>
+  <si>
+    <t>This is content for software10</t>
+  </si>
+  <si>
+    <t>software11</t>
+  </si>
+  <si>
+    <t>This is content for software11</t>
+  </si>
+  <si>
+    <t>software12</t>
+  </si>
+  <si>
+    <t>This is content for software12</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Training1</t>
+  </si>
+  <si>
+    <t>This is content for Training1</t>
+  </si>
+  <si>
+    <t>Training2</t>
+  </si>
+  <si>
+    <t>This is content for Training2</t>
+  </si>
+  <si>
+    <t>Training3</t>
+  </si>
+  <si>
+    <t>This is content for Training3</t>
+  </si>
+  <si>
+    <t>Training4</t>
+  </si>
+  <si>
+    <t>This is content for Training4</t>
+  </si>
+  <si>
+    <t>Training5</t>
+  </si>
+  <si>
+    <t>This is content for Training5</t>
+  </si>
+  <si>
+    <t>Training6</t>
+  </si>
+  <si>
+    <t>This is content for Training6</t>
+  </si>
+  <si>
+    <t>Training7</t>
+  </si>
+  <si>
+    <t>This is content for Training7</t>
+  </si>
+  <si>
+    <t>https://www.wisetechsource.com/</t>
   </si>
 </sst>
 </file>
@@ -233,7 +621,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -267,12 +655,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -285,14 +717,44 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,10 +1051,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -602,8 +1064,8 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -614,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -625,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -636,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -647,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -658,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -669,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -680,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -691,10 +1153,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -702,182 +1164,1022 @@
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="A26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:A29"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="http://www.wisetechsource.com/" xr:uid="{5B4B2A46-4186-41EC-9984-3BB742783381}"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{95BECB02-2AE4-46D8-A6D0-7AF92297178E}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{151B2525-3E1E-42CC-9571-8AF9F919C3AE}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{F7EF7918-9836-4F8F-977B-87E9A1266270}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED9E40-170C-4C07-BDCE-EEA1347DCE36}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="15"/>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="7"/>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="7"/>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="18"/>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="18"/>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\Desktop\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9371B69-2371-4096-8C3E-A354EA1A4628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F592220A-5428-4056-8102-15ACF2CE0F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="187">
   <si>
     <t>Type</t>
   </si>
@@ -584,6 +584,15 @@
   </si>
   <si>
     <t>https://www.wisetechsource.com/</t>
+  </si>
+  <si>
+    <t>fa fa-university</t>
+  </si>
+  <si>
+    <t>fas fa-duotone fa-building</t>
+  </si>
+  <si>
+    <t>bi bi-person-bounding-box</t>
   </si>
 </sst>
 </file>
@@ -704,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -720,9 +729,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -735,15 +741,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,8 +750,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1312,7 +1318,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B25" t="s">
@@ -1323,7 +1329,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B26" t="s">
@@ -1334,7 +1340,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1349,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1358,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -1376,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED9E40-170C-4C07-BDCE-EEA1347DCE36}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,13 +1423,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1438,9 +1444,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -1455,9 +1461,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" t="s">
         <v>4</v>
       </c>
@@ -1472,9 +1478,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -1489,9 +1495,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -1506,9 +1512,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -1523,9 +1529,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" t="s">
         <v>4</v>
       </c>
@@ -1540,9 +1546,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -1557,13 +1563,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -1578,9 +1586,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -1595,13 +1603,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="11"/>
       <c r="D12" t="s">
         <v>4</v>
       </c>
@@ -1613,9 +1621,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" t="s">
         <v>4</v>
       </c>
@@ -1627,9 +1635,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" t="s">
         <v>4</v>
       </c>
@@ -1641,9 +1649,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -1652,9 +1660,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" t="s">
         <v>4</v>
       </c>
@@ -1666,9 +1674,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -1680,9 +1688,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
       <c r="D18" t="s">
         <v>4</v>
       </c>
@@ -1694,9 +1702,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
       <c r="D19" t="s">
         <v>4</v>
       </c>
@@ -1708,13 +1716,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="11"/>
       <c r="D20" t="s">
         <v>4</v>
       </c>
@@ -1726,9 +1734,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" t="s">
         <v>4</v>
       </c>
@@ -1740,9 +1748,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" t="s">
         <v>4</v>
       </c>
@@ -1754,9 +1762,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" t="s">
         <v>4</v>
       </c>
@@ -1768,9 +1776,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" t="s">
         <v>4</v>
       </c>
@@ -1785,9 +1793,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
       <c r="D25" t="s">
         <v>4</v>
       </c>
@@ -1799,9 +1807,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" t="s">
         <v>4</v>
       </c>
@@ -1813,9 +1821,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" t="s">
         <v>4</v>
       </c>
@@ -1827,13 +1835,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
@@ -1845,9 +1855,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" t="s">
         <v>4</v>
       </c>
@@ -1859,9 +1869,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" t="s">
         <v>4</v>
       </c>
@@ -1870,9 +1880,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" t="s">
         <v>4</v>
       </c>
@@ -1884,9 +1894,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="D32" t="s">
         <v>4</v>
       </c>
@@ -1898,9 +1908,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
       <c r="D33" t="s">
         <v>4</v>
       </c>
@@ -1912,9 +1922,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="15"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
       <c r="D34" t="s">
         <v>4</v>
       </c>
@@ -1926,10 +1936,12 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
@@ -1941,8 +1953,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" t="s">
         <v>4</v>
       </c>
@@ -1954,8 +1966,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
       <c r="D37" t="s">
         <v>4</v>
       </c>
@@ -1967,7 +1979,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
       <c r="D38" t="s">
         <v>4</v>
       </c>
@@ -1979,7 +1992,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +2005,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
       <c r="D40" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +2018,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
       <c r="D41" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2031,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" t="s">
         <v>4</v>
       </c>
@@ -2027,7 +2044,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
       <c r="D43" t="s">
         <v>4</v>
       </c>
@@ -2039,7 +2057,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
       <c r="D44" t="s">
         <v>4</v>
       </c>
@@ -2051,7 +2070,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
       <c r="D45" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2083,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="18"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="15"/>
       <c r="D46" t="s">
         <v>4</v>
       </c>
@@ -2075,9 +2096,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>168</v>
       </c>
+      <c r="C47" s="11"/>
       <c r="D47" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2111,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="11"/>
       <c r="D48" t="s">
         <v>4</v>
       </c>
@@ -2101,7 +2124,8 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="11"/>
       <c r="D49" t="s">
         <v>4</v>
       </c>
@@ -2113,7 +2137,8 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="11"/>
       <c r="D50" t="s">
         <v>4</v>
       </c>
@@ -2125,7 +2150,8 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="11"/>
       <c r="D51" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2163,8 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="11"/>
       <c r="D52" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2176,8 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="18"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="11"/>
       <c r="D53" t="s">
         <v>4</v>
       </c>
@@ -2161,24 +2189,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="B47:B53"/>
+  <mergeCells count="19">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="B12:B19"/>
     <mergeCell ref="C12:C19"/>
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C35:C46"/>
+    <mergeCell ref="C47:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\Desktop\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53833958-F1F3-4EC7-B60F-52359302C9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Products"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="187">
   <si>
     <t>VariableName</t>
   </si>
@@ -587,8 +593,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,95 +719,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -813,10 +803,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -854,71 +844,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -946,7 +936,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -969,11 +959,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -982,13 +972,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -998,7 +988,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1007,7 +997,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1016,7 +1006,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1024,10 +1014,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1092,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1100,321 +1090,321 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="26" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="20.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A4" s="18" t="s">
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A5" s="18" t="s">
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A6" s="18" t="s">
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="18" t="s">
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A9" s="18" t="s">
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="18" t="s">
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A12" s="18" t="s">
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A13" s="18" t="s">
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A14" s="18" t="s">
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A15" s="18" t="s">
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A18" s="18" t="s">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A20" s="18" t="s">
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A21" s="18" t="s">
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="18" t="s">
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A23" s="18" t="s">
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A24" s="18" t="s">
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A25" s="22" t="s">
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A26" s="23" t="s">
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A27" s="24"/>
-      <c r="B27" s="3" t="s">
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A28" s="24"/>
-      <c r="B28" s="3" t="s">
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A29" s="25"/>
-      <c r="B29" s="3" t="s">
+      <c r="C28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1427,875 +1417,817 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="14" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="36.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="9" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="9" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="3" t="s">
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="3" t="s">
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="3" t="s">
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="3" t="s">
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="3" t="s">
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="3" t="s">
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="3" t="s">
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="3" t="s">
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="3" t="s">
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="3" t="s">
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="3" t="s">
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="15"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1"/>
-      <c r="B47" s="6" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="C47" s="16"/>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
+    </row>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1" t="s">
+    </row>
+    <row r="49" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="s">
+    </row>
+    <row r="50" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1" t="s">
+    </row>
+    <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
         <v>130</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1" t="s">
+    </row>
+    <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
         <v>132</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>133</v>
       </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="15"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
         <v>134</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2311,13 +2243,13 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
     <mergeCell ref="A28:A34"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B35:B46"/>
     <mergeCell ref="C35:C46"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="C47:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\Desktop\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53833958-F1F3-4EC7-B60F-52359302C9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97548569-4634-413E-BEAC-739411195429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,10 +47,6 @@
     <t>mainProductList1</t>
   </si>
   <si>
-    <t xml:space="preserve">General      
-</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -588,6 +584,10 @@
   </si>
   <si>
     <t>wiseNavbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general      
+</t>
   </si>
 </sst>
 </file>
@@ -757,14 +757,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -775,11 +775,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,302 +1110,302 @@
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1424,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,26 +1462,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>81</v>
+      <c r="B2" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1489,16 +1489,16 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1506,16 +1506,16 @@
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1523,16 +1523,16 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1540,16 +1540,16 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1557,16 +1557,16 @@
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1574,16 +1574,16 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1591,39 +1591,39 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1631,34 +1631,34 @@
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1666,13 +1666,13 @@
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,13 +1680,13 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1694,10 +1694,10 @@
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1705,13 +1705,13 @@
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
         <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1719,13 +1719,13 @@
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
         <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1733,13 +1733,13 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
         <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1747,31 +1747,31 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1779,13 +1779,13 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1793,13 +1793,13 @@
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
         <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1807,13 +1807,13 @@
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
         <v>68</v>
-      </c>
-      <c r="F23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1821,16 +1821,16 @@
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>71</v>
-      </c>
-      <c r="G24" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1838,13 +1838,13 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
         <v>73</v>
-      </c>
-      <c r="F25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1852,13 +1852,13 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
         <v>75</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1866,33 +1866,33 @@
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
         <v>77</v>
-      </c>
-      <c r="F27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>82</v>
-      </c>
-      <c r="F28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1900,13 +1900,13 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
         <v>84</v>
-      </c>
-      <c r="F29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1914,10 +1914,10 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1925,13 +1925,13 @@
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
         <v>87</v>
-      </c>
-      <c r="F31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1939,13 +1939,13 @@
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" t="s">
         <v>89</v>
-      </c>
-      <c r="F32" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1953,296 +1953,284 @@
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
         <v>91</v>
-      </c>
-      <c r="F33" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="17"/>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s">
         <v>93</v>
       </c>
-      <c r="F34" t="s">
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="14"/>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="15" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" t="s">
         <v>122</v>
-      </c>
-      <c r="F47" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="14"/>
       <c r="C48" s="17"/>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" t="s">
         <v>124</v>
-      </c>
-      <c r="F48" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="14"/>
       <c r="C49" s="17"/>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" t="s">
         <v>126</v>
-      </c>
-      <c r="F49" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="14"/>
       <c r="C50" s="17"/>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" t="s">
         <v>128</v>
-      </c>
-      <c r="F50" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="14"/>
       <c r="C51" s="17"/>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
         <v>130</v>
-      </c>
-      <c r="F51" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="14"/>
       <c r="C52" s="17"/>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" t="s">
         <v>132</v>
       </c>
-      <c r="F52" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="17"/>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" t="s">
         <v>134</v>
-      </c>
-      <c r="F53" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="A28:A34"/>
@@ -2250,6 +2238,18 @@
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B35:B46"/>
     <mergeCell ref="C35:C46"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\Desktop\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97548569-4634-413E-BEAC-739411195429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46458114-865F-416B-846B-54CC63C5884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="191">
   <si>
     <t>VariableName</t>
   </si>
@@ -588,6 +588,18 @@
   <si>
     <t xml:space="preserve">general      
 </t>
+  </si>
+  <si>
+    <t>fas fa-solid fa-server</t>
+  </si>
+  <si>
+    <t>fas-fa-laptop</t>
+  </si>
+  <si>
+    <t>fas fa-folder-open</t>
+  </si>
+  <si>
+    <t>fas fa-solid fa-paste</t>
   </si>
 </sst>
 </file>
@@ -757,14 +769,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -775,11 +787,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1423,8 +1435,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,14 +1474,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>80</v>
+      <c r="C2" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -1650,7 +1662,9 @@
       <c r="B12" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="16" t="s">
+        <v>187</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1763,7 +1777,9 @@
       <c r="B20" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1964,7 +1980,7 @@
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="17"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
@@ -1977,10 +1993,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2124,7 +2140,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="14"/>
       <c r="D46" s="2" t="s">
         <v>8</v>
@@ -2137,10 +2153,12 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="16"/>
+      <c r="C47" s="16" t="s">
+        <v>188</v>
+      </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +2235,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="17"/>
       <c r="D53" s="2" t="s">
         <v>8</v>
@@ -2231,6 +2249,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="A28:A34"/>
@@ -2238,19 +2268,8 @@
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B35:B46"/>
     <mergeCell ref="C35:C46"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46458114-865F-416B-846B-54CC63C5884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCA9A4C-66FB-40AE-80C0-F7A4FC0523E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,6 +47,13 @@
     <t>mainProductList1</t>
   </si>
   <si>
+    <t xml:space="preserve">general      
+</t>
+  </si>
+  <si>
+    <t>fas fa-folder-open</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
@@ -157,6 +164,9 @@
 </t>
   </si>
   <si>
+    <t>fas fa-solid fa-server</t>
+  </si>
+  <si>
     <t>management1</t>
   </si>
   <si>
@@ -209,6 +219,9 @@
 </t>
   </si>
   <si>
+    <t>fas fa-solid fa-paste</t>
+  </si>
+  <si>
     <t>education1</t>
   </si>
   <si>
@@ -586,33 +599,26 @@
     <t>wiseNavbar</t>
   </si>
   <si>
-    <t xml:space="preserve">general      
-</t>
-  </si>
-  <si>
-    <t>fas fa-solid fa-server</t>
-  </si>
-  <si>
-    <t>fas-fa-laptop</t>
-  </si>
-  <si>
-    <t>fas fa-folder-open</t>
-  </si>
-  <si>
-    <t>fas fa-solid fa-paste</t>
+    <t>fas fa-laptop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -622,7 +628,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -731,67 +737,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,16 +1122,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1121,303 +1139,303 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>138</v>
+      <c r="A2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>8</v>
+      <c r="C29" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1435,19 +1453,19 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1463,804 +1481,792 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>35</v>
       </c>
+      <c r="B10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>187</v>
+      <c r="A12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="A20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="24"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>188</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="14"/>
-      <c r="C48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" t="s">
-        <v>124</v>
+        <v>10</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="14"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="14"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" t="s">
-        <v>132</v>
+        <v>10</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
-      <c r="C53" s="17"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>133</v>
-      </c>
-      <c r="F53" t="s">
-        <v>134</v>
+        <v>10</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="A28:A34"/>
@@ -2268,8 +2274,19 @@
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B35:B46"/>
     <mergeCell ref="C35:C46"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCA9A4C-66FB-40AE-80C0-F7A4FC0523E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8795C1C-0189-4C7E-B93F-A07691328239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
     <t>wiseNavbar</t>
   </si>
   <si>
-    <t>fas fa-laptop</t>
+    <t>fas fa-keyboard</t>
   </si>
 </sst>
 </file>
@@ -787,29 +787,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,13 +1492,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2011,10 +2011,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2158,7 +2158,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="18"/>
       <c r="D46" s="2" t="s">
         <v>10</v>
@@ -2171,7 +2171,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C47" s="20" t="s">
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="24"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2" t="s">
         <v>10</v>
@@ -2267,6 +2267,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="A28:A34"/>
@@ -2274,18 +2286,6 @@
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B35:B46"/>
     <mergeCell ref="C35:C46"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8795C1C-0189-4C7E-B93F-A07691328239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C19B9-F08D-4C90-A51A-D6A59A2A6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="192">
   <si>
     <t>VariableName</t>
   </si>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>mainProductList1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general      
-</t>
   </si>
   <si>
     <t>fas fa-folder-open</t>
@@ -160,10 +156,6 @@
     <t>mainProductList3</t>
   </si>
   <si>
-    <t xml:space="preserve">management  
-</t>
-  </si>
-  <si>
     <t>fas fa-solid fa-server</t>
   </si>
   <si>
@@ -600,6 +592,17 @@
   </si>
   <si>
     <t>fas fa-keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General      
+</t>
+  </si>
+  <si>
+    <t>Education</t>
   </si>
 </sst>
 </file>
@@ -787,14 +790,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -805,11 +808,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,302 +1143,302 @@
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1451,10 +1454,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C53"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1492,26 +1495,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1519,16 +1522,16 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1536,16 +1539,16 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1553,16 +1556,16 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1570,16 +1573,16 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1587,16 +1590,16 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1604,16 +1607,16 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1621,39 +1624,39 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1661,36 +1664,36 @@
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="F12" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1698,13 +1701,13 @@
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1712,13 +1715,13 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1726,10 +1729,10 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1737,13 +1740,13 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1751,13 +1754,13 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1765,13 +1768,13 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1779,33 +1782,33 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="F20" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1813,13 +1816,13 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1827,13 +1830,13 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1841,13 +1844,13 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1855,16 +1858,16 @@
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1872,13 +1875,13 @@
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1886,13 +1889,13 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1900,33 +1903,33 @@
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="F28" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1934,13 +1937,13 @@
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1948,10 +1951,10 @@
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1959,13 +1962,13 @@
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1973,13 +1976,13 @@
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1987,298 +1990,291 @@
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="21"/>
       <c r="D34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="C35" s="17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="F35" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="18"/>
       <c r="D46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="C47" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="17" t="s">
+      <c r="F47" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="18"/>
       <c r="C48" s="21"/>
       <c r="D48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="18"/>
       <c r="C49" s="21"/>
       <c r="D49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="18"/>
       <c r="C50" s="21"/>
       <c r="D50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="18"/>
       <c r="C51" s="21"/>
       <c r="D51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="18"/>
       <c r="C52" s="21"/>
       <c r="D52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="A28:A34"/>
@@ -2286,6 +2282,18 @@
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B35:B46"/>
     <mergeCell ref="C35:C46"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C19B9-F08D-4C90-A51A-D6A59A2A6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01773416-2BA6-4F08-97DC-3519F197ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="191">
   <si>
     <t>VariableName</t>
   </si>
@@ -600,9 +600,6 @@
   <si>
     <t xml:space="preserve">General      
 </t>
-  </si>
-  <si>
-    <t>Education</t>
   </si>
 </sst>
 </file>
@@ -1454,10 +1451,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2266,11 +2263,6 @@
       </c>
       <c r="F53" s="3" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01773416-2BA6-4F08-97DC-3519F197ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE974F0B-12A7-4074-9DA4-26D74C27C536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
 </t>
   </si>
   <si>
-    <t>bi bi-person-bounding-box</t>
-  </si>
-  <si>
     <t>certificate generator</t>
   </si>
   <si>
@@ -600,6 +597,9 @@
   <si>
     <t xml:space="preserve">General      
 </t>
+  </si>
+  <si>
+    <t>fas fa-user-tie</t>
   </si>
 </sst>
 </file>
@@ -787,29 +787,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,21 +1140,21 @@
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>9</v>
@@ -1195,21 +1195,21 @@
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
@@ -1228,21 +1228,21 @@
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
@@ -1283,52 +1283,52 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>9</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>9</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>9</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>9</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>9</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>9</v>
@@ -1402,10 +1402,10 @@
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
@@ -1414,7 +1414,7 @@
     <row r="27" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
     <row r="28" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>9</v>
@@ -1432,7 +1432,7 @@
     <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>9</v>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1492,13 +1492,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1641,19 +1641,19 @@
         <v>35</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1664,33 +1664,33 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1701,10 +1701,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,10 +1715,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1729,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1740,10 +1740,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1754,10 +1754,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1768,10 +1768,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1782,30 +1782,30 @@
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1816,10 +1816,10 @@
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1830,10 +1830,10 @@
         <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1844,10 +1844,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1858,13 +1858,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1875,10 +1875,10 @@
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1889,10 +1889,10 @@
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1903,30 +1903,30 @@
         <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1937,10 +1937,10 @@
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1951,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1962,10 +1962,10 @@
         <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1976,10 +1976,10 @@
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1990,41 +1990,41 @@
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="21"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="3" t="s">
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2034,10 +2034,10 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2047,10 +2047,10 @@
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2060,10 +2060,10 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2073,10 +2073,10 @@
         <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2086,10 +2086,10 @@
         <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2099,10 +2099,10 @@
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2112,10 +2112,10 @@
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2125,10 +2125,10 @@
         <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2138,10 +2138,10 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2151,40 +2151,40 @@
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="18"/>
       <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="19" t="s">
+      <c r="C47" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2194,10 +2194,10 @@
         <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2207,10 +2207,10 @@
         <v>9</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2220,10 +2220,10 @@
         <v>9</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2233,10 +2233,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2246,27 +2246,39 @@
         <v>9</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="23"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="21"/>
       <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
     <mergeCell ref="B47:B53"/>
     <mergeCell ref="C47:C53"/>
     <mergeCell ref="A28:A34"/>
@@ -2274,18 +2286,6 @@
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B35:B46"/>
     <mergeCell ref="C35:C46"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE974F0B-12A7-4074-9DA4-26D74C27C536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{DE974F0B-12A7-4074-9DA4-26D74C27C536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E286D0F0-4E83-411D-9D0F-D97047D62E47}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
   <si>
     <t>VariableName</t>
   </si>
@@ -51,78 +51,6 @@
   </si>
   <si>
     <t>Text</t>
-  </si>
-  <si>
-    <t>General1</t>
-  </si>
-  <si>
-    <t>This is content for General 1</t>
-  </si>
-  <si>
-    <t>This is value for General1</t>
-  </si>
-  <si>
-    <t>General2</t>
-  </si>
-  <si>
-    <t>This is content for General 2</t>
-  </si>
-  <si>
-    <t>This is value for General2</t>
-  </si>
-  <si>
-    <t>General3</t>
-  </si>
-  <si>
-    <t>This is content for General 3</t>
-  </si>
-  <si>
-    <t>This is value for General3</t>
-  </si>
-  <si>
-    <t>General5</t>
-  </si>
-  <si>
-    <t>This is content for General 4</t>
-  </si>
-  <si>
-    <t>This is value for General4</t>
-  </si>
-  <si>
-    <t>General6</t>
-  </si>
-  <si>
-    <t>This is content for General 5</t>
-  </si>
-  <si>
-    <t>This is value for General5</t>
-  </si>
-  <si>
-    <t>General7</t>
-  </si>
-  <si>
-    <t>This is content for General 6</t>
-  </si>
-  <si>
-    <t>This is value for General6</t>
-  </si>
-  <si>
-    <t>General8</t>
-  </si>
-  <si>
-    <t>This is content for General 7</t>
-  </si>
-  <si>
-    <t>This is value for General7</t>
-  </si>
-  <si>
-    <t>General9</t>
-  </si>
-  <si>
-    <t>This is content for General 8</t>
-  </si>
-  <si>
-    <t>This is value for General8</t>
   </si>
   <si>
     <t>mainProductList2</t>
@@ -132,73 +60,10 @@
 </t>
   </si>
   <si>
-    <t>certificate generator</t>
-  </si>
-  <si>
-    <t>This is content for hr certificate generator</t>
-  </si>
-  <si>
-    <t>This is value for hr certificate generator</t>
-  </si>
-  <si>
-    <t>letter generator</t>
-  </si>
-  <si>
-    <t>This is content for hr letter generator</t>
-  </si>
-  <si>
-    <t>This is value for hr letter generator</t>
-  </si>
-  <si>
     <t>mainProductList3</t>
   </si>
   <si>
     <t>fas fa-solid fa-server</t>
-  </si>
-  <si>
-    <t>management1</t>
-  </si>
-  <si>
-    <t>This is for content for management1</t>
-  </si>
-  <si>
-    <t>management2</t>
-  </si>
-  <si>
-    <t>This is for content for management2</t>
-  </si>
-  <si>
-    <t>management3</t>
-  </si>
-  <si>
-    <t>This is for content for management3</t>
-  </si>
-  <si>
-    <t>management4</t>
-  </si>
-  <si>
-    <t>management5</t>
-  </si>
-  <si>
-    <t>This is for content for management5</t>
-  </si>
-  <si>
-    <t>management6</t>
-  </si>
-  <si>
-    <t>This is for content for management6</t>
-  </si>
-  <si>
-    <t>management7</t>
-  </si>
-  <si>
-    <t>This is for content for management7</t>
-  </si>
-  <si>
-    <t>management8</t>
-  </si>
-  <si>
-    <t>This is for content for management8</t>
   </si>
   <si>
     <t>mainProductList4</t>
@@ -211,57 +76,6 @@
     <t>fas fa-solid fa-paste</t>
   </si>
   <si>
-    <t>education1</t>
-  </si>
-  <si>
-    <t>This is for content for education1</t>
-  </si>
-  <si>
-    <t>education2</t>
-  </si>
-  <si>
-    <t>This is for content for education2</t>
-  </si>
-  <si>
-    <t>education3</t>
-  </si>
-  <si>
-    <t>This is for content for education3</t>
-  </si>
-  <si>
-    <t>education4</t>
-  </si>
-  <si>
-    <t>This is for content for education4</t>
-  </si>
-  <si>
-    <t>education5</t>
-  </si>
-  <si>
-    <t>This is for content for education5</t>
-  </si>
-  <si>
-    <t>This is the value for education5</t>
-  </si>
-  <si>
-    <t>education6</t>
-  </si>
-  <si>
-    <t>This is for content for education6</t>
-  </si>
-  <si>
-    <t>education7</t>
-  </si>
-  <si>
-    <t>This is for content for education7</t>
-  </si>
-  <si>
-    <t>education8</t>
-  </si>
-  <si>
-    <t>This is for content for education8</t>
-  </si>
-  <si>
     <t>mainProductList5</t>
   </si>
   <si>
@@ -272,45 +86,6 @@
     <t>fa fa-university</t>
   </si>
   <si>
-    <t>finance1</t>
-  </si>
-  <si>
-    <t>This is conent for finance1</t>
-  </si>
-  <si>
-    <t>finance2</t>
-  </si>
-  <si>
-    <t>This is conent for finance2</t>
-  </si>
-  <si>
-    <t>finance3</t>
-  </si>
-  <si>
-    <t>finance4</t>
-  </si>
-  <si>
-    <t>This is conent for finance4</t>
-  </si>
-  <si>
-    <t>finance5</t>
-  </si>
-  <si>
-    <t>This is conent for finance5</t>
-  </si>
-  <si>
-    <t>finance6</t>
-  </si>
-  <si>
-    <t>This is conent for finance6</t>
-  </si>
-  <si>
-    <t>finance7</t>
-  </si>
-  <si>
-    <t>This is conent for finance7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Software
 </t>
   </si>
@@ -318,121 +93,7 @@
     <t>fas fa-duotone fa-building</t>
   </si>
   <si>
-    <t>software1</t>
-  </si>
-  <si>
-    <t>This is content for software1</t>
-  </si>
-  <si>
-    <t>software2</t>
-  </si>
-  <si>
-    <t>This is content for software2</t>
-  </si>
-  <si>
-    <t>software3</t>
-  </si>
-  <si>
-    <t>This is content for software3</t>
-  </si>
-  <si>
-    <t>software4</t>
-  </si>
-  <si>
-    <t>This is content for software4</t>
-  </si>
-  <si>
-    <t>software5</t>
-  </si>
-  <si>
-    <t>This is content for software5</t>
-  </si>
-  <si>
-    <t>software6</t>
-  </si>
-  <si>
-    <t>This is content for software6</t>
-  </si>
-  <si>
-    <t>software7</t>
-  </si>
-  <si>
-    <t>This is content for software7</t>
-  </si>
-  <si>
-    <t>software8</t>
-  </si>
-  <si>
-    <t>This is content for software8</t>
-  </si>
-  <si>
-    <t>software9</t>
-  </si>
-  <si>
-    <t>This is content for software9</t>
-  </si>
-  <si>
-    <t>software10</t>
-  </si>
-  <si>
-    <t>This is content for software10</t>
-  </si>
-  <si>
-    <t>software11</t>
-  </si>
-  <si>
-    <t>This is content for software11</t>
-  </si>
-  <si>
-    <t>software12</t>
-  </si>
-  <si>
-    <t>This is content for software12</t>
-  </si>
-  <si>
     <t>Training</t>
-  </si>
-  <si>
-    <t>Training1</t>
-  </si>
-  <si>
-    <t>This is content for Training1</t>
-  </si>
-  <si>
-    <t>Training2</t>
-  </si>
-  <si>
-    <t>This is content for Training2</t>
-  </si>
-  <si>
-    <t>Training3</t>
-  </si>
-  <si>
-    <t>This is content for Training3</t>
-  </si>
-  <si>
-    <t>Training4</t>
-  </si>
-  <si>
-    <t>This is content for Training4</t>
-  </si>
-  <si>
-    <t>Training5</t>
-  </si>
-  <si>
-    <t>This is content for Training5</t>
-  </si>
-  <si>
-    <t>Training6</t>
-  </si>
-  <si>
-    <t>This is content for Training6</t>
-  </si>
-  <si>
-    <t>Training7</t>
-  </si>
-  <si>
-    <t>This is content for Training7</t>
   </si>
   <si>
     <t>wiseLogo</t>
@@ -600,6 +261,87 @@
   </si>
   <si>
     <t>fas fa-user-tie</t>
+  </si>
+  <si>
+    <t>Email Sending Bot</t>
+  </si>
+  <si>
+    <t>WhatsApp Bot</t>
+  </si>
+  <si>
+    <t>Feedback Process</t>
+  </si>
+  <si>
+    <t>Payroll Process</t>
+  </si>
+  <si>
+    <t>Boardcast Onboarding Mails</t>
+  </si>
+  <si>
+    <t>Attendance Tracker</t>
+  </si>
+  <si>
+    <t>Tracker Monitor</t>
+  </si>
+  <si>
+    <t>Resume Downloader</t>
+  </si>
+  <si>
+    <t>Welcome Bot/Employee Induction Email</t>
+  </si>
+  <si>
+    <t>Resume Classifier</t>
+  </si>
+  <si>
+    <t>Google Review Update</t>
+  </si>
+  <si>
+    <t>Process Tracker</t>
+  </si>
+  <si>
+    <t>Reminder Bot</t>
+  </si>
+  <si>
+    <t>Meeting Schedular</t>
+  </si>
+  <si>
+    <t>Document Generator</t>
+  </si>
+  <si>
+    <t>Expense Tracker</t>
+  </si>
+  <si>
+    <t>ECW Web Process/Download</t>
+  </si>
+  <si>
+    <t>Mapping Excel Template Process</t>
+  </si>
+  <si>
+    <t>ECW Upload Manager AR</t>
+  </si>
+  <si>
+    <t>AI Client Recorder</t>
+  </si>
+  <si>
+    <t>Skype Bot</t>
+  </si>
+  <si>
+    <t>AMD Upload</t>
+  </si>
+  <si>
+    <t>AMD Download</t>
+  </si>
+  <si>
+    <t>Lakeside Neurology</t>
+  </si>
+  <si>
+    <t>EBO To ERA</t>
+  </si>
+  <si>
+    <t>Mentor Support Project</t>
+  </si>
+  <si>
+    <t>Wise Wish Bot</t>
   </si>
 </sst>
 </file>
@@ -648,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -681,15 +423,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -737,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,45 +490,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -803,12 +536,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1140,21 +867,21 @@
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -1162,10 +889,10 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -1173,10 +900,10 @@
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
@@ -1184,10 +911,10 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>9</v>
@@ -1195,21 +922,21 @@
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>9</v>
@@ -1217,10 +944,10 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
@@ -1228,21 +955,21 @@
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>9</v>
@@ -1250,10 +977,10 @@
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>9</v>
@@ -1261,10 +988,10 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
@@ -1272,10 +999,10 @@
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
@@ -1283,52 +1010,52 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>9</v>
@@ -1336,10 +1063,10 @@
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>9</v>
@@ -1347,10 +1074,10 @@
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>9</v>
@@ -1358,10 +1085,10 @@
     </row>
     <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>9</v>
@@ -1369,10 +1096,10 @@
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>9</v>
@@ -1380,10 +1107,10 @@
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>9</v>
@@ -1391,10 +1118,10 @@
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>9</v>
@@ -1402,10 +1129,10 @@
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>9</v>
@@ -1414,7 +1141,7 @@
     <row r="27" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>9</v>
@@ -1423,7 +1150,7 @@
     <row r="28" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>9</v>
@@ -1432,7 +1159,7 @@
     <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>9</v>
@@ -1451,10 +1178,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1492,27 +1219,23 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
@@ -1522,14 +1245,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
@@ -1539,14 +1258,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
@@ -1556,169 +1271,114 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="E6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="E7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="E8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
+      <c r="E9" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>190</v>
-      </c>
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1729,24 +1389,27 @@
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1754,13 +1417,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1768,13 +1428,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1782,33 +1439,27 @@
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -1816,27 +1467,27 @@
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -1844,448 +1495,167 @@
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="E24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="23"/>
+    <row r="34" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="18"/>
       <c r="C34" s="21"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="18"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="18"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="18"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="18"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="18"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="18"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="C35:C46"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46458114-865F-416B-846B-54CC63C5884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Products" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId2" sheetId="2" name="Products"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -47,6 +41,13 @@
     <t>mainProductList1</t>
   </si>
   <si>
+    <t xml:space="preserve">general      
+</t>
+  </si>
+  <si>
+    <t>fas fa-folder-open</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
@@ -157,6 +158,9 @@
 </t>
   </si>
   <si>
+    <t>fas fa-solid fa-server</t>
+  </si>
+  <si>
     <t>management1</t>
   </si>
   <si>
@@ -209,6 +213,9 @@
 </t>
   </si>
   <si>
+    <t>fas fa-solid fa-paste</t>
+  </si>
+  <si>
     <t>education1</t>
   </si>
   <si>
@@ -391,6 +398,9 @@
     <t>Training</t>
   </si>
   <si>
+    <t>fas fa-laptop</t>
+  </si>
+  <si>
     <t>Training1</t>
   </si>
   <si>
@@ -584,35 +594,26 @@
   </si>
   <si>
     <t>wiseNavbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general      
-</t>
-  </si>
-  <si>
-    <t>fas fa-solid fa-server</t>
-  </si>
-  <si>
-    <t>fas-fa-laptop</t>
-  </si>
-  <si>
-    <t>fas fa-folder-open</t>
-  </si>
-  <si>
-    <t>fas fa-solid fa-paste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -622,7 +623,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -731,80 +732,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="29">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -815,10 +837,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -856,71 +878,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -948,7 +970,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -971,11 +993,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -984,13 +1006,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1000,7 +1022,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1009,7 +1031,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1018,7 +1040,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1026,10 +1048,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1094,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1102,322 +1124,322 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="27" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B2" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="C2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A3" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C3" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A4" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C4" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A5" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="C5" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A6" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="C6" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B7" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="C7" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="7" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B8" s="21" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="C8" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A9" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B9" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="C9" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B10" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="C10" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B11" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C11" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="32.25" customFormat="1" s="5">
+      <c r="A12" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C12" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="5">
+      <c r="A13" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="C13" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25" customFormat="1" s="5">
+      <c r="A14" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="C14" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25" customFormat="1" s="5">
+      <c r="A15" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="C15" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25" customFormat="1" s="5">
+      <c r="A16" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C16" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25" customFormat="1" s="5">
+      <c r="A17" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C17" s="19"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="32.25" customFormat="1" s="5">
+      <c r="A18" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="5">
+      <c r="A19" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A20" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C20" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="5">
+      <c r="A21" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C21" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="B22" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C22" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A23" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>8</v>
+      <c r="C23" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A24" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A25" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A26" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A27" s="25"/>
+      <c r="B27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A28" s="25"/>
+      <c r="B28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A29" s="26"/>
+      <c r="B29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1429,823 +1451,883 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C27"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="15" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="36.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="16" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="F11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="B12" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F13" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="F18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="G18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F21" t="s">
+      <c r="C20" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F20" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="G20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F21" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G24" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F25" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="G25" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="F26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="G26" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G27" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="B28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F29" t="s">
+      <c r="C28" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G28" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G29" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F31" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="G31" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F32" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+      <c r="G32" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="F33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="G33" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F34" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="G34" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A35" s="4"/>
+      <c r="B35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="C35" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="G35" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A36" s="4"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="G36" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A37" s="4"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="G37" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A38" s="4"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="G38" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A39" s="4"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="G39" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A40" s="4"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="G40" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A41" s="4"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="G41" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A42" s="4"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="G42" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A43" s="4"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="G43" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A44" s="4"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="13" t="s">
+      <c r="G44" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A45" s="4"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F45" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G45" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="5">
+      <c r="A46" s="4"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="14"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F46" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G46" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="1"/>
+      <c r="B47" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C47" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F49" t="s">
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="14"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F47" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G47" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="1"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="14"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F48" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G48" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="1"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F49" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G49" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="1"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F50" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G50" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="1"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="F51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="1"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="1"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2261,15 +2343,14 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="C47:C53"/>
     <mergeCell ref="A28:A34"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B35:B46"/>
     <mergeCell ref="C35:C46"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -41,7 +41,7 @@
     <t>mainProductList1</t>
   </si>
   <si>
-    <t xml:space="preserve">general      
+    <t xml:space="preserve">General      
 </t>
   </si>
   <si>
@@ -154,7 +154,7 @@
     <t>mainProductList3</t>
   </si>
   <si>
-    <t xml:space="preserve">management  
+    <t xml:space="preserve">Management  
 </t>
   </si>
   <si>
@@ -611,6 +611,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -619,12 +625,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -732,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -743,80 +743,77 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,9 +1123,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="26" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="27" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="5">
@@ -1223,7 +1220,7 @@
       <c r="A9" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -1394,7 +1391,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>188</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1405,7 +1402,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>190</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1416,7 +1413,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A27" s="25"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="3" t="s">
         <v>146</v>
       </c>
@@ -1425,7 +1422,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A28" s="25"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="3" t="s">
         <v>148</v>
       </c>
@@ -1434,7 +1431,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A29" s="26"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="3" t="s">
         <v>150</v>
       </c>
@@ -1461,10 +1458,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="7.576428571428571" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="17" width="22.433571428571426" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="17" width="42.14785714285715" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="17" width="36.005" customWidth="1" bestFit="1"/>
@@ -1659,9 +1656,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1697,9 +1694,9 @@
       <c r="G12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1712,9 +1709,9 @@
       <c r="G13" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1727,9 +1724,9 @@
       <c r="G14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1740,9 +1737,9 @@
       <c r="G15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1755,9 +1752,9 @@
       <c r="G16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1770,9 +1767,9 @@
       <c r="G17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1785,9 +1782,9 @@
       <c r="G18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1821,9 +1818,9 @@
       <c r="G20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1836,9 +1833,9 @@
       <c r="G21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1851,9 +1848,9 @@
       <c r="G22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1866,9 +1863,9 @@
       <c r="G23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1883,9 +1880,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
@@ -1898,9 +1895,9 @@
       <c r="G25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1913,9 +1910,9 @@
       <c r="G26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
@@ -1949,9 +1946,9 @@
       <c r="G28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1964,9 +1961,9 @@
       <c r="G29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1977,9 +1974,9 @@
       <c r="G30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1992,9 +1989,9 @@
       <c r="G31" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
@@ -2007,9 +2004,9 @@
       <c r="G32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
@@ -2021,10 +2018,10 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="12"/>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
         <v>10</v>
       </c>
@@ -2036,7 +2033,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A35" s="4"/>
       <c r="B35" s="7" t="s">
         <v>98</v>
@@ -2055,7 +2052,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A36" s="4"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2070,7 +2067,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A37" s="4"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2085,7 +2082,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A38" s="4"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2100,7 +2097,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A39" s="4"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2115,7 +2112,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A40" s="4"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2130,7 +2127,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A41" s="4"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2145,7 +2142,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A42" s="4"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2160,7 +2157,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A43" s="4"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2175,7 +2172,7 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A44" s="4"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2190,7 +2187,7 @@
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A45" s="4"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2205,9 +2202,9 @@
       </c>
       <c r="G45" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A46" s="4"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="9"/>
       <c r="D46" s="3" t="s">
         <v>10</v>
@@ -2220,7 +2217,7 @@
       </c>
       <c r="G46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1"/>
       <c r="B47" s="7" t="s">
         <v>124</v>
@@ -2239,10 +2236,10 @@
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="12"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2254,10 +2251,10 @@
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="12"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2269,10 +2266,10 @@
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="12"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
         <v>10</v>
       </c>
@@ -2284,10 +2281,10 @@
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="1"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="12"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
@@ -2299,10 +2296,10 @@
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="1"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="12"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2314,10 +2311,10 @@
       </c>
       <c r="G52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
         <v>10</v>
       </c>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -130,7 +130,7 @@
 </t>
   </si>
   <si>
-    <t>bi bi-person-bounding-box</t>
+    <t>material-icons</t>
   </si>
   <si>
     <t>certificate generator</t>
@@ -601,7 +601,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,12 +612,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -732,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -743,22 +737,19 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -770,7 +761,7 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -782,31 +773,28 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1123,16 +1111,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="26" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="27" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="24" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="25" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A1" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1140,302 +1128,302 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A3" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A3" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A4" s="19" t="s">
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A4" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A5" s="19" t="s">
+      <c r="C4" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A5" s="17" t="s">
         <v>147</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A6" s="19" t="s">
+      <c r="C5" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A6" s="17" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A9" s="19" t="s">
+      <c r="C8" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A9" s="17" t="s">
         <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A12" s="19" t="s">
+      <c r="C11" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A12" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="5">
-      <c r="A13" s="19" t="s">
+      <c r="C12" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="4">
+      <c r="A13" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A14" s="19" t="s">
+      <c r="C13" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A14" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A15" s="19" t="s">
+      <c r="C14" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A15" s="17" t="s">
         <v>169</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A16" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A16" s="17" t="s">
         <v>172</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A17" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A17" s="17" t="s">
         <v>174</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A18" s="19" t="s">
+      <c r="C17" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A18" s="17" t="s">
         <v>176</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="5">
-      <c r="A19" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="4">
+      <c r="A19" s="17" t="s">
         <v>177</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A20" s="19" t="s">
+      <c r="C19" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A20" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="5">
-      <c r="A21" s="19" t="s">
+      <c r="C20" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="4">
+      <c r="A21" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A23" s="19" t="s">
+      <c r="C22" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A23" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A24" s="19" t="s">
+      <c r="C23" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A24" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A25" s="22" t="s">
+      <c r="C24" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A25" s="20" t="s">
         <v>188</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A26" s="23" t="s">
+      <c r="C25" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A26" s="21" t="s">
         <v>190</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A27" s="24"/>
+      <c r="C26" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A27" s="22"/>
       <c r="B27" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A28" s="24"/>
+      <c r="C27" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A28" s="22"/>
       <c r="B28" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A29" s="25"/>
+      <c r="C28" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A29" s="23"/>
       <c r="B29" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1458,16 +1446,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="36.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="36.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,27 +1468,27 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A2" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1513,10 +1501,10 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1530,10 +1518,10 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1547,10 +1535,10 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1564,10 +1552,10 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1581,10 +1569,10 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1598,10 +1586,10 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1615,10 +1603,10 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1632,190 +1620,190 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="G12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="G13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="G14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="G16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="G17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="G18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="10" t="s">
+      <c r="G19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2"/>
@@ -1824,13 +1812,13 @@
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2"/>
@@ -1839,13 +1827,13 @@
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2"/>
@@ -1854,13 +1842,13 @@
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2"/>
@@ -1869,13 +1857,13 @@
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1886,13 +1874,13 @@
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2"/>
@@ -1901,13 +1889,13 @@
       <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2"/>
@@ -1916,34 +1904,34 @@
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2"/>
@@ -1952,13 +1940,13 @@
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2"/>
@@ -1967,11 +1955,11 @@
       <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="2"/>
@@ -1980,13 +1968,13 @@
       <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2"/>
@@ -1995,13 +1983,13 @@
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2"/>
@@ -2010,35 +1998,35 @@
       <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="2"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A35" s="4"/>
-      <c r="B35" s="7" t="s">
+      <c r="G34" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -2050,12 +2038,12 @@
       <c r="F35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A36" s="4"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="3" t="s">
         <v>10</v>
       </c>
@@ -2065,12 +2053,12 @@
       <c r="F36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A37" s="4"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="3" t="s">
         <v>10</v>
       </c>
@@ -2080,12 +2068,12 @@
       <c r="F37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A38" s="4"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="3" t="s">
         <v>10</v>
       </c>
@@ -2095,12 +2083,12 @@
       <c r="F38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="3" t="s">
         <v>10</v>
       </c>
@@ -2110,12 +2098,12 @@
       <c r="F39" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A40" s="4"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="3" t="s">
         <v>10</v>
       </c>
@@ -2125,12 +2113,12 @@
       <c r="F40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A41" s="4"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2140,12 +2128,12 @@
       <c r="F41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A42" s="4"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2155,12 +2143,12 @@
       <c r="F42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A43" s="4"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2170,12 +2158,12 @@
       <c r="F43" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A44" s="4"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="3" t="s">
         <v>10</v>
       </c>
@@ -2185,12 +2173,12 @@
       <c r="F44" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A45" s="4"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2200,12 +2188,12 @@
       <c r="F45" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A46" s="4"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="9"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2215,116 +2203,116 @@
       <c r="F46" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1"/>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1"/>
-      <c r="B48" s="9"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1"/>
-      <c r="B49" s="9"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1"/>
-      <c r="B50" s="9"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="1"/>
-      <c r="B51" s="9"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="1"/>
-      <c r="B52" s="9"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1"/>
-      <c r="B53" s="13"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -130,7 +130,7 @@
 </t>
   </si>
   <si>
-    <t>material-icons</t>
+    <t>fas fa-user-tie</t>
   </si>
   <si>
     <t>certificate generator</t>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{DE974F0B-12A7-4074-9DA4-26D74C27C536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E286D0F0-4E83-411D-9D0F-D97047D62E47}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{DE974F0B-12A7-4074-9DA4-26D74C27C536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{355E4649-9DAD-43BA-B7C1-ECF430BE8D9A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,15 +520,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -536,6 +533,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,6 +553,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,14 +1185,14 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C6" sqref="C6:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.109375" style="3" bestFit="1" customWidth="1"/>
@@ -1219,13 +1223,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1277,13 +1281,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1294,9 +1298,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1305,9 +1309,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1316,9 +1320,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1327,9 +1331,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1338,9 +1342,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1349,9 +1353,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1360,9 +1364,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1371,9 +1375,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1382,9 +1386,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1393,13 +1397,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1410,9 +1414,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1421,9 +1425,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1432,9 +1436,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1443,13 +1447,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1460,9 +1464,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1471,13 +1475,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1488,9 +1492,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1499,10 +1503,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1602,10 +1606,10 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1617,7 +1621,7 @@
     </row>
     <row r="34" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
-      <c r="C34" s="21"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1631,7 @@
     </row>
     <row r="35" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
-      <c r="C35" s="21"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1637,6 +1641,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1644,18 +1660,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -45,7 +45,7 @@
 </t>
   </si>
   <si>
-    <t>bi bi-inboxes-fill</t>
+    <t>far fa-folder-open</t>
   </si>
   <si>
     <t>Text</t>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -45,7 +45,7 @@
 </t>
   </si>
   <si>
-    <t>far fa-folder-open</t>
+    <t>fas fa-folder-open</t>
   </si>
   <si>
     <t>Text</t>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -398,7 +398,7 @@
     <t>Training</t>
   </si>
   <si>
-    <t>fas fa-laptop</t>
+    <t>fas fa-laptop-code</t>
   </si>
   <si>
     <t>Training1</t>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>VariableName</t>
   </si>
@@ -333,6 +333,18 @@
   </si>
   <si>
     <t>Your Partner For Automation</t>
+  </si>
+  <si>
+    <t>wiseProjectHeading1</t>
+  </si>
+  <si>
+    <t>Our Project</t>
+  </si>
+  <si>
+    <t>wiseProjectTagline1</t>
+  </si>
+  <si>
+    <t>Our Recently Completed Projects</t>
   </si>
   <si>
     <t>wiseNavbar</t>
@@ -358,15 +370,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -465,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -476,22 +488,19 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -500,43 +509,52 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -847,22 +865,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="27" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="28" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A1" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -870,308 +888,326 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A3" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A4" s="18" t="s">
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A5" s="18" t="s">
+      <c r="C4" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A5" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A6" s="18" t="s">
+      <c r="C5" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A6" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A9" s="18" t="s">
+      <c r="C8" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A9" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A12" s="18" t="s">
+      <c r="C11" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A12" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="5">
-      <c r="A13" s="18" t="s">
+      <c r="C12" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="4">
+      <c r="A13" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A14" s="18" t="s">
+      <c r="C13" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A14" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A15" s="18" t="s">
+      <c r="C14" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A15" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A16" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A16" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A17" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A17" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="32.25" customFormat="1" s="5">
-      <c r="A18" s="18" t="s">
+      <c r="C17" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="32.25" customFormat="1" s="4">
+      <c r="A18" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="5">
-      <c r="A19" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="4">
+      <c r="A19" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A20" s="18" t="s">
+      <c r="C19" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A20" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="5">
-      <c r="A21" s="18" t="s">
+      <c r="C20" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="4">
+      <c r="A21" s="17" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A23" s="18" t="s">
+      <c r="C22" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A23" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A24" s="18" t="s">
+      <c r="C23" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A24" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A25" s="21" t="s">
+      <c r="C24" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A25" s="20" t="s">
         <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A26" s="22" t="s">
+      <c r="C25" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="23"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="23"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A28" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A27" s="23"/>
-      <c r="B27" s="3" t="s">
+      <c r="C28" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A28" s="23"/>
-      <c r="B28" s="3" t="s">
+      <c r="C29" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A29" s="24"/>
-      <c r="B29" s="3" t="s">
+      <c r="C30" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A31" s="26"/>
+      <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A28:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1184,17 +1220,17 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="36.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="36.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1210,27 +1246,27 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A2" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1239,10 +1275,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1252,10 +1288,10 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1265,10 +1301,10 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1279,127 +1315,127 @@
       <c r="G5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32.25">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
       <c r="A8" s="2"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="32.25">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33.75">
       <c r="A12" s="2"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
@@ -1408,30 +1444,30 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2"/>
@@ -1440,11 +1476,11 @@
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2"/>
@@ -1453,11 +1489,11 @@
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2"/>
@@ -1466,30 +1502,30 @@
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2"/>
@@ -1498,30 +1534,30 @@
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2"/>
@@ -1530,18 +1566,18 @@
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1551,12 +1587,12 @@
         <v>42</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
@@ -1564,12 +1600,12 @@
         <v>43</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A26" s="11"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1577,12 +1613,12 @@
         <v>44</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A27" s="11"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
@@ -1590,12 +1626,12 @@
         <v>45</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A28" s="11"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1603,12 +1639,12 @@
         <v>46</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A29" s="11"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1616,12 +1652,12 @@
         <v>47</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1629,12 +1665,12 @@
         <v>48</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1642,12 +1678,12 @@
         <v>49</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
@@ -1655,50 +1691,50 @@
         <v>50</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="9"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>VariableName</t>
   </si>
@@ -376,15 +376,15 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -477,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -509,9 +509,6 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -524,28 +521,25 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -871,13 +865,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="25" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A1" s="12" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -887,321 +881,325 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="17" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A3" s="17" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A3" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A4" s="17" t="s">
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A4" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A5" s="17" t="s">
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A5" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A6" s="17" t="s">
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="4">
+      <c r="A6" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A9" s="17" t="s">
+      <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="75" customFormat="1" s="4">
+      <c r="A9" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="17" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A12" s="17" t="s">
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33.75" customFormat="1" s="4">
+      <c r="A12" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A14" s="17" t="s">
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33.75" customFormat="1" s="4">
+      <c r="A14" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>108</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A29" s="25"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A30" s="25"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A31" s="26"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1224,13 +1222,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="36.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="36.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1330,12 +1328,12 @@
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -1343,12 +1341,12 @@
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
       <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -1356,12 +1354,12 @@
       <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2"/>
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -1369,12 +1367,12 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1382,12 +1380,12 @@
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
         <v>10</v>
@@ -1395,12 +1393,12 @@
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33.75">
       <c r="A12" s="2"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
         <v>10</v>
@@ -1408,12 +1406,12 @@
       <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
         <v>10</v>
@@ -1421,12 +1419,12 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -1434,8 +1432,8 @@
       <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
@@ -1447,8 +1445,8 @@
       <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="9" t="s">
@@ -1466,8 +1464,8 @@
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2"/>
@@ -1479,8 +1477,8 @@
       <c r="E17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2"/>
@@ -1492,8 +1490,8 @@
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2"/>
@@ -1505,8 +1503,8 @@
       <c r="E19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="9" t="s">
@@ -1524,8 +1522,8 @@
       <c r="E20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2"/>
@@ -1537,8 +1535,8 @@
       <c r="E21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="9" t="s">
@@ -1556,8 +1554,8 @@
       <c r="E22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2"/>
@@ -1569,11 +1567,11 @@
       <c r="E23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A24" s="11"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
@@ -1587,10 +1585,10 @@
         <v>42</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A25" s="11"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
@@ -1600,10 +1598,10 @@
         <v>43</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A26" s="11"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="3" t="s">
@@ -1613,10 +1611,10 @@
         <v>44</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A27" s="11"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="3" t="s">
@@ -1626,10 +1624,10 @@
         <v>45</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A28" s="11"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="3" t="s">
@@ -1639,10 +1637,10 @@
         <v>46</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A29" s="11"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="3" t="s">
@@ -1652,10 +1650,10 @@
         <v>47</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A30" s="11"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="3" t="s">
@@ -1665,10 +1663,10 @@
         <v>48</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A31" s="11"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="3" t="s">
@@ -1678,10 +1676,10 @@
         <v>49</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A32" s="11"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="3" t="s">
@@ -1691,7 +1689,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
@@ -1707,8 +1705,8 @@
       <c r="E33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
@@ -1720,8 +1718,8 @@
       <c r="E34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
@@ -1733,8 +1731,8 @@
       <c r="E35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\OneDrive\Desktop\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A10EDF-49E4-4AC2-9D57-2B03B8FB3C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Products"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -188,9 +194,6 @@
     <t>wiseLogo</t>
   </si>
   <si>
-    <t>https://github.com/WisetechSourceProduct/AutomationProductCatalogue/blob/main/WTSCatalogue/static/images/WTS_Logo.png?raw=true</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -348,13 +351,15 @@
   </si>
   <si>
     <t>wiseNavbar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cj-q1MBfwgM6QqA0eotnyrS4nq52aaK6/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,94 +483,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -576,10 +584,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -617,71 +625,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -709,7 +717,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -732,11 +740,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -745,13 +753,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -761,7 +769,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -770,7 +778,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -779,7 +787,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -787,10 +795,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -855,351 +863,353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="25" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="20.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="75" customFormat="1" s="4">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="15" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33.75" customFormat="1" s="4">
-      <c r="A12" s="15" t="s">
+      <c r="B12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33.75" customFormat="1" s="4">
-      <c r="A14" s="15" t="s">
+      <c r="B14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A15" s="15" t="s">
+      <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="15" t="s">
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A17" s="15" t="s">
+      <c r="B17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A18" s="15" t="s">
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A19" s="15" t="s">
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A21" s="15" t="s">
+      <c r="B21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="15" t="s">
+      <c r="B22" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A23" s="15" t="s">
+      <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A24" s="15" t="s">
+      <c r="B24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A25" s="18" t="s">
+      <c r="B25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="19" t="s">
+      <c r="B26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="C26" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="19" t="s">
+      <c r="B27" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A28" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A29" s="23"/>
-      <c r="B29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A31" s="24"/>
-      <c r="B31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="15" t="s">
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1212,7 +1222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1220,541 +1230,538 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="12" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="36.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="9" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="9" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="9" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="9" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1"/>
-      <c r="B33" s="6" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="21"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="A6:A15"/>
     <mergeCell ref="B6:B15"/>
     <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
@@ -355,7 +355,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,12 +379,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -477,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -533,14 +527,8 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -861,12 +849,12 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="23" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="27.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -1144,29 +1132,29 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1177,7 +1165,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A29" s="23"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1186,7 +1174,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A30" s="23"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
@@ -1195,7 +1183,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A31" s="24"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
@@ -1218,7 +1206,7 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF2009F-C396-41AF-8877-35E6CB734081}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Products"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -188,9 +194,6 @@
     <t>wiseLogo</t>
   </si>
   <si>
-    <t>https://github.com/WisetechSourceProduct/AutomationProductCatalogue/blob/main/WTSCatalogue/static/images/WTS_Logo.png?raw=true</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -348,14 +351,16 @@
   </si>
   <si>
     <t>wiseNavbar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X7AoxiiT8yU_WwS1hb6kqKNpnjblMm-9/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +386,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -468,92 +481,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -564,10 +587,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -605,71 +628,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -697,7 +720,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -720,11 +743,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -733,13 +756,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -749,7 +772,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -758,7 +781,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -767,7 +790,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -775,10 +798,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -843,23 +866,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="23" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="20.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -869,325 +894,325 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="75" customFormat="1" s="4">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="15" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33.75" customFormat="1" s="4">
-      <c r="A12" s="15" t="s">
+      <c r="B12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33.75" customFormat="1" s="4">
-      <c r="A14" s="15" t="s">
+      <c r="B14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A15" s="15" t="s">
+      <c r="B15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="15" t="s">
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A17" s="15" t="s">
+      <c r="B17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="32.25" customFormat="1" s="4">
-      <c r="A18" s="15" t="s">
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A19" s="15" t="s">
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5" customFormat="1" s="4">
-      <c r="A21" s="15" t="s">
+      <c r="B21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="15" t="s">
+      <c r="B22" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A23" s="15" t="s">
+      <c r="B23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A24" s="15" t="s">
+      <c r="B24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A25" s="18" t="s">
+      <c r="B25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="11" t="s">
+      <c r="B26" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="11" t="s">
+      <c r="B27" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A28" s="20" t="s">
-        <v>108</v>
-      </c>
       <c r="B28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A29" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
       <c r="B29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A30" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
       <c r="B30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="4">
-      <c r="A31" s="22"/>
+        <v>61</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
       <c r="B31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1195,31 +1220,34 @@
   <mergeCells count="1">
     <mergeCell ref="A28:A31"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DADD2B02-0A05-42F7-AA55-90C7E1755083}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="12" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="36.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,17 +1270,17 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1261,10 +1289,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1274,10 +1302,10 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1287,10 +1315,10 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1300,14 +1328,14 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1319,10 +1347,10 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1332,10 +1360,10 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1345,10 +1373,10 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1358,10 +1386,10 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1371,10 +1399,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1384,10 +1412,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1397,10 +1425,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1410,10 +1438,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1423,10 +1451,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1436,14 +1464,14 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1455,10 +1483,10 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1468,10 +1496,10 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1481,10 +1509,10 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1494,14 +1522,14 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1513,10 +1541,10 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1526,14 +1554,14 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1545,10 +1573,10 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
@@ -1558,12 +1586,12 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="4">
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1575,10 +1603,10 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="4">
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
@@ -1588,10 +1616,10 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="4">
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1601,10 +1629,10 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="4">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
@@ -1614,10 +1642,10 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="4">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
@@ -1627,10 +1655,10 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="4">
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1640,10 +1668,10 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="4">
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1653,10 +1681,10 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="4">
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1666,10 +1694,10 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="4">
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
@@ -1679,12 +1707,12 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1696,10 +1724,10 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="3" t="s">
         <v>10</v>
       </c>
@@ -1709,10 +1737,10 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="3" t="s">
         <v>10</v>
       </c>
@@ -1724,25 +1752,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="A6:A15"/>
     <mergeCell ref="B6:B15"/>
     <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF2009F-C396-41AF-8877-35E6CB734081}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F7CEC55-ED1D-4618-B05C-79F5C867E33C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="119">
   <si>
     <t>VariableName</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Sub Topics</t>
-  </si>
-  <si>
-    <t>sub Topicscontent</t>
   </si>
   <si>
     <t>sub Topicsvalue</t>
@@ -354,6 +351,39 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1X7AoxiiT8yU_WwS1hb6kqKNpnjblMm-9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HGo8dIWf3GhkC5gObCQxpzzapBdvGWTR/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>sub TopicsImageLink</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16IrbyTITXhj5pjC5jxQEri0MLuNYpuFn/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xXpgd-eyriE7J6tPsermaO-7f3tNmppN/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Icl9CVlHyU1Dta41QD_JxzstA7rC9a54/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zRqLl_8tAUAXUKTZy9Qu-7qtA6ixFZzv/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bFV8ni-qbLMOdClhbi6IiE9Wm-RI_UHp/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y0XwBlnFZyMzl15pc8-zYK5_UmWx1ivm/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KDNwkv4DhbF9gUBUB1j6HWF7JccGBDXV/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PopMOTve8FfMdLC7ZFfYJzzMEWY_-gbX/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12Gdb9WIWbn4SVCujfF9iyygnHhcq4y3v/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -485,9 +515,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,7 +532,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,6 +559,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -540,29 +571,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,6 +608,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,348 +904,348 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="B14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="10" t="s">
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="B16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="B17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="B20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="B21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="B25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>10</v>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1234,524 +1266,555 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="B16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="C16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="B20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="C20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="B22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="C22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="22" t="s">
+      <c r="C24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1759,18 +1822,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F7CEC55-ED1D-4618-B05C-79F5C867E33C}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F757E6C-F430-4477-896F-80D48436E432}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
   <si>
     <t>VariableName</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/12Gdb9WIWbn4SVCujfF9iyygnHhcq4y3v/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>wiseSubProductsDefaultImage</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1a3zHSv6UtWz8grCGKEhn3gzV3exm89qg/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -571,12 +577,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -584,9 +593,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -902,15 +908,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
@@ -1210,21 +1216,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>9</v>
@@ -1233,29 +1241,40 @@
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{DADD2B02-0A05-42F7-AA55-90C7E1755083}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{2C149EC4-3367-497E-BD78-EDA6CBA42A9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1266,7 +1285,7 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1305,13 +1324,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1369,13 +1388,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1388,9 +1407,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1403,9 +1422,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1416,9 +1435,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1429,9 +1448,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1444,9 +1463,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1457,9 +1476,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="22"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1470,9 +1489,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="22"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1485,9 +1504,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="22"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1498,9 +1517,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1511,13 +1530,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1532,9 +1551,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1545,9 +1564,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1558,9 +1577,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1571,13 +1590,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1592,9 +1611,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1605,13 +1624,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1626,9 +1645,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1640,10 +1659,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1760,10 +1779,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1777,7 +1796,7 @@
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +1810,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20"/>
-      <c r="C35" s="22"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1803,18 +1822,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1822,6 +1829,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F757E6C-F430-4477-896F-80D48436E432}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4C4DD63-83FF-4097-9472-426F0ABCB3DA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,15 +577,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -593,6 +590,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,7 +911,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -1206,7 +1206,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -1217,7 +1217,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -1324,13 +1324,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1388,13 +1388,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1407,9 +1407,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1422,9 +1422,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1435,9 +1435,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1448,9 +1448,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1463,9 +1463,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1476,9 +1476,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1489,9 +1489,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1504,9 +1504,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1517,9 +1517,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1530,13 +1530,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1551,9 +1551,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1564,9 +1564,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1577,9 +1577,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1590,13 +1590,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1611,9 +1611,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1624,13 +1624,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1645,9 +1645,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1659,10 +1659,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1779,10 +1779,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1796,7 +1796,7 @@
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1822,6 +1822,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1829,18 +1841,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4C4DD63-83FF-4097-9472-426F0ABCB3DA}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{618E9AC2-5CEE-47CB-97B2-DE3C512F2670}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
   <si>
     <t>VariableName</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1a3zHSv6UtWz8grCGKEhn3gzV3exm89qg/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wise_tech_source/</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,12 +580,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -592,11 +598,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,8 +916,8 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,8 +1107,8 @@
       <c r="A17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>87</v>
+      <c r="B17" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="C17" s="8"/>
     </row>
@@ -1272,9 +1278,10 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{DADD2B02-0A05-42F7-AA55-90C7E1755083}"/>
     <hyperlink ref="B28" r:id="rId2" xr:uid="{2C149EC4-3367-497E-BD78-EDA6CBA42A9D}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{A4DF22D2-69B8-4D5E-8F83-40C1D4EC6F72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1324,13 +1331,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1388,13 +1395,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1407,9 +1414,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1422,9 +1429,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1435,9 +1442,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1448,9 +1455,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1463,9 +1470,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1476,9 +1483,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="22"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1489,9 +1496,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="22"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1504,9 +1511,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="22"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1517,9 +1524,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1530,13 +1537,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1551,9 +1558,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1564,9 +1571,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1577,9 +1584,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1590,13 +1597,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1611,9 +1618,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1624,13 +1631,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1645,9 +1652,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1659,10 +1666,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1779,10 +1786,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1796,7 +1803,7 @@
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1810,7 +1817,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20"/>
-      <c r="C35" s="22"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1822,18 +1829,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1841,6 +1836,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{618E9AC2-5CEE-47CB-97B2-DE3C512F2670}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6334C42-737B-44C9-BA69-E83701DC51B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,6 +571,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -580,29 +583,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,8 +916,8 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1107,7 @@
       <c r="A17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="16" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="8"/>
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1276,9 +1276,9 @@
     <mergeCell ref="A29:A32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{DADD2B02-0A05-42F7-AA55-90C7E1755083}"/>
-    <hyperlink ref="B28" r:id="rId2" xr:uid="{2C149EC4-3367-497E-BD78-EDA6CBA42A9D}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{A4DF22D2-69B8-4D5E-8F83-40C1D4EC6F72}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AAE57C4E-1618-409D-8508-2B9DC4AB5619}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{D94EB4CE-631A-47C8-BC5C-73E6F13576C6}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{CAE6E29A-6FB5-4355-9C1A-7ED561A71DB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1331,13 +1331,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1352,9 +1352,9 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1367,9 +1367,9 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1380,9 +1380,9 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="23"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="23"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="23"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="23"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1683,8 +1683,8 @@
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1696,8 +1696,8 @@
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1709,8 +1709,8 @@
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1722,8 +1722,8 @@
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1735,8 +1735,8 @@
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1748,8 +1748,8 @@
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1761,8 +1761,8 @@
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1774,8 +1774,8 @@
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -1802,7 +1802,7 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="23"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -1816,7 +1816,7 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="23"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -1829,6 +1829,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1836,18 +1848,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6334C42-737B-44C9-BA69-E83701DC51B6}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DB4B058-7F04-4726-9BF7-28BF6DA6B046}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
   <si>
     <t>VariableName</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>https://www.instagram.com/wise_tech_source/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hfSM3Ra9a9isATGSoJk8l8nTDCPw-6WR/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -583,12 +586,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -596,9 +602,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,7 +919,7 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -1292,8 +1295,8 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,13 +1334,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1395,13 +1398,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1414,9 +1417,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1429,9 +1432,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1442,9 +1445,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1455,9 +1458,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1470,9 +1473,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1483,9 +1486,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1496,9 +1499,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1511,9 +1514,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1524,9 +1527,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1537,13 +1540,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1558,9 +1561,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1571,9 +1574,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1584,9 +1587,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1597,13 +1600,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1618,9 +1621,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1631,13 +1634,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1652,9 +1655,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1666,10 +1669,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1730,7 +1733,9 @@
       <c r="E28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1786,10 +1791,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1803,7 +1808,7 @@
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1822,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1829,18 +1834,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1848,6 +1841,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DB4B058-7F04-4726-9BF7-28BF6DA6B046}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{940D734F-115F-4906-88AC-9E2FD07451E4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
   <si>
     <t>VariableName</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1hfSM3Ra9a9isATGSoJk8l8nTDCPw-6WR/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pc_zr-U71oVpwUt1RsrskgJ-H6pOJr5q/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19YKdFIR8nt5PZ1ZdDdeHr3agxJa8kadm/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -586,15 +592,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -602,6 +605,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -623,10 +629,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,8 +1297,8 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,7 +1307,7 @@
     <col min="2" max="2" width="23.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="7" customWidth="1"/>
     <col min="6" max="6" width="42.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36" style="7" bestFit="1" customWidth="1"/>
   </cols>
@@ -1334,13 +1336,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1379,7 +1381,9 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1398,13 +1402,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1417,9 +1421,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1432,9 +1436,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1445,9 +1449,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1458,9 +1462,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1473,9 +1477,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1486,9 +1490,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1499,9 +1503,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1514,9 +1518,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1527,9 +1531,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1540,13 +1544,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1561,9 +1565,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1574,22 +1578,24 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1600,13 +1606,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1621,9 +1627,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1634,13 +1640,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1655,9 +1661,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1669,10 +1675,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1720,7 +1726,9 @@
       <c r="E27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1791,10 +1799,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1808,7 +1816,7 @@
     </row>
     <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1830,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1834,6 +1842,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1841,19 +1861,12 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
+    <hyperlink ref="F27" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{7DA5FFC8-FD74-4A06-BA5E-1DA50778653D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{940D734F-115F-4906-88AC-9E2FD07451E4}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3014EE85-8F7A-49A7-A732-505DA29FCC40}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
   <si>
     <t>VariableName</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Payroll Process</t>
   </si>
   <si>
-    <t>Boardcast Onboarding Mails</t>
-  </si>
-  <si>
     <t>Attendance Tracker</t>
   </si>
   <si>
@@ -402,6 +399,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/19YKdFIR8nt5PZ1ZdDdeHr3agxJa8kadm/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/166baelaOQlJvKryCynhg0QMceBilp696/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Broadcast Onboarding Mails</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N8RsRCiHQTY8EXU1-62iBvydYGzqE85c/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -592,12 +598,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -605,9 +614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,6 +635,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,21 +955,21 @@
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
@@ -967,10 +977,10 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
@@ -978,10 +988,10 @@
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
@@ -989,10 +999,10 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
@@ -1000,21 +1010,21 @@
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -1022,10 +1032,10 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
@@ -1033,21 +1043,21 @@
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>9</v>
@@ -1055,10 +1065,10 @@
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>9</v>
@@ -1066,10 +1076,10 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
@@ -1077,10 +1087,10 @@
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>9</v>
@@ -1088,52 +1098,52 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>9</v>
@@ -1141,10 +1151,10 @@
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>9</v>
@@ -1152,10 +1162,10 @@
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>9</v>
@@ -1163,10 +1173,10 @@
     </row>
     <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>9</v>
@@ -1174,10 +1184,10 @@
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>9</v>
@@ -1185,10 +1195,10 @@
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>9</v>
@@ -1196,10 +1206,10 @@
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>9</v>
@@ -1207,10 +1217,10 @@
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1218,10 +1228,10 @@
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -1229,10 +1239,10 @@
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1240,10 +1250,10 @@
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>9</v>
@@ -1252,7 +1262,7 @@
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>9</v>
@@ -1261,7 +1271,7 @@
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>9</v>
@@ -1270,7 +1280,7 @@
     <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>9</v>
@@ -1297,8 +1307,8 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,7 +1318,7 @@
     <col min="3" max="3" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.21875" style="7" customWidth="1"/>
     <col min="7" max="7" width="36" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1329,20 +1339,20 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1352,11 +1362,11 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -1367,11 +1377,11 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1382,11 +1392,11 @@
         <v>12</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -1397,18 +1407,18 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1420,10 +1430,10 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1431,127 +1441,127 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -1560,132 +1570,134 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>38</v>
-      </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1698,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1711,12 +1723,12 @@
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -1724,14 +1736,14 @@
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -1739,10 +1751,10 @@
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1754,7 +1766,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1767,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1780,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1793,67 +1805,55 @@
         <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1861,11 +1861,23 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
     <hyperlink ref="F27" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
-    <hyperlink ref="F18" r:id="rId3" xr:uid="{7DA5FFC8-FD74-4A06-BA5E-1DA50778653D}"/>
+    <hyperlink ref="F19" r:id="rId3" xr:uid="{EC624644-ACF8-43A2-97CA-B208BFF22979}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3014EE85-8F7A-49A7-A732-505DA29FCC40}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{520D3B75-B218-4DBA-8D02-225554415435}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,9 +386,6 @@
     <t>wiseSubProductsDefaultImage</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1a3zHSv6UtWz8grCGKEhn3gzV3exm89qg/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/wise_tech_source/</t>
   </si>
   <si>
@@ -408,6 +405,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1N8RsRCiHQTY8EXU1-62iBvydYGzqE85c/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Tia18USz06NKDgLgYt6AEVMX6EJqGST2/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -598,15 +598,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -614,6 +611,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,8 +931,8 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="8"/>
     </row>
@@ -1242,7 +1242,7 @@
         <v>118</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1292,11 +1292,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AAE57C4E-1618-409D-8508-2B9DC4AB5619}"/>
-    <hyperlink ref="B28" r:id="rId2" xr:uid="{D94EB4CE-631A-47C8-BC5C-73E6F13576C6}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{CAE6E29A-6FB5-4355-9C1A-7ED561A71DB7}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{CAE6E29A-6FB5-4355-9C1A-7ED561A71DB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1307,7 +1306,7 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1346,13 +1345,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1392,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1412,13 +1411,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1431,9 +1430,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1446,22 +1445,22 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1472,9 +1471,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1487,9 +1486,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1500,9 +1499,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1513,9 +1512,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1528,9 +1527,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1541,9 +1540,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1554,13 +1553,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1575,9 +1574,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1588,9 +1587,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1598,14 +1597,14 @@
         <v>28</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1613,18 +1612,18 @@
         <v>29</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1639,9 +1638,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1652,13 +1651,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1673,9 +1672,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1687,10 +1686,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1739,7 +1738,7 @@
         <v>43</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1754,7 +1753,7 @@
         <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1811,10 +1810,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1828,7 +1827,7 @@
     </row>
     <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1842,7 +1841,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1854,6 +1853,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1861,18 +1872,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{520D3B75-B218-4DBA-8D02-225554415435}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD25FB2-6942-4132-BEC0-550DE8F3454D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,9 +254,6 @@
     <t>copyRights</t>
   </si>
   <si>
-    <t>Copyrights @2024wisetechsource.com</t>
-  </si>
-  <si>
     <t>wiseFooterCompanyName</t>
   </si>
   <si>
@@ -408,6 +405,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Tia18USz06NKDgLgYt6AEVMX6EJqGST2/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>2024 wisetechsource.com</t>
   </si>
 </sst>
 </file>
@@ -598,12 +598,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -611,9 +614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,8 +931,8 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,7 +958,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>53</v>
@@ -1068,7 +1068,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>9</v>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>9</v>
@@ -1098,49 +1098,49 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>61</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>9</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>9</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>9</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>9</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>9</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>9</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>55</v>
@@ -1338,20 +1338,20 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1361,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1376,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1391,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1406,18 +1406,18 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1430,9 +1430,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1440,27 +1440,27 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1471,9 +1471,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1481,14 +1481,14 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1499,9 +1499,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1512,9 +1512,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1522,14 +1522,14 @@
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1540,9 +1540,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1553,13 +1553,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1569,14 +1569,14 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1587,9 +1587,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1597,14 +1597,14 @@
         <v>28</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1612,18 +1612,18 @@
         <v>29</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1633,14 +1633,14 @@
         <v>33</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1651,13 +1651,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1667,14 +1667,14 @@
         <v>33</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1738,7 +1738,7 @@
         <v>43</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1753,7 +1753,7 @@
         <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1810,10 +1810,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1827,7 +1827,7 @@
     </row>
     <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1835,13 +1835,13 @@
         <v>19</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1853,18 +1853,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1872,6 +1860,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD25FB2-6942-4132-BEC0-550DE8F3454D}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3823ACD8-44A6-487D-8E49-0E76646A78BD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="129">
   <si>
     <t>VariableName</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>2024 wisetechsource.com</t>
+  </si>
+  <si>
+    <t>wiseTabLogo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19QzD23qyGDMp_lnZadzPWog8_c9anion/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -598,15 +604,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -614,6 +617,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -929,10 +935,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,23 +970,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>127</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
@@ -988,10 +994,10 @@
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
@@ -999,120 +1005,120 @@
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C15" s="8" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>81</v>
@@ -1120,74 +1126,74 @@
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="C21" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>9</v>
@@ -1195,74 +1201,76 @@
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="C25" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>9</v>
@@ -1271,31 +1279,41 @@
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AAE57C4E-1618-409D-8508-2B9DC4AB5619}"/>
-    <hyperlink ref="B17" r:id="rId2" xr:uid="{CAE6E29A-6FB5-4355-9C1A-7ED561A71DB7}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{CAE6E29A-6FB5-4355-9C1A-7ED561A71DB7}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{87FF3439-ABAC-4A82-9488-C296F87DE66C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1345,13 +1363,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1411,13 +1429,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1430,9 +1448,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1445,9 +1463,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1458,9 +1476,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1471,9 +1489,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1486,9 +1504,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1499,9 +1517,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1512,9 +1530,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1527,9 +1545,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1540,9 +1558,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1553,13 +1571,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1574,9 +1592,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1587,9 +1605,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1602,9 +1620,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1617,13 +1635,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1638,9 +1656,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1651,13 +1669,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1672,9 +1690,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1686,10 +1704,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1810,10 +1828,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1827,7 +1845,7 @@
     </row>
     <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1841,7 +1859,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1853,6 +1871,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1860,18 +1890,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3823ACD8-44A6-487D-8E49-0E76646A78BD}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F196B70-537A-44DA-9AC6-A794B039900F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
   <si>
     <t>VariableName</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>wiseTabLogo</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19QzD23qyGDMp_lnZadzPWog8_c9anion/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -604,12 +601,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -617,9 +617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -938,7 +935,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +972,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>53</v>
@@ -1310,7 +1307,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AAE57C4E-1618-409D-8508-2B9DC4AB5619}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{CAE6E29A-6FB5-4355-9C1A-7ED561A71DB7}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{87FF3439-ABAC-4A82-9488-C296F87DE66C}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{C082134E-1330-4E46-9FF3-192BD34B183F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1363,13 +1360,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1429,13 +1426,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1448,9 +1445,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1463,9 +1460,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1476,9 +1473,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1489,9 +1486,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1504,9 +1501,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1517,9 +1514,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1530,9 +1527,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1545,9 +1542,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1558,9 +1555,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1571,13 +1568,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1592,9 +1589,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1605,9 +1602,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1620,9 +1617,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1635,13 +1632,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1656,9 +1653,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1669,13 +1666,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1690,9 +1687,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1704,10 +1701,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1828,10 +1825,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1845,7 +1842,7 @@
     </row>
     <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1859,7 +1856,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1871,18 +1868,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1890,6 +1875,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F196B70-537A-44DA-9AC6-A794B039900F}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2EC5163-3D81-4EA7-A3BD-B6F6EE2C45CE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="129">
   <si>
     <t>VariableName</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>wiseTabLogo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19QzD23qyGDMp_lnZadzPWog8_c9anion/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -601,15 +604,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -617,6 +617,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -638,10 +641,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,7 +934,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +971,7 @@
         <v>127</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>53</v>
@@ -1307,7 +1306,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AAE57C4E-1618-409D-8508-2B9DC4AB5619}"/>
     <hyperlink ref="B18" r:id="rId2" xr:uid="{CAE6E29A-6FB5-4355-9C1A-7ED561A71DB7}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{C082134E-1330-4E46-9FF3-192BD34B183F}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{F4D23E8A-43C3-42EA-8199-01C0B11C5E7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1360,13 +1359,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1426,13 +1425,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1445,9 +1444,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1460,9 +1459,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1473,9 +1472,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1486,9 +1485,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1501,9 +1500,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1514,9 +1513,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1527,9 +1526,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1542,9 +1541,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1555,9 +1554,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1568,13 +1567,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1589,9 +1588,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1602,9 +1601,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1617,9 +1616,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1632,13 +1631,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1653,9 +1652,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1666,13 +1665,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1687,9 +1686,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1701,10 +1700,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1825,10 +1824,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1842,7 +1841,7 @@
     </row>
     <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1856,7 +1855,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1868,6 +1867,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1875,18 +1886,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_F89D79EC0A87DA2B574E7B9617458C8D5FBF1985" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2EC5163-3D81-4EA7-A3BD-B6F6EE2C45CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560A82CC-2F88-4803-BF15-93EF63BE5D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
   <si>
     <t>VariableName</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Sub Topics</t>
-  </si>
-  <si>
-    <t>sub Topicsvalue</t>
   </si>
   <si>
     <t>mainProductList1</t>
@@ -414,13 +411,31 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/19QzD23qyGDMp_lnZadzPWog8_c9anion/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>sub TopicsDescription</t>
+  </si>
+  <si>
+    <t>Making special occasions at our office even more memorable. We've created a smart Celebration Bot that automatically sends personalized emails and whatsapp messages for birthdays, weddings, and work anniversaries, using beautiful, customized templates. We believe that celebrating these milestones is a fantastic way to build a happy and supportive work environment. With the Celebration Bot, we're making it easy and enjoyable to show appreciation for each team member in a way that's as unique as they are. No more worrying about forgetting these significant dates, our bot takes care of it! Finds happiness in spreading smiles and creating a workplace where every birthday, wedding, work anniversary and special occasions are reasons to celebrate with a touch of personalized and delightful wishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>sub TopicsTimeandcost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require . Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless </t>
+  </si>
+  <si>
+    <t>sub Topics Features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +469,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -545,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,12 +631,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -619,12 +649,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -933,7 +965,7 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -957,346 +989,346 @@
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>128</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C15" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C22" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="C23" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C24" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C26" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1318,10 +1350,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,9 +1365,11 @@
     <col min="5" max="5" width="28.33203125" style="7" customWidth="1"/>
     <col min="6" max="6" width="64.21875" style="7" customWidth="1"/>
     <col min="7" max="7" width="36" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1352,365 +1386,379 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1720,10 +1768,10 @@
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1733,10 +1781,10 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1746,13 +1794,13 @@
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1761,13 +1809,13 @@
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1776,10 +1824,10 @@
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1789,10 +1837,10 @@
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1802,10 +1850,10 @@
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1815,70 +1863,58 @@
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>50</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1886,6 +1922,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560A82CC-2F88-4803-BF15-93EF63BE5D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472166DB-E3D1-489D-BB4E-F8A218F4E9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
   <si>
     <t>VariableName</t>
   </si>
@@ -425,10 +425,13 @@
     <t>sub TopicsTimeandcost</t>
   </si>
   <si>
-    <t xml:space="preserve">The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require . Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless </t>
-  </si>
-  <si>
     <t>sub Topics Features</t>
+  </si>
+  <si>
+    <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless.</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,6 +625,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -631,32 +636,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1294,7 +1300,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="19" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1305,7 +1311,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
@@ -1314,7 +1320,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
@@ -1323,7 +1329,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1350,10 +1356,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,554 +1397,567 @@
       <c r="G1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>133</v>
+      <c r="I1" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>132</v>
+      <c r="H2" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
+    <row r="13" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F28" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>49</v>
-      </c>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="24"/>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="23"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="21"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="23"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
+  <mergeCells count="20">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C25:C33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
-    <hyperlink ref="F27" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
-    <hyperlink ref="F19" r:id="rId3" xr:uid="{EC624644-ACF8-43A2-97CA-B208BFF22979}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
+    <hyperlink ref="F28" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
+    <hyperlink ref="F20" r:id="rId3" xr:uid="{EC624644-ACF8-43A2-97CA-B208BFF22979}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472166DB-E3D1-489D-BB4E-F8A218F4E9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EEE9A9-B5DD-4A51-8E4F-4B99D0812A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
   <si>
     <t>VariableName</t>
   </si>
@@ -428,10 +428,7 @@
     <t>sub Topics Features</t>
   </si>
   <si>
-    <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless.</t>
+    <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require .Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless.</t>
   </si>
 </sst>
 </file>
@@ -575,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,6 +624,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -636,12 +636,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -651,17 +654,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1300,7 +1294,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1311,7 +1305,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
@@ -1320,7 +1314,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
@@ -1329,7 +1323,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1356,10 +1350,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,19 +1399,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1433,531 +1427,518 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="25"/>
+    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="25"/>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="25"/>
+    <row r="10" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="25"/>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="25"/>
+    <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="25"/>
+    <row r="13" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="25"/>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+    <row r="16" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>26</v>
-      </c>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+    <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+    <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>121</v>
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>31</v>
-      </c>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>120</v>
+        <v>43</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>49</v>
-      </c>
+    <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="23"/>
-      <c r="C35" s="25"/>
+    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="24"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C25:C33"/>
+  <mergeCells count="19">
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
-    <hyperlink ref="F28" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
-    <hyperlink ref="F20" r:id="rId3" xr:uid="{EC624644-ACF8-43A2-97CA-B208BFF22979}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
+    <hyperlink ref="F27" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
+    <hyperlink ref="F19" r:id="rId3" xr:uid="{EC624644-ACF8-43A2-97CA-B208BFF22979}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EEE9A9-B5DD-4A51-8E4F-4B99D0812A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB73949-9710-4B2B-A4EB-A61690040617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,9 +419,6 @@
     <t>Making special occasions at our office even more memorable. We've created a smart Celebration Bot that automatically sends personalized emails and whatsapp messages for birthdays, weddings, and work anniversaries, using beautiful, customized templates. We believe that celebrating these milestones is a fantastic way to build a happy and supportive work environment. With the Celebration Bot, we're making it easy and enjoyable to show appreciation for each team member in a way that's as unique as they are. No more worrying about forgetting these significant dates, our bot takes care of it! Finds happiness in spreading smiles and creating a workplace where every birthday, wedding, work anniversary and special occasions are reasons to celebrate with a touch of personalized and delightful wishes</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>sub TopicsTimeandcost</t>
   </si>
   <si>
@@ -429,6 +426,9 @@
   </si>
   <si>
     <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require .Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos.Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office. Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it.. We can just provide the details in the excel and trigger the bot or schedule the bot.Lot more features are available. If you like to know more about this bot Please request for a demo By clicking the Demo button. Our team will contact you. </t>
   </si>
 </sst>
 </file>
@@ -636,15 +636,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -652,6 +649,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1352,8 +1352,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,20 +1392,20 @@
         <v>128</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1421,10 +1421,10 @@
         <v>129</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1473,13 +1473,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1492,9 +1492,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1507,9 +1507,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1520,9 +1520,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1533,9 +1533,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1548,9 +1548,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1561,9 +1561,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1574,9 +1574,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1589,9 +1589,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1602,9 +1602,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1615,13 +1615,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1636,9 +1636,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1649,9 +1649,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1664,9 +1664,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1679,13 +1679,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1700,9 +1700,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1713,13 +1713,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1734,9 +1734,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1872,10 +1872,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1889,7 +1889,7 @@
     </row>
     <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24"/>
-      <c r="C34" s="27"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
-      <c r="C35" s="27"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
@@ -1915,6 +1915,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1922,18 +1934,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB73949-9710-4B2B-A4EB-A61690040617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FAB53F-9A83-4861-A606-71C91D58ECE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="139">
   <si>
     <t>VariableName</t>
   </si>
@@ -425,10 +425,25 @@
     <t>sub Topics Features</t>
   </si>
   <si>
-    <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require .Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos.Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office. Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it.. We can just provide the details in the excel and trigger the bot or schedule the bot.Lot more features are available. If you like to know more about this bot Please request for a demo By clicking the Demo button. Our team will contact you. </t>
+    <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require.</t>
+  </si>
+  <si>
+    <t>Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos. </t>
+  </si>
+  <si>
+    <t>Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We can just provide the details in the excel and trigger the bot or schedule the bot.Lot more features are available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you like to know more about this bot Please request for a demo By clicking the Demo button. Our team will contact you.</t>
   </si>
 </sst>
 </file>
@@ -572,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,11 +637,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -656,6 +667,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1294,7 +1314,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1305,7 +1325,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
@@ -1314,7 +1334,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
@@ -1323,7 +1343,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1350,10 +1370,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1386,7 @@
     <col min="6" max="6" width="64.21875" style="7" customWidth="1"/>
     <col min="7" max="7" width="36" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1399,102 +1419,92 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="29" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="26"/>
+      <c r="I3" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1502,444 +1512,513 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="26"/>
+    <row r="14" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>36</v>
-      </c>
+    <row r="22" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>120</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>49</v>
-      </c>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="22"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="22"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
+  <mergeCells count="23">
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="C28:C36"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
-    <hyperlink ref="F27" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
-    <hyperlink ref="F19" r:id="rId3" xr:uid="{EC624644-ACF8-43A2-97CA-B208BFF22979}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
+    <hyperlink ref="F31" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
+    <hyperlink ref="F23" r:id="rId3" xr:uid="{EC624644-ACF8-43A2-97CA-B208BFF22979}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FAB53F-9A83-4861-A606-71C91D58ECE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4021730C-DD31-4F18-9993-2C0E15F8C490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,9 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -647,12 +644,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -661,21 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -991,13 +985,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1008,275 +1002,275 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1284,7 +1278,7 @@
       <c r="A27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1295,7 +1289,7 @@
       <c r="A28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1303,10 +1297,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>124</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1314,40 +1308,40 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1372,19 +1366,19 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="64.21875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="36" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="64.21875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="36" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.44140625" customWidth="1"/>
     <col min="9" max="9" width="43.44140625" customWidth="1"/>
   </cols>
@@ -1419,92 +1413,92 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="29" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="17" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="17" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="17" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1517,24 +1511,24 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>119</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1547,13 +1541,13 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1566,9 +1560,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1581,9 +1575,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1594,9 +1588,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1607,9 +1601,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1622,9 +1616,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1635,9 +1629,9 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1648,9 +1642,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1663,9 +1657,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1676,9 +1670,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1689,13 +1683,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1710,9 +1704,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1723,43 +1717,43 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>123</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1774,9 +1768,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1787,13 +1781,13 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1808,9 +1802,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1822,10 +1816,10 @@
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="23" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1839,8 +1833,8 @@
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1852,8 +1846,8 @@
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
@@ -1865,23 +1859,23 @@
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>120</v>
       </c>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1895,8 +1889,8 @@
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1908,8 +1902,8 @@
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1921,8 +1915,8 @@
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
@@ -1934,8 +1928,8 @@
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
@@ -1946,10 +1940,10 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1962,8 +1956,8 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="22"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1976,8 +1970,8 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
-      <c r="C39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1988,20 +1982,7 @@
       <c r="G39" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
+  <mergeCells count="24">
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -2012,6 +1993,20 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B28:B36"/>
     <mergeCell ref="C28:C36"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4021730C-DD31-4F18-9993-2C0E15F8C490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C1FF74-3910-4A9D-9513-C5C96659131A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
   <si>
     <t>VariableName</t>
   </si>
@@ -425,25 +425,10 @@
     <t>sub Topics Features</t>
   </si>
   <si>
-    <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require.</t>
-  </si>
-  <si>
-    <t>Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos. </t>
-  </si>
-  <si>
-    <t>Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> We can just provide the details in the excel and trigger the bot or schedule the bot.Lot more features are available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If you like to know more about this bot Please request for a demo By clicking the Demo button. Our team will contact you.</t>
+    <t>Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos. Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office. Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it..We can just provide the details in the excel and trigger the bot or schedule the bot.Lot more features are available. If you like to know more about this bot Please request for a demo By clicking the Demo button. Our team will contact you.</t>
+  </si>
+  <si>
+    <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require.Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,33 +629,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1364,10 +1350,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1413,92 +1399,102 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="29" t="s">
         <v>129</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1506,332 +1502,324 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>119</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>15</v>
-      </c>
+    <row r="10" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="27"/>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="27"/>
+    <row r="13" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="27"/>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="27"/>
+    <row r="16" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="27"/>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="27"/>
+    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+    <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>26</v>
+    <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>123</v>
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>121</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>31</v>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>36</v>
-      </c>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -1839,7 +1827,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1852,12 +1840,12 @@
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -1865,14 +1853,12 @@
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>120</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -1880,138 +1866,79 @@
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+    <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="24"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="24"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="C28:C36"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D6"/>
+  <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
-    <hyperlink ref="F31" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
-    <hyperlink ref="F23" r:id="rId3" xr:uid="{EC624644-ACF8-43A2-97CA-B208BFF22979}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
+    <hyperlink ref="F27" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
+    <hyperlink ref="F19" r:id="rId3" xr:uid="{EC624644-ACF8-43A2-97CA-B208BFF22979}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C1FF74-3910-4A9D-9513-C5C96659131A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{34C1FF74-3910-4A9D-9513-C5C96659131A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FD1BC8F-8986-4DF7-A17F-538D3797E02E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
   <si>
     <t>VariableName</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require.Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subTopicsRating </t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,6 +623,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -629,6 +639,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -638,25 +657,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1294,7 +1300,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="20" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1305,7 +1311,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
@@ -1314,7 +1320,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
@@ -1323,7 +1329,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1350,10 +1356,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1364,12 +1370,13 @@
     <col min="4" max="4" width="7.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="64.21875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="36" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="26.44140625" customWidth="1"/>
     <col min="9" max="9" width="43.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1397,27 +1404,30 @@
       <c r="I1" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="J1" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="19" t="s">
         <v>129</v>
       </c>
       <c r="H2" s="16" t="s">
@@ -1426,8 +1436,11 @@
       <c r="I2" s="16" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -1442,7 +1455,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1457,7 +1470,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -1472,14 +1485,14 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1491,10 +1504,10 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="21"/>
+    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1506,10 +1519,10 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="21"/>
+    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1519,10 +1532,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="21"/>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1532,10 +1545,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="21"/>
+    <row r="10" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1547,10 +1560,10 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="21"/>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1560,10 +1573,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="21"/>
+    <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1573,10 +1586,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="21"/>
+    <row r="13" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1588,10 +1601,10 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="21"/>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1601,10 +1614,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1614,14 +1627,14 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1636,9 +1649,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1649,9 +1662,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1664,9 +1677,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1679,13 +1692,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1700,9 +1713,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1713,13 +1726,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1734,9 +1747,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1748,10 +1761,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="23" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1872,10 +1885,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1889,7 +1902,7 @@
     </row>
     <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24"/>
-      <c r="C34" s="21"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1903,7 +1916,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
-      <c r="C35" s="21"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
@@ -1915,18 +1928,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1934,6 +1935,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b845333281ed4adc/Desktop/Django/AutomationProductCatalogue/wiseProductCatalog/static/required_documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{34C1FF74-3910-4A9D-9513-C5C96659131A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FD1BC8F-8986-4DF7-A17F-538D3797E02E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B33D55F-05E7-485C-ACB9-1748219D98CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,22 +416,22 @@
     <t>sub TopicsDescription</t>
   </si>
   <si>
-    <t>Making special occasions at our office even more memorable. We've created a smart Celebration Bot that automatically sends personalized emails and whatsapp messages for birthdays, weddings, and work anniversaries, using beautiful, customized templates. We believe that celebrating these milestones is a fantastic way to build a happy and supportive work environment. With the Celebration Bot, we're making it easy and enjoyable to show appreciation for each team member in a way that's as unique as they are. No more worrying about forgetting these significant dates, our bot takes care of it! Finds happiness in spreading smiles and creating a workplace where every birthday, wedding, work anniversary and special occasions are reasons to celebrate with a touch of personalized and delightful wishes</t>
-  </si>
-  <si>
     <t>sub TopicsTimeandcost</t>
   </si>
   <si>
     <t>sub Topics Features</t>
   </si>
   <si>
-    <t>Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos. Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office. Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it..We can just provide the details in the excel and trigger the bot or schedule the bot.Lot more features are available. If you like to know more about this bot Please request for a demo By clicking the Demo button. Our team will contact you.</t>
-  </si>
-  <si>
-    <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require.Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more. Which is priceless.</t>
-  </si>
-  <si>
     <t xml:space="preserve">subTopicsRating </t>
+  </si>
+  <si>
+    <t>Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos.Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office.Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it.We can just provide the details in the excel and trigger the bot or schedule the bot.Lot more features are available.If you like to know more about this bot Please request for a demo By clicking the Demo button.Our team will contact you.</t>
+  </si>
+  <si>
+    <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require.Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more.Which is priceless.</t>
+  </si>
+  <si>
+    <t>Making special occasions at our office even more memorable.We've created a smart Celebration Bot that automatically sends personalized emails and whatsapp messages for birthdays, weddings, and work anniversaries, using beautiful, customized templates.We believe that celebrating these milestones is a fantastic way to build a happy and supportive work environment.With the Celebration Bot, we're making it easy and enjoyable to show appreciation for each team member in a way that's as unique as they are.No more worrying about forgetting these significant dates, our bot takes care of it! Finds happiness in spreading smiles and creating a workplace where every birthday, wedding, work anniversary and special occasions are reasons to celebrate with a touch of personalized and delightful wishes</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,29 +639,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1359,7 +1356,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,23 +1396,23 @@
         <v>128</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="30" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -1428,7 +1425,7 @@
         <v>111</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>133</v>
@@ -1486,13 +1483,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1505,9 +1502,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1520,9 +1517,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1533,9 +1530,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1546,9 +1543,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1561,9 +1558,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1574,9 +1571,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1587,9 +1584,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1602,9 +1599,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1615,9 +1612,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1628,13 +1625,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1649,9 +1646,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1662,9 +1659,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1677,9 +1674,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1692,13 +1689,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1713,9 +1710,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1726,13 +1723,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1747,9 +1744,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1761,10 +1758,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1885,10 +1882,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1902,7 +1899,7 @@
     </row>
     <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24"/>
-      <c r="C34" s="27"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +1913,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
-      <c r="C35" s="27"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
@@ -1928,6 +1925,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1935,18 +1944,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B33D55F-05E7-485C-ACB9-1748219D98CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333AA69B-C0BF-403D-8895-1A76BD013827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,13 +425,13 @@
     <t xml:space="preserve">subTopicsRating </t>
   </si>
   <si>
-    <t>Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos.Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office.Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it.We can just provide the details in the excel and trigger the bot or schedule the bot.Lot more features are available.If you like to know more about this bot Please request for a demo By clicking the Demo button.Our team will contact you.</t>
-  </si>
-  <si>
     <t>The HR department can save a lot of time by just filling in the details of the employee at the starting of the year or whenever they require.Can enjoy the Bot making wishes for the employees on time on the date provided. Wishes on the employees special days can increase their bonds with the employers more.Which is priceless.</t>
   </si>
   <si>
     <t>Making special occasions at our office even more memorable.We've created a smart Celebration Bot that automatically sends personalized emails and whatsapp messages for birthdays, weddings, and work anniversaries, using beautiful, customized templates.We believe that celebrating these milestones is a fantastic way to build a happy and supportive work environment.With the Celebration Bot, we're making it easy and enjoyable to show appreciation for each team member in a way that's as unique as they are.No more worrying about forgetting these significant dates, our bot takes care of it! Finds happiness in spreading smiles and creating a workplace where every birthday, wedding, work anniversary and special occasions are reasons to celebrate with a touch of personalized and delightful wishes</t>
+  </si>
+  <si>
+    <t>Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos.Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office.Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it.We can just provide the details in the excel and trigger the bot or schedule the bot.Lot more features are available.If you like to know more about this bot Please request for a demo By clicking the Demo button,Our team will contact you.</t>
   </si>
 </sst>
 </file>
@@ -639,12 +639,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -652,9 +655,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1356,7 +1356,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,13 +1406,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -1425,13 +1425,13 @@
         <v>111</v>
       </c>
       <c r="G2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="J2" s="3">
         <v>4.5</v>
@@ -1483,13 +1483,13 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1502,9 +1502,9 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="29"/>
-      <c r="C7" s="26"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1517,9 +1517,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="26"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1530,9 +1530,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1543,9 +1543,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="26"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1558,9 +1558,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="26"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1571,9 +1571,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1584,9 +1584,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1599,9 +1599,9 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="29"/>
-      <c r="C14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1612,9 +1612,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1625,13 +1625,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1646,9 +1646,9 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1659,9 +1659,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1674,9 +1674,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1689,13 +1689,13 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1710,9 +1710,9 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1723,13 +1723,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1744,9 +1744,9 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="23" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1882,10 +1882,10 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1899,7 +1899,7 @@
     </row>
     <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
@@ -1925,18 +1925,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="A22:A23"/>
@@ -1944,6 +1932,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333AA69B-C0BF-403D-8895-1A76BD013827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29179C93-0124-4C31-852B-A6C21E7E9C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="192">
   <si>
     <t>VariableName</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Resume Downloader</t>
   </si>
   <si>
-    <t>Welcome Bot/Employee Induction Email</t>
-  </si>
-  <si>
     <t>Resume Classifier</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>fas fa-duotone fa-building</t>
   </si>
   <si>
-    <t>ECW Web Process/Download</t>
-  </si>
-  <si>
     <t>Mapping Excel Template Process</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
     <t>sub TopicsTimeandcost</t>
   </si>
   <si>
-    <t>sub Topics Features</t>
-  </si>
-  <si>
     <t xml:space="preserve">subTopicsRating </t>
   </si>
   <si>
@@ -431,14 +422,211 @@
     <t>Making special occasions at our office even more memorable.We've created a smart Celebration Bot that automatically sends personalized emails and whatsapp messages for birthdays, weddings, and work anniversaries, using beautiful, customized templates.We believe that celebrating these milestones is a fantastic way to build a happy and supportive work environment.With the Celebration Bot, we're making it easy and enjoyable to show appreciation for each team member in a way that's as unique as they are.No more worrying about forgetting these significant dates, our bot takes care of it! Finds happiness in spreading smiles and creating a workplace where every birthday, wedding, work anniversary and special occasions are reasons to celebrate with a touch of personalized and delightful wishes</t>
   </si>
   <si>
-    <t>Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos.Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office.Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it.We can just provide the details in the excel and trigger the bot or schedule the bot.Lot more features are available.If you like to know more about this bot Please request for a demo By clicking the Demo button,Our team will contact you.</t>
+    <t>sub TopicsFeatureIcons</t>
+  </si>
+  <si>
+    <t>subTopicsFeatures</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NZ2FLVvBLaY7VTZRJ8nDBUFTVHDPNFjv/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Customized Wishes for employee Birthday ,work anniversary and their wedding anniversary with their photos.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14IdUdbxK6JHV2gNDUh1f_PFlZhz3gKgz/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Send the message via email and also to their whatsapp.Sends wishes on the public holidays and special events in office.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tP1KxOoJTV3G1KGYtMdmr_UN0ioAyLy7/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Everything is customizable , the input to the bot is via excel where we need not interact with big UI’s for it.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jM-cg3Ll5JvzdLIhKrubp51lqs1JIPfO/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>We can just provide the details in the excel and trigger the bot or schedule the bot.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TIg7vH3wXGwnOA7dkAJ6ti1A2aTKB2Hn/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Lot more features are available.If you like to know more about this bot Please request for a demo By clicking the Demo button,Our team will contact you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you searching for ways to improve your business or provide better customer support through WhatsApp ? Elevate your business using the  whatsapp bot’s capabilities to reach new heights, enabling it to engage in natural, human-like conversations. No complex setups or coding required – it’s that simple with our bot.Considering WhatsApp’s dominance in messaging channels, the potential for seamless communication through a WhatsApp Chatbot for Business is boundless. </t>
+  </si>
+  <si>
+    <t>No setup fees.
+NO need to create any account.
+No big GUI interaction.Can make things easy with Excels also.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Amvcl8K4EMmgYC6wYbb5laG463xg37fF/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Enhance your Customer Support</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hfaHI6oExU6gYWvcP0Py3nbuEl0fAnR2/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Increase Engagement and Sales Opportunities</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qWOAwLgzTHTb0KqzzXnIy2atMbO8GAM9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Build a 24/7 Communication Channel</t>
+  </si>
+  <si>
+    <t>A salary slip or payslip is a document containing a detailed list of the various components of your salary along with the specific details of employment. It is issued every month by an employer either in the form of a printed hard copy or an electronic copy.
+A salary slip is only available to salaried employees and your employer is responsible for providing you a copy of your payslip every month.
+Payslip is very important in each organization.This is a very crucial process for an HR team and it also needs security on the information on it. So to make it better and error free .Bot is designed to generate payslips for all the employees every month provided by the details of the HR in the Spreadsheet. The payslips are generated for the employees provided by the team and it can be verified by the team.</t>
+  </si>
+  <si>
+    <t>It saves a lot of time generating payslip from a large number of people. 
+It takes less than 5 mins for 1000+ employees too.
+It is more Generic so that any organization can use it and the same organization can use it for different entities also.</t>
+  </si>
+  <si>
+    <t>Payslip generated for the employee of any organization also</t>
+  </si>
+  <si>
+    <t>Faster Generation of payslips</t>
+  </si>
+  <si>
+    <t>Less error compared to manual errors</t>
+  </si>
+  <si>
+    <t>Better Security for the payslips</t>
+  </si>
+  <si>
+    <t>Opening of the payslips are protected</t>
+  </si>
+  <si>
+    <t>Welcome to the Feedback assistant bot documentation. This project is all about making education better by simplifying feedback. We'll show you how our Feedback Assistant Bot automates tasks and how it benefits both teachers and students. By the end, you'll see how we're enhancing education one step at a time.</t>
+  </si>
+  <si>
+    <t>When manually entering 100 different Gmail addresses into the system, it may take approximately 2-3 minutes per email. In total, this task could require around 3.3 to 5 hours to complete. Actual time may vary based on individual factors and email complexity.With automation, the Attended Bot efficiently sends emails to 100 Gmail addresses in just 7 minutes, a significant time-saving compared to manual entry</t>
+  </si>
+  <si>
+    <t>Employee onboarding is a critical part of running any business. As crucial as it is, though, it can also be a long, involved process, limiting available staff and productivity. Onboarding automation can help.
+Onboarding typically involves a lot of time-consuming tasks like documentation, scheduling, and answering FAQs. In fact, workers say they waste four and a half hours a week on work like this. Bots can automate these HR management processes to free professionals to focus on other things, letting departments accomplish more at once and boosting engagement.An automated chatbot also has a much smaller likelihood of error because it doesn’t get tired or distracted. Onboarding automation can even fix human errors by recognizing and highlighting mistakes in paperwork to help new hires fill out forms faster and more accurately.HR departments can also use Bots to run feedback surveys. As they collect information from applicants, they can suggest long-term improvements to the onboarding process. Making these changes will help both the company and its job candidates.</t>
+  </si>
+  <si>
+    <t>Reduced Administrative Burden: The bot can handle routine tasks such as paperwork, document submission, and data entry, freeing up HR staff to focus on more strategic activities.
+Faster Onboarding Process: The bot can provide instant access to information and resources, allowing new hires to onboard more quickly and start contributing to the company sooner.
+24/7 Availability: The bot can be available round the clock to assist new hires, reducing the need for human intervention outside of regular business hours.
+Consistent and Standardized Information: The bot ensures that all new hires receive the same information and follow the same onboarding process, reducing errors and inconsistencies.
+Scalability: The bot can scale to accommodate a large number of new hires simultaneously, without requiring additional human resources.
+Cost-Effective: Compared to hiring additional HR staff to manage the onboarding process, implementing an onboarding bot can be a more cost-effective solution in the long run.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HY9XEZ6o9XsBtTGmV5xOB0xZLHiYQqhK/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Welcome Messages: Personalized greetings to new employees, introducing them to the company culture and values.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JrDaG2x3QvJG-Bbr1qY4rryd4j4Hv3fa/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Orientation Information: Providing information about the company's history, mission, and organizational structure.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vKcttOOwLAqHYyvJYFqCK8H-a4QsSMt5/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Training and Resources: Offering access to training materials, employee handbooks, and other resources to help new hires learn about their roles and responsibilities.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BeyNkH_Dfu9iy9WNzEdMtBzbvleaCA94/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Introductions and Networking: Facilitating introductions to colleagues and helping new hires connect with relevant teams or departments.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MGDGJUC1aXvYA3mveSNn53sptTs8PlVF/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Task and Goal Setting: Assisting new employees in setting up their goals and tasks, and tracking their progress.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UZIRyvQYRLZiQsXzDsAm0yYbOD4HLOLc/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>FAQs and Support: Providing answers to common questions and offering support for any issues or concerns new hires may have.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jPDSau7ORM-LVk_MrrrhdZeeRfIj88eO/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Feedback Collection: Gathering feedback from new hires to improve the onboarding process and the overall employee experience.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LX3nArLl4OPy5FwdEuDQr_Q8-lL9H8Yr/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Integration with HR Systems: Integrating with HR systems to automate administrative tasks such as form filling and document submission.</t>
+  </si>
+  <si>
+    <t>Work time module provides the analytics and key insights for the organization to manage the new-age hybrid workforce.The Tracker Monitor system is designed to track employees' working hours daily, analyze the hours worked on the last day, send reminder emails for unfilled or insufficient hours, and store this data in a SQL database. Additionally, it automatically generates monthly reports summarizing the working hours data for each month's date cycle for each employee in the organization.</t>
+  </si>
+  <si>
+    <t>Does not need to have an employee or team lead spend time on tracking the team task and their work .
+Keep track of the actions of the employees and send the report to the higher officials. 
+Helps at the time of Audits .
+Quick yearly updates can be done, using this.
+Save a lot of time and money to be invested by the organization for these tasks.
+Can be used generically.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vL_SM3SeGEOcxnzKzKQE1ZLvaMN2otaq/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Collect employees working hours data from an Employee Tracker Sheet provided by a Config File</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mCcU0UCMz0CS3J4SgWbZp5SoQFPNxugw/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Analyze previous days working hours to identify unfilled or insufficient hours.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1e9oXvTMF96nqRzhwi_bdxM8ZrmgU7urD/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Generate and send reminder emails to employees for unfilled or insufficient hours.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GypN_6_VfUZsXhxb6eV3wGKoIUDaNiUN/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Store the collected data in a SQL database for further analysis and reporting.</t>
+  </si>
+  <si>
+    <t>Welcome Bot\Employee Induction Email</t>
+  </si>
+  <si>
+    <t>The Document Generation Bot aims to provide enhanced support for the automatic generation of documents. The primary objective of this project is to save time and eliminate the need for manual document work. For example, this bot can generate various documents such as certificates, score cards, attendance records, and daily lesson plans, so on. By utilizing this bot, we can save time by automating manual tasks</t>
+  </si>
+  <si>
+    <t>ECW Web Process</t>
+  </si>
+  <si>
+    <t>Analyze previous days working hours to identify unfilled or insufficient hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +672,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Museo Sans"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -575,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,12 +822,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -660,6 +853,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -972,14 +1194,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.33203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -990,345 +1212,345 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="75" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A30" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C30" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C32" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>8</v>
@@ -1353,13 +1575,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -1373,7 +1595,7 @@
     <col min="10" max="10" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1390,567 +1612,1133 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="31">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="31.2" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="34.799999999999997" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="31"/>
+      <c r="J15" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="31"/>
+      <c r="J16" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="31"/>
+      <c r="J17" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="31"/>
+      <c r="J18" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" ht="31.8" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1">
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="31"/>
+      <c r="I22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="31"/>
+      <c r="I23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="31"/>
+      <c r="I24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="31"/>
+      <c r="I25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="31"/>
+      <c r="I26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="31"/>
+      <c r="I27" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A28" s="25"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="3">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="G29" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="31"/>
+      <c r="I31" t="s">
+        <v>184</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="31"/>
+      <c r="I32" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A33" s="25"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="27"/>
+    <row r="34" spans="1:11" ht="31.8" customHeight="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" ht="28.8">
+      <c r="A38" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="28.8">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="28.8">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="28.8">
+      <c r="A42" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" ht="115.2">
+      <c r="A44" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2"/>
+      <c r="B46" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" ht="28.8">
+      <c r="A49" s="2"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="28.8">
+      <c r="A50" s="2"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="2"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.6">
+      <c r="B56" s="22"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="F56" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.6">
+      <c r="B57" s="22"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="J57" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.6">
+      <c r="B58" s="22"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="31"/>
+      <c r="I58" t="s">
+        <v>184</v>
+      </c>
+      <c r="J58" s="35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.6">
+      <c r="B59" s="22"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="31"/>
+      <c r="I59" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59" s="35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" s="22"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
+  <mergeCells count="51">
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="F20:F27"/>
+    <mergeCell ref="G20:G27"/>
+    <mergeCell ref="H20:H27"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A14:A37"/>
+    <mergeCell ref="B14:B37"/>
+    <mergeCell ref="C14:C37"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{B69A256E-735F-4B5D-98AC-04A541926EBA}"/>
-    <hyperlink ref="F27" r:id="rId2" xr:uid="{32934711-F03E-4FEA-81CA-F90D42E0DAD1}"/>
-    <hyperlink ref="F19" r:id="rId3" xr:uid="{EC624644-ACF8-43A2-97CA-B208BFF22979}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{A87D65C9-A68F-4B2D-9B78-81CD204FCE07}"/>
+    <hyperlink ref="F49" r:id="rId2" xr:uid="{BEE2F2AE-6F7C-4AC0-86F6-51BF08C465F7}"/>
+    <hyperlink ref="F41" r:id="rId3" xr:uid="{D12DFBC0-941E-4A4C-B665-777199174B95}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{721425B6-4C62-4ECB-B673-54A823F023B5}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{6B49753E-0ABB-4E55-B11B-F84E7E579A0E}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{51CBC9DC-D3B3-4F64-89F9-1F8AA18C08F2}"/>
+    <hyperlink ref="I13" r:id="rId7" xr:uid="{0557884F-2D3A-40D4-BB43-526C903F7D7A}"/>
+    <hyperlink ref="I30" r:id="rId8" xr:uid="{1377145A-7030-4D0F-B2BB-4681FC3875BF}"/>
+    <hyperlink ref="I57" r:id="rId9" xr:uid="{28D8D476-D5AD-432F-82E0-B6CAE981E032}"/>
+    <hyperlink ref="I21" r:id="rId10" xr:uid="{008C7256-A929-4978-B6C3-C93C474324B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29179C93-0124-4C31-852B-A6C21E7E9C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E965B3E7-EB92-4540-B8C5-ED4F02E1A674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Products" sheetId="2" r:id="rId2"/>
+    <sheet name="About" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="322">
   <si>
     <t>VariableName</t>
   </si>
@@ -507,12 +508,6 @@
   </si>
   <si>
     <t>Opening of the payslips are protected</t>
-  </si>
-  <si>
-    <t>Welcome to the Feedback assistant bot documentation. This project is all about making education better by simplifying feedback. We'll show you how our Feedback Assistant Bot automates tasks and how it benefits both teachers and students. By the end, you'll see how we're enhancing education one step at a time.</t>
-  </si>
-  <si>
-    <t>When manually entering 100 different Gmail addresses into the system, it may take approximately 2-3 minutes per email. In total, this task could require around 3.3 to 5 hours to complete. Actual time may vary based on individual factors and email complexity.With automation, the Attended Bot efficiently sends emails to 100 Gmail addresses in just 7 minutes, a significant time-saving compared to manual entry</t>
   </si>
   <si>
     <t>Employee onboarding is a critical part of running any business. As crucial as it is, though, it can also be a long, involved process, limiting available staff and productivity. Onboarding automation can help.
@@ -613,20 +608,509 @@
     <t>Welcome Bot\Employee Induction Email</t>
   </si>
   <si>
-    <t>The Document Generation Bot aims to provide enhanced support for the automatic generation of documents. The primary objective of this project is to save time and eliminate the need for manual document work. For example, this bot can generate various documents such as certificates, score cards, attendance records, and daily lesson plans, so on. By utilizing this bot, we can save time by automating manual tasks</t>
-  </si>
-  <si>
     <t>ECW Web Process</t>
   </si>
   <si>
     <t>Analyze previous days working hours to identify unfilled or insufficient hours</t>
+  </si>
+  <si>
+    <t>variable Name</t>
+  </si>
+  <si>
+    <t>SubTeamMemberName</t>
+  </si>
+  <si>
+    <t>TopicImageLinks</t>
+  </si>
+  <si>
+    <t>SubTeamMemberPositions</t>
+  </si>
+  <si>
+    <t>WiseMainContent</t>
+  </si>
+  <si>
+    <t>Wise Tech Source</t>
+  </si>
+  <si>
+    <t>https://bootstrapmade.com/demo/templates/NewBiz/assets/img/about-img.svg</t>
+  </si>
+  <si>
+    <t>WiseTech Source Pvt Ltd. A venture of Wise Group of Companies, is a technology firm located in Chennai, India, providing automated software solutions and services using Artificial Intelligence (AI) technologies to the healthcare industry to enhance their productivity &amp; revenue. We have a team of highly experienced RCM domain experts who are specialized in Artificial Intelligence (AI) technology. We are expanding our business team to provide process automation &amp; intelligent software solutions to our end customers.</t>
+  </si>
+  <si>
+    <t>WiseKeyStrength</t>
+  </si>
+  <si>
+    <t>Key Strengths</t>
+  </si>
+  <si>
+    <t>https://bootstrapmade.com/demo/templates/NewBiz/assets/img/about-extra-1.svg</t>
+  </si>
+  <si>
+    <t>100+ Projects for US Healthcare Companies.Product Support for 2 billion dollar company.A big player in automation solutions with strong compliance adherence.Artificial Intelligence(AI) based Automation Solutions to US Healthcare Market.Research &amp; Development on new-age technologies and embedding to our solutions.With 50+ man-years of experience on Healthcare Domain in both Provider(RCM) and Payor(Insurance).</t>
+  </si>
+  <si>
+    <t>WiseSkills</t>
+  </si>
+  <si>
+    <t>Our Skills</t>
+  </si>
+  <si>
+    <t>https://bootstrapmade.com/demo/templates/NewBiz/assets/img/about-extra-2.svg</t>
+  </si>
+  <si>
+    <t>We are specialized in providing Offshore Development Services for companies who require technical solutions in Automation, Artificial Intelligence and Robotic Process Automation development. We fulfil technology requirements with our best-in-class enhancement platform and our expert Software Developers. We are the Authorized Automation Solution Provider, Distributor &amp; Trading Partner of “Automation Anywhere Inc. (AAI)” and provide RPA solutions to the IT Industries and to our clients in US &amp; India.Our Centre of Excellence (COE) team provide extensive automation solutions to enhance the productivity, efficiency and competitive advantages of enterprises by collaborating with “Automation Anywhere Inc. (AAI)” and using powerful techniques like Cybersecurity, Artificial Intelligence, Machine Learning etc.</t>
+  </si>
+  <si>
+    <t>WiseTeam</t>
+  </si>
+  <si>
+    <t>Senthil Kalidoss</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WpCzs6Nfh_24jhOPsIoq3SCJORE1tUh7/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Senthil has 25+ Years of experience in Senior leadership roles with Provider and Payor side Software Application Development in US Healthcare domain. He has contributed his expertise in products development and automation solutions with Arificial Intelligence, Machine Learning, Neural Network, Deep Learning, Natural Language Processing technologies. He is recognized for his success in implementing innovative solutions across the Healthcare, ERP, E-Commerce, Retail Sales &amp; BFSI domains. His prior experience includes senior leadership roles in leading MNCs across India, US, Canada, Malaysia and Singapore.</t>
+  </si>
+  <si>
+    <t>CEO &amp; Founder</t>
+  </si>
+  <si>
+    <t>Nageswari Raghu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EP9a9JxHnpeFRG-CptwNLCfw5gizNpWz/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>EXP: 18+ YEARS – Head – Artificial Intelligence, Director Client Handling (US, UK, India), Head – Research &amp; Development, AI Solution Architect, Project Architect, Implementation Strategy Head, Chief Tech-Expert, International Certified Professional in Microsoft, CRM, Sharepoint, Automation Anywhere</t>
+  </si>
+  <si>
+    <t>Director – Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Subramanian Viswanathan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_LcOfhU2CF_C9Na6Z93l62D-pLJGrY39/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>EXP: 20+ YEARS – Head – Innovations &amp; Development, Head – Software &amp; Technology, Client Project Development, Product Management, Chief Product Architect, Healthcare Solution Architect, Technical Specialist, Certified Professional etc.</t>
+  </si>
+  <si>
+    <t>Director – Innovations &amp; Development</t>
+  </si>
+  <si>
+    <t>A feedback system for students could be implemented as follows:
+Feedback Request: The bot sends a request to students to provide feedback, either through a chat interface or a form.
+Feedback Form: The feedback form can include questions about various aspects such as course content, teaching methodology, learning resources, and overall satisfaction.
+Feedback Collection: The bot collects the feedback provided by students through the form.
+Feedback Analysis: It analyzes the feedback to identify trends, common issues, and areas for improvement.
+Feedback Reporting: The bot generates reports summarizing the feedback, which can be shared with instructors or administrators.
+Action Planning: Based on the feedback, action plans can be developed to address the identified issues and improve the learning experience.
+Follow-up: The bot can follow up with students or instructors to track the implementation of action plans and gather additional feedback.
+Continuous Improvement: The feedback system should be part of a continuous improvement process, where feedback is used to iteratively enhance the educational experience.
+Such a system can help educational institutions gather valuable insights from students and improve the quality of education they provide.</t>
+  </si>
+  <si>
+    <t>Implementing a feedback system for students can lead to several time and cost-saving benefits for educational organizations:
+Efficient Data Collection: Automated feedback collection reduces the time and effort required to collect feedback compared to manual methods like surveys or interviews.
+Streamlined Data Analysis: Automated analysis tools can quickly process large volumes of feedback data, saving time compared to manual analysis.
+Actionable Insights: By identifying key insights and trends from feedback data, organizations can prioritize actions for improvement more effectively, saving time and resources.
+Reduced Paperwork: Moving to digital feedback forms reduces the need for printing, distributing, and collecting paper forms, saving costs associated with paper and printing.
+Improved Response Rates: Automated reminders and easy accessibility of digital feedback forms can improve response rates, ensuring that organizations receive more comprehensive feedback without additional effort.
+Centralized Data Management: A digital feedback system centralizes feedback data, making it easier to manage and analyze compared to scattered paper forms or disparate systems.
+Faster Feedback Loop Closure: With automated processes, organizations can implement changes based on feedback more quickly, leading to faster improvements in educational practices.
+Integration with Existing Systems: Integration with existing learning management systems (LMS) or organizational systems can reduce implementation costs and streamline processes.
+Overall, a well-implemented feedback system can lead to significant time and cost savings for educational organizations while improving the quality of education and student satisfaction.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cE3zXyHgG_I_sfPdsXNLqyADPdL6Wz0f/view?usp=drive_link</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customizable Feedback Forms: Allow instructors to create custom feedback </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Museo Sans"/>
+      </rPr>
+      <t>forms tailored to their courses or specific needs.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SEt0ZMejA1wXCmcK-A5qF91zOP0uCyeD/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Anonymous Feedback: Provide an option for students to submit feedback anonymously to encourage honest and open responses.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16yzLD0rCGxYKXpxlXXp6hPEMm88MtqI3/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Multiple Question Types: Support various question types such as multiple-choice, rating scales, and open-ended questions to gather diverse feedback.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vk2aibcobVHPlW4bfwCRxBzBuv9fA515/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Automated Reminders: Send automated reminders to students who haven't yet submitted feedback to improve response rates.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U4wD7l_rzYf1XyiFPOaxjpJM03XsKwhT/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Real-time Feedback: Provide instant feedback to students on their submissions, such as acknowledging receipt or thanking them for their input.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pzdnJxkRD7kmVxM0x_zNtspEpuMD2yDJ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Data Analysis Tools: Offer tools for analyzing feedback data, such as generating reports, visualizing trends, and identifying key insights.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dEjThCx91erPvgvWN89SI7WfY0cwY5DU/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Integration with Learning Management Systems (LMS): Integrate with existing LMS platforms to streamline the feedback process and centralize data management.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CPcqyj6GfMUDJMstvruHNUvSuwmEv6cZ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Actionable Insights: Provide actionable insights from feedback data, suggesting improvements or interventions based on the analysis.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pvmt7dYJrOPQY-x1ivDkv-8GymnYftVO/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Feedback Loop Closure: Ensure that feedback is not just collected but also acted upon, closing the feedback loop by implementing changes based on student input.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PftvYC9fQHSpye9fOdGzFMRp8e_mgiv8/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Accessibility Features: Ensure that the feedback system is accessible to all students, including those with disabilities, by providing alternative formats or tools.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1outGf0r0K3OE-ByQBYJLij-2TihVYB9F/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JCdfO_VgtCgRW_zY-ZB0yiLSgqAVQBRG/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IHlHXfGNYIEI_2w1Rx2hd5N5bG44aVI5/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kjWvkF01phIk-wpgY7ckCBmAcVcGgbY_/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BbjXRyVdXrM46XR3qPB6bgV9sDUW-zib/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>An attendance tracker bot is a tool designed to automate the process of tracking attendance for students or employees. Here's how it might work:
+Check-in Process: The bot prompts students or employees to check in at the beginning of a class or workday. This can be done through a chat interface, QR code scanning, or other methods.
+Attendance Recording: Once checked in, the bot records the attendance of the individual. This information is typically stored in a database for future reference.
+Real-time Monitoring: The bot can provide real-time updates on attendance status, allowing instructors or supervisors to monitor attendance remotely.
+Attendance Reports: The bot generates attendance reports based on the recorded data, showing attendance trends over time and identifying patterns or anomalies.
+Integration with Other Systems: The bot can integrate with other systems, such as learning management systems (LMS) or human resource management systems (HRMS), to streamline attendance tracking and reporting processes.
+Automation of Attendance-related Tasks: The bot can automate tasks related to attendance, such as sending notifications to absentees or generating attendance certificates.
+Data Security and Privacy: The bot ensures that attendance data is secure and complies with privacy regulations by implementing appropriate security measures.
+Overall, an attendance tracker bot simplifies the process of tracking attendance, reduces administrative burden, and provides valuable insights into attendance patterns.</t>
+  </si>
+  <si>
+    <t>Implementing an attendance tracker bot can lead to several cost and time-saving benefits for organizations:Automation of Attendance Tracking: The bot automates the process of tracking attendance, reducing the need for manual attendance taking by instructors or administrative staff.Reduced Administrative Burden: With automated attendance tracking, there is less administrative work involved in managing attendance records, generating reports, and following up with absentees.Improved Accuracy: Automated attendance tracking reduces the risk of errors that can occur with manual attendance taking, leading to more accurate attendance records.Time Savings: The time saved by automating attendance tracking can be significant, especially for organizations with a large number of students or employees.Efficient Resource Allocation: By automating attendance tracking, organizations can allocate resources more efficiently, focusing on other important tasks.Real-time Monitoring: The ability to monitor attendance in real-time allows organizations to take immediate action in case of any issues or discrepancies.Integration with Existing Systems: The bot can integrate with existing systems, such as LMS or HRMS, streamlining data management and reducing the need for manual data entry.Improved Compliance: Automated attendance tracking can help organizations ensure compliance with attendance policies and regulations.Overall, an attendance tracker bot can lead to significant cost and time savings for organizations, allowing them to streamline attendance tracking processes and allocate resources more efficiently.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dL9kwBo3quxhpty1lOW6Kaf1Dq9TGW-I/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Check-in/Check-out: Allow students or employees to check in and out using a chat interface or other methods like QR codes.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BlWkw6UJO_8AX5YzlMoswYyOuPxlOJ8b/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Automated Reminders: Send automated reminders to individuals who haven't checked in or out by a certain time.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nUpBJKqnUNyPsc47o4nH1HFLnAQCYrKw/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Real-time Updates: Provide real-time updates on attendance status, showing who is present and who is absent.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ibf2R-lWmzfa93VitzQ14mXqZ9EB43fq/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Attendance Reports: Generate attendance reports that can be exported or shared with relevant stakeholders.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15d3J8Aii35TvoUrswhBrfD6cImbT9NIn/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Customizable Settings: Allow customization of check-in/out times, attendance thresholds, and notification preferences.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12s6adAB-TXIMQYFLpBpmktSgsD3gsBTR/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Integration with Other Systems: Integrate with existing systems such as LMS or HRMS to streamline data management.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1C-L5bUUPBkGoCeCABJN6_guf6r0s2hRy/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Privacy and Security: Ensure that attendance data is secure and compliant with relevant privacy regulations.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1deHMyLWsx7x3qwdJM52VmaxblxS03XUS/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Multi-platform Support: Support multiple platforms such as web, mobile, and chat interfaces for convenience.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-rj12FEPIOTlnp5vZwnJ4lCTbFHGwZcr/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Attendance Trends: Provide insights into attendance trends over time, helping identify patterns and improve attendance management strategies.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yJ-Ey_1Ds8IqtuT2Dg_uG8lt66QF502Y/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Scalability: Scale to accommodate large numbers of users and attendance records.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1p7TivMIW3WiG9zB5AImwhscLqSdNt6q4/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>These features can help organizations automate and streamline their attendance tracking process, saving time and reducing administrative overhead.</t>
+  </si>
+  <si>
+    <t>documents such as reports, letters, contracts, and more. Here's how it might work:
+Template Selection: The bot allows users to select a pre-designed template for the type of document they want to create.
+Data Input: Users input the necessary information for the document, such as names, dates, and specific details relevant to the content.
+Content Generation: The bot uses the template and the inputted data to automatically generate the document, filling in the placeholders with the relevant information.
+Review and Editing: Users can review the generated document and make any necessary edits or corrections.
+Finalization: Once the document is reviewed and finalized, users can save or export it in the desired format (e g, PDF, Word).
+Automation of Repetitive Tasks: The bot can automate repetitive document creation tasks, saving time and reducing errors.
+Integration with Other Systems: The bot can integrate with other systems, such as CRM or document management systems, to streamline the document generation process.
+Customization: Users can customize the templates to suit their specific needs and branding requirements.
+Version Control: The bot can maintain version control of documents, ensuring that the latest version is always accessible and that changes are tracked.
+Security: The bot ensures that document generation is secure and complies with relevant privacy regulations.
+Overall, a document generator bot can improve efficiency, accuracy, and consistency in document creation, making it a valuable tool for organizations of all sizes.</t>
+  </si>
+  <si>
+    <t>Reduced Manual Effort:
+Automated Document Creation: The bot automates the process of creating documents, reducing the need for manual effort.
+Time Savings: Users can quickly generate documents without spending time on manual data entry or formatting.
+Standardization:
+Consistent Formatting: The bot ensures that documents are formatted consistently, reducing the time spent on manual formatting.
+Standardized Content: Templates help standardize the content of documents, ensuring accuracy and compliance with organizational standards.
+Streamlined Workflows:
+Faster Turnaround: Documents can be generated quickly, streamlining workflows and reducing turnaround time.
+Improved Collaboration: Users can collaborate more efficiently on document creation, reducing delays in the review and approval process.
+Reduced Errors:
+Automated Validation: The bot can validate input data, reducing the risk of errors in the final document.
+Consistency: Standardized templates help ensure consistency in document content and formatting, reducing errors.
+Cost Savings:
+Reduced Labor Costs: With automation, organizations can reduce the labor costs associated with manual document creation.
+Lower Printing Costs: Digital documents eliminate the need for printing, saving on paper and ink costs.
+Improved Compliance:
+Template Compliance: Templates can be designed to ensure compliance with regulatory requirements or organizational policies.
+Version Control: Version control features help ensure that the correct version of a document is used, reducing compliance risks.
+Enhanced Productivity:
+Focus on Core Tasks: Employees can focus on more strategic tasks, improving overall productivity.
+Quick Access to Information: Users can quickly access and share documents, improving efficiency in information sharing.
+Overall, a document generator bot can lead to significant time and cost savings for organizations by automating document creation processes, improving efficiency, and reducing errors.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jnRXR8pgQ43TCB79YhDmNFgTQ9znom39/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Template Library: A collection of pre-designed templates for various types of documents, such as reports, letters, contracts, and proposals.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XRPGpn4vSPRtbQvmkqZLgzTi3XCfqxc1/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Customizable Templates: Ability to customize templates to match the organization's branding and specific requirements.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MWvPJI4LcjBP8AbJD5gTDnS0NhlgWsjZ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Data Input Forms: Forms for users to input the necessary information for document generation, with validation to ensure accuracy.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_6GZ-fWSrAyjQsTWbjTf597zXtnLR-Yq/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Merge Fields: Merge fields that automatically populate with the inputted data to generate the final document.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16_1SCwQM-a5NzoBXgDd_kW90iA0poIgQ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Document Preview: Ability to preview the generated document before finalizing and downloading.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dCTcNVLYZln07k4BYvHB9WFefawarRsf/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Editing Tools: Basic editing tools for users to make minor adjustments to the generated document, such as formatting text or adding additional content.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ppp6JyMp5Zln7KNJYLZSYnSd9z6WSwnu/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Version Control: Maintain a history of document versions and the ability to revert to previous versions if needed.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S2e6MyoI8oA0UmjLYMiwJZv1rLqFE0Nu/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Integration: Integration with other systems, such as CRM or document management systems, to streamline the document generation process.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NutWrOW4WlBPEEIm9O8Bx_6WTA3ARX7H/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Collaboration: Ability for multiple users to collaborate on a document, with permissions settings to control access.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Kb5TiYusfsUw3aJyjAQ195gVi8PtRaVt/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Export Formats: Ability to export the generated document in various formats, such as PDF, Word, or HTML.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KxH1jiU4O463nlKQVC1qiomU9iw-SM7N/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Automation: Automation of repetitive document generation tasks, saving time and reducing errors.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1x4gZ_xHO1zsfn2aYRpK3O8nwuYodYSHY/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Security: Ensure that document generation is secure and complies with relevant privacy regulations.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-maK8Wghx6lLlTLAAcOfG_728ICRgeKh/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Reporting and Analytics: Generate reports and analytics on document generation metrics, such as the number of documents generated, turnaround time, and user activity.</t>
+  </si>
+  <si>
+    <t>These features can help streamline the document generation process, improve efficiency, and ensure consistency in document formatting and content.</t>
+  </si>
+  <si>
+    <t>A visiting card details taker bot could be designed to streamline the process of collecting and managing contact information from visiting cards. Here's how it might work:
+Card Scanning: The bot could use OCR (Optical Character Recognition) technology to scan the details from a visiting card when it is uploaded or photographed.
+Data Extraction: After scanning, the bot would extract key information such as name, company, job title, phone number, email address, and any other relevant details.
+Validation: The bot could validate the extracted information to ensure accuracy and completeness.
+Database Management: The extracted details could be stored in a database for future reference. The bot could also provide options to categorize or tag the contacts for easier management.
+Integration with Contact Management Systems: The bot could integrate with popular contact management systems or CRMs (Customer Relationship Management) to directly input the extracted details into the system.
+Data Privacy and Security: Ensure that the bot complies with data privacy regulations and implements security measures to protect the collected information.
+User Interface: Provide a user-friendly interface for uploading or capturing visiting card details, as well as for managing the extracted contacts.
+Such a bot could be particularly useful for professionals who frequently receive visiting cards and need a convenient way to organize and manage their contacts.</t>
+  </si>
+  <si>
+    <t>Time Savings:
+Automated Data Entry: The bot automates the process of entering contact information from visiting cards, saving time compared to manual data entry.
+Instant Data Capture: Users can capture and store contact details instantly, eliminating the need to manually transcribe information later.
+Reduced Administrative Burden:
+Streamlined Contact Management: The bot streamlines the process of managing and organizing contacts, reducing the administrative burden.
+Improved Efficiency: Users can quickly access and update contact information, improving overall efficiency.
+Cost Savings:
+Reduced Paper Usage: Using a digital system for managing contacts reduces the need for printing and storing physical visiting cards, saving on paper and printing costs.
+Minimized Errors: Automated data entry reduces the risk of errors, which can be costly to rectify.
+Improved Productivity:
+Focus on Core Tasks: With the automation of data entry and contact management, users can focus on more critical tasks, improving overall productivity.
+Faster Access to Information: Users can quickly retrieve contact information when needed, saving time and improving workflow.
+Enhanced Data Accuracy:
+Automated Validation: The bot can validate contact information for accuracy, reducing errors and ensuring data quality.
+Consistent Formatting: By standardizing contact information, the bot ensures that data is consistent and easy to manage.
+Integration with Existing Systems:
+Seamless Data Transfer: Integration with CRM or other systems allows for seamless transfer of contact information, reducing duplication of effort and improving data consistency.
+Overall, a visiting card details taker bot can lead to significant time and cost savings for organizations by automating the process of collecting, managing, and accessing contact information.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iPiT5GYJZsQ1DqiFircqlIhlgLWQVkeQ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Visiting Card Scanning: The bot should be able to scan visiting cards either by uploading an image or taking a photo using a mobile device's camera.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19amKqIK2e4yW4p8gyd6fLW6Gl0pJQRC-/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>OCR Technology: Utilize Optical Character Recognition (OCR) technology to extract text from the scanned image, including name, company, job title, phone number, email address, and other relevant information.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i7ouJIFaj0alKp4WzeaCttfYAgVUViXN/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Data Validation: Validate the extracted information to ensure accuracy and completeness, and provide an option for manual correction if needed.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bG7R0Sl4eT_urxTlZmR0TdalmSD__ybg/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Contact Database: Store the extracted details in a contact database, allowing users to easily access and manage their contacts.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J5TGZCY7A4kkIJpOwxJR9wzrP1B_Vbyh/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Search and Filter: Provide search and filter options to quickly find specific contacts based on various criteria.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-Jb5kxaGiQ-JDAB3_r3oeoTC6VK9udlQ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Integration with CRM: Integrate with popular CRM systems to directly input the extracted details into the user's CRM account.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ctOKr-QS_cVdM4qng7tcNl3s9cQPp57-/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Export and Sharing: Allow users to export contact details in various formats (e.g., CSV, vCard) and share them with others.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yvgtSPz8x_5Btke99NHppMVhMOpPEkS5/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Data Security: Ensure that the bot complies with data privacy regulations and implements security measures to protect the collected information.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TGI8mTZEdx5AMScMCOG9DuTA5J4AM9TE/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>User-Friendly Interface: Provide a simple and intuitive interface for users to upload, view, and manage visiting card details.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/194Rra-Ze1VU-KI4NJnkKqbCyt9060GB-/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Customization: Allow users to customize the way their contact information is displayed and organized within the bot.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nfNNRvFbyMJrZEQmGvPt74c_ZSelMR6h/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Implementing these features can make the visiting card details taker bot a valuable tool for professionals looking to efficiently manage their contacts.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,10 +1163,15 @@
       <name val="Museo Sans"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Cambria Math"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color rgb="FF57647C"/>
+      <name val="ABeeZee"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -774,7 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,6 +1312,17 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -832,14 +1332,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -850,8 +1353,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,28 +1369,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1190,8 +1687,8 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1519,7 +2016,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="23" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1530,7 +2027,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A31" s="19"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
@@ -1539,7 +2036,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A32" s="19"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
@@ -1548,7 +2045,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A33" s="20"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
@@ -1561,9 +2058,9 @@
     <mergeCell ref="A30:A33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AAE57C4E-1618-409D-8508-2B9DC4AB5619}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{CAE6E29A-6FB5-4355-9C1A-7ED561A71DB7}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{F4D23E8A-43C3-42EA-8199-01C0B11C5E7E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{64D8F906-5076-49BE-8BC0-E7C7E3B9231A}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{0BF585B2-B0E9-4225-A70C-BD325689CAC1}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{3D7D9C13-E60B-4963-A034-B65416910C6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1575,10 +2072,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="C115" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1590,9 +2087,10 @@
     <col min="5" max="5" width="28.33203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="64.21875" style="6" customWidth="1"/>
     <col min="7" max="7" width="52.109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="52.21875" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="43.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1">
@@ -1631,1114 +2129,2790 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="19" t="s">
         <v>133</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="27">
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="19" t="s">
         <v>135</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="32" t="s">
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="18" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="32" t="s">
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="18" t="s">
         <v>139</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="32" t="s">
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="18" t="s">
         <v>141</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="32"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="17"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="G9" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="27">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F19" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F20" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G20" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H20" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I20" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J20" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K20" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="3" t="s">
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J21" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="34.799999999999997" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="34" t="s">
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J22" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A14" s="24" t="s">
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C23" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="27" t="s">
+      <c r="D23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H23" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="I23" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K23" s="34">
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="31"/>
-      <c r="J15" s="35" t="s">
+    <row r="24" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J24" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="31"/>
-      <c r="J16" s="35" t="s">
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="31"/>
-      <c r="J17" s="35" t="s">
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A26" s="30"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="31"/>
-      <c r="J18" s="35" t="s">
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A27" s="30"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.8" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A28" s="31"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F28" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G28" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" s="34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A29" s="31"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" s="34"/>
+    </row>
+    <row r="30" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A30" s="31"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A31" s="31"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" s="34"/>
+    </row>
+    <row r="32" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A32" s="31"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A33" s="31"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="K33" s="34"/>
+    </row>
+    <row r="34" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="34"/>
+    </row>
+    <row r="35" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A35" s="31"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="34"/>
+    </row>
+    <row r="36" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A37" s="31"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="K37" s="34"/>
+    </row>
+    <row r="38" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A38" s="31"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H38" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
+      <c r="I38" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="J38" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K38">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A39" s="31"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J39" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="K20">
+    </row>
+    <row r="40" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A40" s="31"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A41" s="31"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A42" s="31"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A43" s="31"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A44" s="31"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A45" s="31"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" t="s">
+        <v>174</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A46" s="31"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I46" t="s">
+        <v>247</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="K46" s="34">
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="31"/>
-      <c r="I22" t="s">
-        <v>166</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="31"/>
-      <c r="I23" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="31"/>
-      <c r="I24" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="25.2" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="31"/>
-      <c r="I25" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="31"/>
-      <c r="I26" t="s">
-        <v>174</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="31"/>
-      <c r="I27" t="s">
+    <row r="47" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A47" s="31"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" t="s">
+        <v>249</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="K47" s="34"/>
+    </row>
+    <row r="48" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" t="s">
+        <v>251</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="49" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A49" s="31"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" t="s">
+        <v>253</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="K49" s="34"/>
+    </row>
+    <row r="50" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A50" s="31"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" t="s">
+        <v>255</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="K50" s="34"/>
+    </row>
+    <row r="51" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="K51" s="34"/>
+    </row>
+    <row r="52" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A52" s="31"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" t="s">
+        <v>259</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="K52" s="34"/>
+    </row>
+    <row r="53" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A53" s="31"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" t="s">
+        <v>261</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="K53" s="34"/>
+    </row>
+    <row r="54" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A54" s="31"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
+      <c r="I54" t="s">
+        <v>263</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="K54" s="34"/>
+    </row>
+    <row r="55" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A55" s="31"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+      <c r="I55" t="s">
+        <v>265</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="K55" s="34"/>
+    </row>
+    <row r="56" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A56" s="31"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
+      <c r="I56" t="s">
+        <v>267</v>
+      </c>
+      <c r="J56" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="K56" s="34"/>
+    </row>
+    <row r="57" spans="1:11" ht="31.2" customHeight="1">
+      <c r="A57" s="31"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="H57" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="I57" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="31.2" customHeight="1">
+      <c r="A58" s="31"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="31.2" customHeight="1">
+      <c r="A59" s="31"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="31.2" customHeight="1">
+      <c r="A60" s="31"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" t="s">
+        <v>184</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A61" s="31"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" ht="33.75" customHeight="1">
+      <c r="A62" s="31"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" ht="34.799999999999997" customHeight="1">
+      <c r="A63" s="31"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A64" s="31"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A66" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I66" t="s">
+        <v>220</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="K66" s="34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A67" s="30"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27"/>
+      <c r="I67" t="s">
+        <v>222</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="K67" s="34"/>
+    </row>
+    <row r="68" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A68" s="30"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="K68" s="34"/>
+    </row>
+    <row r="69" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A69" s="30"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+      <c r="I69" t="s">
+        <v>226</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="K69" s="34"/>
+    </row>
+    <row r="70" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A70" s="30"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="K70" s="34"/>
+    </row>
+    <row r="71" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="K71" s="34"/>
+    </row>
+    <row r="72" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A72" s="30"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="K72" s="34"/>
+    </row>
+    <row r="73" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A73" s="30"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="K73" s="34"/>
+    </row>
+    <row r="74" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A74" s="30"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="K74" s="34"/>
+    </row>
+    <row r="75" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A75" s="30"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
+      <c r="I75" t="s">
+        <v>238</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="K75" s="34"/>
+    </row>
+    <row r="76" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" ht="27.6" customHeight="1">
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" ht="31.8" customHeight="1">
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A79" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="I79" t="s">
+        <v>271</v>
+      </c>
+      <c r="J79" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K79" s="34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A80" s="30"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J80" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K80" s="34"/>
+    </row>
+    <row r="81" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A81" s="30"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" t="s">
+        <v>275</v>
+      </c>
+      <c r="J81" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="K81" s="34"/>
+    </row>
+    <row r="82" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A82" s="30"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" t="s">
+        <v>277</v>
+      </c>
+      <c r="J82" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K82" s="34"/>
+    </row>
+    <row r="83" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A83" s="30"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" t="s">
+        <v>279</v>
+      </c>
+      <c r="J83" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K83" s="34"/>
+    </row>
+    <row r="84" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A84" s="30"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" t="s">
+        <v>281</v>
+      </c>
+      <c r="J84" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="K84" s="34"/>
+    </row>
+    <row r="85" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A85" s="30"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" t="s">
+        <v>283</v>
+      </c>
+      <c r="J85" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K85" s="34"/>
+    </row>
+    <row r="86" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A86" s="30"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" t="s">
+        <v>285</v>
+      </c>
+      <c r="J86" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="K86" s="34"/>
+    </row>
+    <row r="87" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A87" s="30"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" t="s">
+        <v>287</v>
+      </c>
+      <c r="J87" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K87" s="34"/>
+    </row>
+    <row r="88" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A88" s="30"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" t="s">
+        <v>289</v>
+      </c>
+      <c r="J88" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K88" s="34"/>
+    </row>
+    <row r="89" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A89" s="30"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" t="s">
+        <v>291</v>
+      </c>
+      <c r="J89" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K89" s="34"/>
+    </row>
+    <row r="90" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A90" s="30"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" t="s">
+        <v>293</v>
+      </c>
+      <c r="J90" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K90" s="34"/>
+    </row>
+    <row r="91" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A91" s="30"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" t="s">
+        <v>295</v>
+      </c>
+      <c r="J91" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K91" s="34"/>
+    </row>
+    <row r="92" spans="1:11" ht="32.4" customHeight="1">
+      <c r="A92" s="30"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" t="s">
+        <v>289</v>
+      </c>
+      <c r="J92" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="K92" s="34"/>
+    </row>
+    <row r="93" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" ht="30" customHeight="1">
+      <c r="A94" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G94" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="I94" t="s">
+        <v>271</v>
+      </c>
+      <c r="J94" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K94" s="34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="30" customHeight="1">
+      <c r="A95" s="30"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="34"/>
+      <c r="I95" t="s">
+        <v>273</v>
+      </c>
+      <c r="J95" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K95" s="34"/>
+    </row>
+    <row r="96" spans="1:11" ht="30" customHeight="1">
+      <c r="A96" s="30"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="34"/>
+      <c r="I96" t="s">
+        <v>275</v>
+      </c>
+      <c r="J96" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="K96" s="34"/>
+    </row>
+    <row r="97" spans="1:11" ht="30" customHeight="1">
+      <c r="A97" s="30"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="34"/>
+      <c r="I97" t="s">
+        <v>277</v>
+      </c>
+      <c r="J97" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K97" s="34"/>
+    </row>
+    <row r="98" spans="1:11" ht="30" customHeight="1">
+      <c r="A98" s="30"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="34"/>
+      <c r="I98" t="s">
+        <v>279</v>
+      </c>
+      <c r="J98" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K98" s="34"/>
+    </row>
+    <row r="99" spans="1:11" ht="30" customHeight="1">
+      <c r="A99" s="30"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="34"/>
+      <c r="I99" t="s">
+        <v>281</v>
+      </c>
+      <c r="J99" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="K99" s="34"/>
+    </row>
+    <row r="100" spans="1:11" ht="30" customHeight="1">
+      <c r="A100" s="30"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="34"/>
+      <c r="I100" t="s">
+        <v>283</v>
+      </c>
+      <c r="J100" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="K100" s="34"/>
+    </row>
+    <row r="101" spans="1:11" ht="30" customHeight="1">
+      <c r="A101" s="30"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="34"/>
+      <c r="I101" t="s">
+        <v>285</v>
+      </c>
+      <c r="J101" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="K101" s="34"/>
+    </row>
+    <row r="102" spans="1:11" ht="30" customHeight="1">
+      <c r="A102" s="30"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="34"/>
+      <c r="I102" t="s">
+        <v>287</v>
+      </c>
+      <c r="J102" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K102" s="34"/>
+    </row>
+    <row r="103" spans="1:11" ht="30.6" customHeight="1">
+      <c r="A103" s="30"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="34"/>
+      <c r="I103" t="s">
+        <v>289</v>
+      </c>
+      <c r="J103" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K103" s="34"/>
+    </row>
+    <row r="104" spans="1:11" ht="30" customHeight="1">
+      <c r="A104" s="30"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="34"/>
+      <c r="I104" t="s">
+        <v>291</v>
+      </c>
+      <c r="J104" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K104" s="34"/>
+    </row>
+    <row r="105" spans="1:11" ht="30" customHeight="1">
+      <c r="A105" s="30"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="34"/>
+      <c r="I105" t="s">
+        <v>293</v>
+      </c>
+      <c r="J105" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K105" s="34"/>
+    </row>
+    <row r="106" spans="1:11" ht="30" customHeight="1">
+      <c r="A106" s="30"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="34"/>
+      <c r="I106" t="s">
+        <v>295</v>
+      </c>
+      <c r="J106" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K106" s="34"/>
+    </row>
+    <row r="107" spans="1:11" ht="30" customHeight="1">
+      <c r="A107" s="30"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="34"/>
+      <c r="I107" t="s">
+        <v>295</v>
+      </c>
+      <c r="J107" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="K107" s="34"/>
+    </row>
+    <row r="108" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A108" s="31"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:11" s="3" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:11" s="3" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A111" s="2"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="H112" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J112" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="K112" s="27">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A113" s="2"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J113" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="K113" s="27"/>
+    </row>
+    <row r="114" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A114" s="2"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J114" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="K114" s="27"/>
+    </row>
+    <row r="115" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J115" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="K115" s="27"/>
+    </row>
+    <row r="116" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J116" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="K116" s="27"/>
+    </row>
+    <row r="117" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J117" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="K117" s="27"/>
+    </row>
+    <row r="118" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A118" s="2"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J118" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="K118" s="27"/>
+    </row>
+    <row r="119" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J119" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="K119" s="27"/>
+    </row>
+    <row r="120" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A120" s="2"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J120" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="K120" s="27"/>
+    </row>
+    <row r="121" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A121" s="2"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="J121" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="K121" s="27"/>
+    </row>
+    <row r="122" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A122" s="2"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J122" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K122" s="27"/>
+    </row>
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A123" s="2"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A125" s="2"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:11" ht="18.75" customHeight="1">
+      <c r="B128" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="27" t="s">
+      <c r="F128" s="26"/>
+      <c r="G128" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="H128" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I128" t="s">
+        <v>247</v>
+      </c>
+      <c r="J128" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="K128" s="34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B129" s="33"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="27"/>
+      <c r="I129" t="s">
+        <v>249</v>
+      </c>
+      <c r="J129" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="K129" s="34"/>
+    </row>
+    <row r="130" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B130" s="33"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="27"/>
+      <c r="I130" t="s">
+        <v>251</v>
+      </c>
+      <c r="J130" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="K130" s="34"/>
+    </row>
+    <row r="131" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B131" s="33"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="27"/>
+      <c r="I131" t="s">
+        <v>253</v>
+      </c>
+      <c r="J131" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="K131" s="34"/>
+    </row>
+    <row r="132" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B132" s="33"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="27"/>
+      <c r="I132" t="s">
+        <v>255</v>
+      </c>
+      <c r="J132" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="K132" s="34"/>
+    </row>
+    <row r="133" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B133" s="33"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="27"/>
+      <c r="I133" t="s">
+        <v>257</v>
+      </c>
+      <c r="J133" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="K133" s="34"/>
+    </row>
+    <row r="134" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B134" s="33"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="27"/>
+      <c r="I134" t="s">
+        <v>259</v>
+      </c>
+      <c r="J134" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="K134" s="34"/>
+    </row>
+    <row r="135" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B135" s="33"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="27"/>
+      <c r="I135" t="s">
+        <v>261</v>
+      </c>
+      <c r="J135" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="K135" s="34"/>
+    </row>
+    <row r="136" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B136" s="33"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="27"/>
+      <c r="I136" t="s">
+        <v>263</v>
+      </c>
+      <c r="J136" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="K136" s="34"/>
+    </row>
+    <row r="137" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B137" s="33"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="27"/>
+      <c r="I137" t="s">
+        <v>265</v>
+      </c>
+      <c r="J137" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="K137" s="34"/>
+    </row>
+    <row r="138" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B138" s="33"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="27"/>
+      <c r="I138" t="s">
+        <v>267</v>
+      </c>
+      <c r="J138" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="K138" s="34"/>
+    </row>
+    <row r="139" spans="2:11" ht="31.8" customHeight="1">
+      <c r="B139" s="29"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="27" t="s">
+      <c r="F139" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G139" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H139" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I139" t="s">
         <v>178</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="J139" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K139" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" ht="31.8" customHeight="1">
+      <c r="B140" s="29"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="J29" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="38" t="s">
+      <c r="J140" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K140" s="34"/>
+    </row>
+    <row r="141" spans="2:11" ht="31.8" customHeight="1">
+      <c r="B141" s="29"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="27"/>
+      <c r="I141" t="s">
         <v>182</v>
       </c>
-      <c r="J30" s="35" t="s">
+      <c r="J141" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="31"/>
-      <c r="I31" t="s">
+      <c r="K141" s="34"/>
+    </row>
+    <row r="142" spans="2:11" ht="31.8" customHeight="1">
+      <c r="B142" s="29"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="27"/>
+      <c r="I142" t="s">
         <v>184</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J142" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="31"/>
-      <c r="I32" t="s">
-        <v>186</v>
-      </c>
-      <c r="J32" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" ht="31.8" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="25"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" ht="28.8">
-      <c r="A38" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="28.8">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="28.8">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="28.8">
-      <c r="A42" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" ht="115.2">
-      <c r="A44" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2"/>
-      <c r="B46" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" ht="28.8">
-      <c r="A49" s="2"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" ht="28.8">
-      <c r="A50" s="2"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="B55" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.6">
-      <c r="B56" s="22"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="H56" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="I56" t="s">
-        <v>180</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="K56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.6">
-      <c r="B57" s="22"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.6">
-      <c r="B58" s="22"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="31"/>
-      <c r="I58" t="s">
-        <v>184</v>
-      </c>
-      <c r="J58" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.6">
-      <c r="B59" s="22"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="31"/>
-      <c r="I59" t="s">
-        <v>186</v>
-      </c>
-      <c r="J59" s="35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="B60" s="22"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="K142" s="34"/>
+    </row>
+    <row r="143" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B143" s="29"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="E20:E27"/>
-    <mergeCell ref="F20:F27"/>
-    <mergeCell ref="G20:G27"/>
-    <mergeCell ref="H20:H27"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
+  <mergeCells count="100">
+    <mergeCell ref="G128:G138"/>
+    <mergeCell ref="H128:H138"/>
+    <mergeCell ref="K128:K138"/>
+    <mergeCell ref="D139:D142"/>
+    <mergeCell ref="E139:E142"/>
+    <mergeCell ref="F139:F142"/>
+    <mergeCell ref="G139:G142"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="K139:K142"/>
+    <mergeCell ref="B128:B143"/>
+    <mergeCell ref="C128:C143"/>
+    <mergeCell ref="D128:D138"/>
+    <mergeCell ref="E128:E138"/>
+    <mergeCell ref="F128:F138"/>
+    <mergeCell ref="F94:F107"/>
+    <mergeCell ref="G94:G107"/>
+    <mergeCell ref="H94:H107"/>
+    <mergeCell ref="K94:K107"/>
+    <mergeCell ref="B109:B127"/>
+    <mergeCell ref="C109:C127"/>
+    <mergeCell ref="D112:D122"/>
+    <mergeCell ref="E112:E122"/>
+    <mergeCell ref="F112:F122"/>
+    <mergeCell ref="G112:G122"/>
+    <mergeCell ref="H112:H122"/>
+    <mergeCell ref="K112:K122"/>
+    <mergeCell ref="A94:A108"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="D94:D107"/>
+    <mergeCell ref="E94:E107"/>
+    <mergeCell ref="F66:F75"/>
+    <mergeCell ref="G66:G75"/>
+    <mergeCell ref="H66:H75"/>
+    <mergeCell ref="K66:K75"/>
+    <mergeCell ref="A79:A93"/>
+    <mergeCell ref="B79:B93"/>
+    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="D79:D92"/>
+    <mergeCell ref="E79:E92"/>
+    <mergeCell ref="F79:F92"/>
+    <mergeCell ref="G79:G92"/>
+    <mergeCell ref="H79:H92"/>
+    <mergeCell ref="K79:K92"/>
+    <mergeCell ref="A66:A78"/>
+    <mergeCell ref="B66:B78"/>
+    <mergeCell ref="C66:C78"/>
+    <mergeCell ref="D66:D75"/>
+    <mergeCell ref="E66:E75"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="E28:E37"/>
+    <mergeCell ref="F28:F37"/>
+    <mergeCell ref="G28:G37"/>
+    <mergeCell ref="H28:H37"/>
+    <mergeCell ref="K28:K37"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="A23:A65"/>
+    <mergeCell ref="B23:B65"/>
+    <mergeCell ref="C23:C65"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="G38:G45"/>
+    <mergeCell ref="H38:H45"/>
+    <mergeCell ref="D46:D56"/>
+    <mergeCell ref="E46:E56"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="C2:C22"/>
     <mergeCell ref="K2:K6"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A14:A37"/>
-    <mergeCell ref="B14:B37"/>
-    <mergeCell ref="C14:C37"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="D9:D18"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="F9:F18"/>
+    <mergeCell ref="G9:G18"/>
+    <mergeCell ref="H9:H18"/>
+    <mergeCell ref="K9:K18"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F46:F56"/>
+    <mergeCell ref="G46:G56"/>
+    <mergeCell ref="H46:H56"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{A87D65C9-A68F-4B2D-9B78-81CD204FCE07}"/>
-    <hyperlink ref="F49" r:id="rId2" xr:uid="{BEE2F2AE-6F7C-4AC0-86F6-51BF08C465F7}"/>
-    <hyperlink ref="F41" r:id="rId3" xr:uid="{D12DFBC0-941E-4A4C-B665-777199174B95}"/>
-    <hyperlink ref="I2" r:id="rId4" xr:uid="{721425B6-4C62-4ECB-B673-54A823F023B5}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{6B49753E-0ABB-4E55-B11B-F84E7E579A0E}"/>
-    <hyperlink ref="I11" r:id="rId6" xr:uid="{51CBC9DC-D3B3-4F64-89F9-1F8AA18C08F2}"/>
-    <hyperlink ref="I13" r:id="rId7" xr:uid="{0557884F-2D3A-40D4-BB43-526C903F7D7A}"/>
-    <hyperlink ref="I30" r:id="rId8" xr:uid="{1377145A-7030-4D0F-B2BB-4681FC3875BF}"/>
-    <hyperlink ref="I57" r:id="rId9" xr:uid="{28D8D476-D5AD-432F-82E0-B6CAE981E032}"/>
-    <hyperlink ref="I21" r:id="rId10" xr:uid="{008C7256-A929-4978-B6C3-C93C474324B9}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{1A5D5093-B9EF-4F16-BCA6-8793E8688269}"/>
+    <hyperlink ref="F112" r:id="rId2" xr:uid="{0A50A908-DC5E-4569-B705-31A392905163}"/>
+    <hyperlink ref="F78" r:id="rId3" xr:uid="{FA63CF2B-B0F3-47B6-88A1-A514FC7E1F84}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{BA20200A-83C5-4EBB-AAEC-41CB170B100D}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{36DD197D-12D9-4C8D-8DFA-5A22C67B8047}"/>
+    <hyperlink ref="I20" r:id="rId6" xr:uid="{B7335A11-F8EB-4095-B8CF-B226136DBB46}"/>
+    <hyperlink ref="I22" r:id="rId7" xr:uid="{25A024E7-718D-4CB4-8D09-777675593D76}"/>
+    <hyperlink ref="I58" r:id="rId8" xr:uid="{4A3D6D2C-9594-4E63-A026-A3159C1D00C0}"/>
+    <hyperlink ref="I140" r:id="rId9" xr:uid="{CE31AA04-7C73-4923-8A8E-74DB446DED44}"/>
+    <hyperlink ref="I39" r:id="rId10" xr:uid="{76282930-42AF-4ABE-8CC9-C98F9D9BBDB3}"/>
+    <hyperlink ref="I9" r:id="rId11" xr:uid="{FFC7EE4A-5558-4B8B-BCAE-28B370A9D977}"/>
+    <hyperlink ref="I10" r:id="rId12" xr:uid="{1CB72247-480A-4E66-87E4-188D3886C3AF}"/>
+    <hyperlink ref="I11" r:id="rId13" xr:uid="{46C3810D-8D83-45BC-B828-3EDDB2EB6993}"/>
+    <hyperlink ref="I12" r:id="rId14" xr:uid="{F802EE0C-ABA7-4AA7-B9BC-9876FD716F22}"/>
+    <hyperlink ref="I13" r:id="rId15" xr:uid="{CF0AFA3D-2BC5-45EA-A86E-2A4A6A92A5D5}"/>
+    <hyperlink ref="I14" r:id="rId16" xr:uid="{B9F944CA-0F15-4E30-B4FD-FF90A0F87157}"/>
+    <hyperlink ref="I15" r:id="rId17" xr:uid="{6091D1F3-FC82-4834-B542-2DE0747BF08F}"/>
+    <hyperlink ref="I16" r:id="rId18" xr:uid="{13FB6019-7C42-4463-B2B9-E583040D72DC}"/>
+    <hyperlink ref="I18" r:id="rId19" xr:uid="{DFE84ACA-6E94-4B4E-8199-7DFFEE501850}"/>
+    <hyperlink ref="I37" r:id="rId20" xr:uid="{9B2CFFD1-7295-40FA-BC54-997A4ED0C29F}"/>
+    <hyperlink ref="I17" r:id="rId21" xr:uid="{2129A678-E6B7-483C-843A-0980AB53B8AA}"/>
+    <hyperlink ref="I74" r:id="rId22" xr:uid="{59224F3D-AF19-4F14-A1C0-039733B72AEF}"/>
+    <hyperlink ref="I36" r:id="rId23" xr:uid="{6B6C6AF9-C3B6-4FDE-97D8-701D92E88207}"/>
+    <hyperlink ref="I35" r:id="rId24" xr:uid="{B10D3E38-0191-4BC3-BC68-2E7FF38F297A}"/>
+    <hyperlink ref="I73" r:id="rId25" xr:uid="{56681F21-8BA1-465B-8922-722B714E6878}"/>
+    <hyperlink ref="I34" r:id="rId26" xr:uid="{921DA933-3D4A-4F3D-96AC-CDB836947276}"/>
+    <hyperlink ref="I72" r:id="rId27" xr:uid="{E16057E9-E21C-497A-AE90-8D13AF371B41}"/>
+    <hyperlink ref="I33" r:id="rId28" xr:uid="{AB694F87-D57B-43CE-AB6E-8BB92C43F4EE}"/>
+    <hyperlink ref="I71" r:id="rId29" xr:uid="{C1A0405C-3A24-4D67-8D53-DCC986838F30}"/>
+    <hyperlink ref="I32" r:id="rId30" xr:uid="{80A69E4B-170B-48C6-8A79-C290E45B9DAF}"/>
+    <hyperlink ref="I70" r:id="rId31" xr:uid="{93AFB8B8-1FEE-430E-80F1-C802F8F58E72}"/>
+    <hyperlink ref="I31" r:id="rId32" xr:uid="{36AD2610-880D-41DD-80BA-9D1A9EBB5B4E}"/>
+    <hyperlink ref="I30" r:id="rId33" xr:uid="{2485814F-5476-4804-B53E-AC042D525AC5}"/>
+    <hyperlink ref="I68" r:id="rId34" xr:uid="{234AAFC3-E8F6-4C88-B70E-1CB7D85C4BBB}"/>
+    <hyperlink ref="I29" r:id="rId35" xr:uid="{3BC4DA9C-3F8D-4D2F-A41C-94BF06B56452}"/>
+    <hyperlink ref="I28" r:id="rId36" xr:uid="{F0BBC377-D614-428C-8ECB-8F79FBBFD43F}"/>
+    <hyperlink ref="I80" r:id="rId37" xr:uid="{81C9A426-DCAA-4F88-971A-24B11E8CD733}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29B74B4-BE24-421E-BD89-5193633DD653}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48" customHeight="1">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48.6" customHeight="1">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="49.2" customHeight="1">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32.4" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.8" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{54001FC5-B861-49AB-A34A-B020911EF250}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{B3F7FED8-6902-4DC7-80A9-E057EA149979}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{CC687779-68B4-4E9C-91B1-821C3EA8A16F}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{6FFDCCDE-580C-4672-8EA9-C94BC8CE0FA8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E965B3E7-EB92-4540-B8C5-ED4F02E1A674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D51A18E-4773-4638-8D67-7BC18D92ACD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="328">
   <si>
     <t>VariableName</t>
   </si>
@@ -1104,6 +1104,24 @@
   </si>
   <si>
     <t>Implementing these features can make the visiting card details taker bot a valuable tool for professionals looking to efficiently manage their contacts.</t>
+  </si>
+  <si>
+    <t>sender_mail_id</t>
+  </si>
+  <si>
+    <t>karvannan200016@gmail.com</t>
+  </si>
+  <si>
+    <t>sender_password</t>
+  </si>
+  <si>
+    <t>vysv xfji eayo ieah</t>
+  </si>
+  <si>
+    <t>mail_subject</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1323,6 +1341,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1338,7 +1364,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1350,17 +1382,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,16 +1394,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1685,10 +1706,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2016,7 +2037,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2027,7 +2048,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A31" s="24"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
@@ -2036,7 +2057,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
@@ -2045,12 +2066,36 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A33" s="25"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2058,12 +2103,13 @@
     <mergeCell ref="A30:A33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{64D8F906-5076-49BE-8BC0-E7C7E3B9231A}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{0BF585B2-B0E9-4225-A70C-BD325689CAC1}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{3D7D9C13-E60B-4963-A034-B65416910C6F}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C33EF254-9557-40C9-A5EE-6BEF10B21A26}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{E25653A9-5CE9-45AB-B7CF-1E185AF7DE2A}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{2E9C48A7-57CC-4FD0-8BC4-BEA8F1E96E55}"/>
+    <hyperlink ref="B34" r:id="rId4" xr:uid="{F63D37EE-3DE0-4602-A3EA-28691BED86A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2074,8 +2120,8 @@
   </sheetPr>
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView topLeftCell="C115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2129,28 +2175,28 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="41" t="s">
         <v>129</v>
       </c>
       <c r="I2" s="19" t="s">
@@ -2159,288 +2205,288 @@
       <c r="J2" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="31">
         <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="19" t="s">
         <v>135</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="27"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="18" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="18" t="s">
         <v>139</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="18" t="s">
         <v>141</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="18"/>
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="26" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="31" t="s">
         <v>219</v>
       </c>
       <c r="I9" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="31">
         <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="20" t="s">
         <v>222</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="20" t="s">
         <v>224</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="20" t="s">
         <v>226</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="K12" s="27"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="20" t="s">
         <v>228</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="20" t="s">
         <v>230</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="20" t="s">
         <v>232</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="K15" s="27"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="20" t="s">
         <v>234</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="20" t="s">
         <v>236</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="20" t="s">
         <v>238</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="K18" s="27"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2453,22 +2499,22 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="26" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="31" t="s">
         <v>144</v>
       </c>
       <c r="I20" s="20" t="s">
@@ -2482,14 +2528,14 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="27"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="3" t="s">
         <v>147</v>
       </c>
@@ -2498,14 +2544,14 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="27"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="20" t="s">
         <v>149</v>
       </c>
@@ -2514,26 +2560,26 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="26" t="s">
+      <c r="D23" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26" t="s">
+      <c r="F23" s="30"/>
+      <c r="G23" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="31" t="s">
         <v>152</v>
       </c>
       <c r="I23" t="s">
@@ -2542,275 +2588,275 @@
       <c r="J23" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
       <c r="I24" t="s">
         <v>241</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
       <c r="I25" t="s">
         <v>242</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="K25" s="34"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
       <c r="I26" t="s">
         <v>243</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27" t="s">
         <v>244</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="K27" s="34"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="26" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="41" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="26" t="s">
         <v>222</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="K29" s="34"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="41" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="26" t="s">
         <v>224</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="41" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="26" t="s">
         <v>226</v>
       </c>
       <c r="J31" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="K31" s="34"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="41" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="26" t="s">
         <v>228</v>
       </c>
       <c r="J32" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="41" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="26" t="s">
         <v>230</v>
       </c>
       <c r="J33" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="34"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="41" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="26" t="s">
         <v>232</v>
       </c>
       <c r="J34" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="41" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="26" t="s">
         <v>234</v>
       </c>
       <c r="J35" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="K35" s="34"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="41" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="26" t="s">
         <v>236</v>
       </c>
       <c r="J36" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="41" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="26" t="s">
         <v>238</v>
       </c>
       <c r="J37" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="K37" s="34"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="26" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26" t="s">
+      <c r="F38" s="30"/>
+      <c r="G38" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="31" t="s">
         <v>159</v>
       </c>
       <c r="I38" t="s">
@@ -2824,14 +2870,14 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="22" t="s">
         <v>162</v>
       </c>
@@ -2840,14 +2886,14 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
       <c r="I40" t="s">
         <v>164</v>
       </c>
@@ -2856,14 +2902,14 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A41" s="31"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="31"/>
       <c r="I41" t="s">
         <v>166</v>
       </c>
@@ -2872,14 +2918,14 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A42" s="31"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31"/>
       <c r="I42" t="s">
         <v>168</v>
       </c>
@@ -2888,14 +2934,14 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
       <c r="I43" t="s">
         <v>170</v>
       </c>
@@ -2904,14 +2950,14 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31"/>
       <c r="I44" t="s">
         <v>172</v>
       </c>
@@ -2920,14 +2966,14 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
       <c r="I45" t="s">
         <v>174</v>
       </c>
@@ -2936,20 +2982,20 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="26" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26" t="s">
+      <c r="F46" s="30"/>
+      <c r="G46" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="31" t="s">
         <v>246</v>
       </c>
       <c r="I46" t="s">
@@ -2958,197 +3004,197 @@
       <c r="J46" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="K46" s="34">
+      <c r="K46" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="27"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="31"/>
       <c r="I47" t="s">
         <v>249</v>
       </c>
       <c r="J47" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="K47" s="34"/>
+      <c r="K47" s="32"/>
     </row>
     <row r="48" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
       <c r="I48" t="s">
         <v>251</v>
       </c>
       <c r="J48" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="32"/>
     </row>
     <row r="49" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="27"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
       <c r="I49" t="s">
         <v>253</v>
       </c>
       <c r="J49" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="K49" s="34"/>
+      <c r="K49" s="32"/>
     </row>
     <row r="50" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
       <c r="I50" t="s">
         <v>255</v>
       </c>
       <c r="J50" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="K50" s="34"/>
+      <c r="K50" s="32"/>
     </row>
     <row r="51" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
       <c r="I51" t="s">
         <v>257</v>
       </c>
       <c r="J51" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="K51" s="34"/>
+      <c r="K51" s="32"/>
     </row>
     <row r="52" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
       <c r="I52" t="s">
         <v>259</v>
       </c>
       <c r="J52" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="K52" s="34"/>
+      <c r="K52" s="32"/>
     </row>
     <row r="53" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A53" s="31"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="27"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
       <c r="I53" t="s">
         <v>261</v>
       </c>
       <c r="J53" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="K53" s="34"/>
+      <c r="K53" s="32"/>
     </row>
     <row r="54" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A54" s="31"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
       <c r="I54" t="s">
         <v>263</v>
       </c>
       <c r="J54" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="K54" s="34"/>
+      <c r="K54" s="32"/>
     </row>
     <row r="55" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A55" s="31"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
       <c r="I55" t="s">
         <v>265</v>
       </c>
       <c r="J55" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="K55" s="34"/>
+      <c r="K55" s="32"/>
     </row>
     <row r="56" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A56" s="31"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="27"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
       <c r="I56" t="s">
         <v>267</v>
       </c>
-      <c r="J56" s="40" t="s">
+      <c r="J56" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="K56" s="34"/>
+      <c r="K56" s="32"/>
     </row>
     <row r="57" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A57" s="31"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="26" t="s">
+      <c r="A57" s="37"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="H57" s="27" t="s">
+      <c r="H57" s="31" t="s">
         <v>177</v>
       </c>
       <c r="I57" t="s">
@@ -3162,14 +3208,14 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A58" s="31"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="27"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="31"/>
       <c r="I58" s="22" t="s">
         <v>180</v>
       </c>
@@ -3178,14 +3224,14 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A59" s="31"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="27"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31"/>
       <c r="I59" t="s">
         <v>182</v>
       </c>
@@ -3194,14 +3240,14 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A60" s="31"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="27"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31"/>
       <c r="I60" t="s">
         <v>184</v>
       </c>
@@ -3210,9 +3256,9 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A61" s="31"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="31"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="2" t="s">
         <v>8</v>
       </c>
@@ -3223,9 +3269,9 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A62" s="31"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="31"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="2" t="s">
         <v>8</v>
       </c>
@@ -3236,9 +3282,9 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="34.799999999999997" customHeight="1">
-      <c r="A63" s="31"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="31"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
@@ -3251,9 +3297,9 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A64" s="31"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="31"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
@@ -3264,9 +3310,9 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="2" t="s">
         <v>8</v>
       </c>
@@ -3277,197 +3323,197 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="26" t="s">
+      <c r="D66" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H66" s="27" t="s">
+      <c r="H66" s="31" t="s">
         <v>219</v>
       </c>
       <c r="I66" t="s">
         <v>220</v>
       </c>
-      <c r="J66" s="40" t="s">
+      <c r="J66" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="K66" s="34">
+      <c r="K66" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A67" s="30"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="27"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="31"/>
       <c r="I67" t="s">
         <v>222</v>
       </c>
       <c r="J67" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="K67" s="34"/>
+      <c r="K67" s="32"/>
     </row>
     <row r="68" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A68" s="30"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="27"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="31"/>
       <c r="I68" s="22" t="s">
         <v>224</v>
       </c>
       <c r="J68" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="K68" s="34"/>
+      <c r="K68" s="32"/>
     </row>
     <row r="69" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A69" s="30"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="31"/>
       <c r="I69" t="s">
         <v>226</v>
       </c>
       <c r="J69" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="K69" s="34"/>
+      <c r="K69" s="32"/>
     </row>
     <row r="70" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A70" s="30"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="27"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31"/>
       <c r="I70" s="22" t="s">
         <v>228</v>
       </c>
       <c r="J70" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="K70" s="34"/>
+      <c r="K70" s="32"/>
     </row>
     <row r="71" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="27"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="31"/>
       <c r="I71" s="22" t="s">
         <v>230</v>
       </c>
       <c r="J71" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="K71" s="34"/>
+      <c r="K71" s="32"/>
     </row>
     <row r="72" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A72" s="30"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="27"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="31"/>
       <c r="I72" s="22" t="s">
         <v>232</v>
       </c>
       <c r="J72" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="K72" s="34"/>
+      <c r="K72" s="32"/>
     </row>
     <row r="73" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A73" s="30"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="27"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="31"/>
       <c r="I73" s="22" t="s">
         <v>234</v>
       </c>
       <c r="J73" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="K73" s="34"/>
+      <c r="K73" s="32"/>
     </row>
     <row r="74" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A74" s="30"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="27"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="31"/>
       <c r="I74" s="22" t="s">
         <v>236</v>
       </c>
       <c r="J74" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="K74" s="34"/>
+      <c r="K74" s="32"/>
     </row>
     <row r="75" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A75" s="30"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="27"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="31"/>
       <c r="I75" t="s">
         <v>238</v>
       </c>
       <c r="J75" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="K75" s="34"/>
+      <c r="K75" s="32"/>
     </row>
     <row r="76" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
@@ -3478,9 +3524,9 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
@@ -3493,9 +3539,9 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:11" ht="31.8" customHeight="1">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="2" t="s">
         <v>8</v>
       </c>
@@ -3508,265 +3554,265 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="26" t="s">
+      <c r="D79" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="F79" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G79" s="27" t="s">
+      <c r="G79" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="H79" s="27" t="s">
+      <c r="H79" s="31" t="s">
         <v>270</v>
       </c>
       <c r="I79" t="s">
         <v>271</v>
       </c>
-      <c r="J79" s="40" t="s">
+      <c r="J79" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="K79" s="34">
+      <c r="K79" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A80" s="30"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
       <c r="I80" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="J80" s="40" t="s">
+      <c r="J80" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="K80" s="34"/>
+      <c r="K80" s="32"/>
     </row>
     <row r="81" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A81" s="30"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
       <c r="I81" t="s">
         <v>275</v>
       </c>
-      <c r="J81" s="40" t="s">
+      <c r="J81" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="K81" s="34"/>
+      <c r="K81" s="32"/>
     </row>
     <row r="82" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A82" s="30"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
       <c r="I82" t="s">
         <v>277</v>
       </c>
-      <c r="J82" s="40" t="s">
+      <c r="J82" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="K82" s="34"/>
+      <c r="K82" s="32"/>
     </row>
     <row r="83" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A83" s="30"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
       <c r="I83" t="s">
         <v>279</v>
       </c>
-      <c r="J83" s="40" t="s">
+      <c r="J83" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="K83" s="34"/>
+      <c r="K83" s="32"/>
     </row>
     <row r="84" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A84" s="30"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
       <c r="I84" t="s">
         <v>281</v>
       </c>
-      <c r="J84" s="40" t="s">
+      <c r="J84" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="K84" s="34"/>
+      <c r="K84" s="32"/>
     </row>
     <row r="85" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A85" s="30"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
       <c r="I85" t="s">
         <v>283</v>
       </c>
-      <c r="J85" s="40" t="s">
+      <c r="J85" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="K85" s="34"/>
+      <c r="K85" s="32"/>
     </row>
     <row r="86" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A86" s="30"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
       <c r="I86" t="s">
         <v>285</v>
       </c>
-      <c r="J86" s="40" t="s">
+      <c r="J86" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="K86" s="34"/>
+      <c r="K86" s="32"/>
     </row>
     <row r="87" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A87" s="30"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
       <c r="I87" t="s">
         <v>287</v>
       </c>
-      <c r="J87" s="40" t="s">
+      <c r="J87" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="K87" s="34"/>
+      <c r="K87" s="32"/>
     </row>
     <row r="88" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A88" s="30"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
       <c r="I88" t="s">
         <v>289</v>
       </c>
-      <c r="J88" s="40" t="s">
+      <c r="J88" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="K88" s="34"/>
+      <c r="K88" s="32"/>
     </row>
     <row r="89" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A89" s="30"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
       <c r="I89" t="s">
         <v>291</v>
       </c>
-      <c r="J89" s="40" t="s">
+      <c r="J89" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="K89" s="34"/>
+      <c r="K89" s="32"/>
     </row>
     <row r="90" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A90" s="30"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
       <c r="I90" t="s">
         <v>293</v>
       </c>
-      <c r="J90" s="40" t="s">
+      <c r="J90" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="K90" s="34"/>
+      <c r="K90" s="32"/>
     </row>
     <row r="91" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A91" s="30"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
       <c r="I91" t="s">
         <v>295</v>
       </c>
-      <c r="J91" s="40" t="s">
+      <c r="J91" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="K91" s="34"/>
+      <c r="K91" s="32"/>
     </row>
     <row r="92" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A92" s="30"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
       <c r="I92" t="s">
         <v>289</v>
       </c>
-      <c r="J92" s="40" t="s">
+      <c r="J92" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="K92" s="34"/>
+      <c r="K92" s="32"/>
     </row>
     <row r="93" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="2" t="s">
         <v>8</v>
       </c>
@@ -3777,265 +3823,265 @@
       <c r="G93" s="2"/>
     </row>
     <row r="94" spans="1:11" ht="30" customHeight="1">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D94" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="26" t="s">
+      <c r="D94" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F94" s="26" t="s">
+      <c r="F94" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G94" s="26" t="s">
+      <c r="G94" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="H94" s="27" t="s">
+      <c r="H94" s="31" t="s">
         <v>270</v>
       </c>
       <c r="I94" t="s">
         <v>271</v>
       </c>
-      <c r="J94" s="40" t="s">
+      <c r="J94" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="K94" s="34">
+      <c r="K94" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" customHeight="1">
-      <c r="A95" s="30"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="34"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="32"/>
       <c r="I95" t="s">
         <v>273</v>
       </c>
-      <c r="J95" s="40" t="s">
+      <c r="J95" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="K95" s="34"/>
+      <c r="K95" s="32"/>
     </row>
     <row r="96" spans="1:11" ht="30" customHeight="1">
-      <c r="A96" s="30"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="34"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="32"/>
       <c r="I96" t="s">
         <v>275</v>
       </c>
-      <c r="J96" s="40" t="s">
+      <c r="J96" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="K96" s="34"/>
+      <c r="K96" s="32"/>
     </row>
     <row r="97" spans="1:11" ht="30" customHeight="1">
-      <c r="A97" s="30"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="34"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="32"/>
       <c r="I97" t="s">
         <v>277</v>
       </c>
-      <c r="J97" s="40" t="s">
+      <c r="J97" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="K97" s="34"/>
+      <c r="K97" s="32"/>
     </row>
     <row r="98" spans="1:11" ht="30" customHeight="1">
-      <c r="A98" s="30"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="34"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="32"/>
       <c r="I98" t="s">
         <v>279</v>
       </c>
-      <c r="J98" s="40" t="s">
+      <c r="J98" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="K98" s="34"/>
+      <c r="K98" s="32"/>
     </row>
     <row r="99" spans="1:11" ht="30" customHeight="1">
-      <c r="A99" s="30"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="34"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="32"/>
       <c r="I99" t="s">
         <v>281</v>
       </c>
-      <c r="J99" s="40" t="s">
+      <c r="J99" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="K99" s="34"/>
+      <c r="K99" s="32"/>
     </row>
     <row r="100" spans="1:11" ht="30" customHeight="1">
-      <c r="A100" s="30"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="34"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="32"/>
       <c r="I100" t="s">
         <v>283</v>
       </c>
-      <c r="J100" s="40" t="s">
+      <c r="J100" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="K100" s="34"/>
+      <c r="K100" s="32"/>
     </row>
     <row r="101" spans="1:11" ht="30" customHeight="1">
-      <c r="A101" s="30"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="34"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="32"/>
       <c r="I101" t="s">
         <v>285</v>
       </c>
-      <c r="J101" s="40" t="s">
+      <c r="J101" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="K101" s="34"/>
+      <c r="K101" s="32"/>
     </row>
     <row r="102" spans="1:11" ht="30" customHeight="1">
-      <c r="A102" s="30"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="34"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="32"/>
       <c r="I102" t="s">
         <v>287</v>
       </c>
-      <c r="J102" s="40" t="s">
+      <c r="J102" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="K102" s="34"/>
+      <c r="K102" s="32"/>
     </row>
     <row r="103" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A103" s="30"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="34"/>
+      <c r="A103" s="36"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="32"/>
       <c r="I103" t="s">
         <v>289</v>
       </c>
-      <c r="J103" s="40" t="s">
+      <c r="J103" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="K103" s="34"/>
+      <c r="K103" s="32"/>
     </row>
     <row r="104" spans="1:11" ht="30" customHeight="1">
-      <c r="A104" s="30"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="34"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="32"/>
       <c r="I104" t="s">
         <v>291</v>
       </c>
-      <c r="J104" s="40" t="s">
+      <c r="J104" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="K104" s="34"/>
+      <c r="K104" s="32"/>
     </row>
     <row r="105" spans="1:11" ht="30" customHeight="1">
-      <c r="A105" s="30"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="34"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="32"/>
       <c r="I105" t="s">
         <v>293</v>
       </c>
-      <c r="J105" s="40" t="s">
+      <c r="J105" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="K105" s="34"/>
+      <c r="K105" s="32"/>
     </row>
     <row r="106" spans="1:11" ht="30" customHeight="1">
-      <c r="A106" s="30"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="34"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="32"/>
       <c r="I106" t="s">
         <v>295</v>
       </c>
-      <c r="J106" s="40" t="s">
+      <c r="J106" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="K106" s="34"/>
+      <c r="K106" s="32"/>
     </row>
     <row r="107" spans="1:11" ht="30" customHeight="1">
-      <c r="A107" s="30"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="34"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="32"/>
       <c r="I107" t="s">
         <v>295</v>
       </c>
-      <c r="J107" s="40" t="s">
+      <c r="J107" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="K107" s="34"/>
+      <c r="K107" s="32"/>
     </row>
     <row r="108" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A108" s="31"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
       <c r="D108" s="2" t="s">
         <v>8</v>
       </c>
@@ -4047,10 +4093,10 @@
     </row>
     <row r="109" spans="1:11" s="3" customFormat="1" ht="25.8" customHeight="1">
       <c r="A109" s="2"/>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="33" t="s">
+      <c r="C109" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -4064,8 +4110,8 @@
     </row>
     <row r="110" spans="1:11" s="3" customFormat="1" ht="25.2" customHeight="1">
       <c r="A110" s="2"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="35"/>
       <c r="D110" s="2" t="s">
         <v>8</v>
       </c>
@@ -4077,8 +4123,8 @@
     </row>
     <row r="111" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A111" s="2"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
       <c r="D111" s="2" t="s">
         <v>8</v>
       </c>
@@ -4090,21 +4136,21 @@
     </row>
     <row r="112" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A112" s="2"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="26" t="s">
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F112" s="42" t="s">
+      <c r="F112" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G112" s="26" t="s">
+      <c r="G112" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="H112" s="27" t="s">
+      <c r="H112" s="31" t="s">
         <v>299</v>
       </c>
       <c r="I112" s="3" t="s">
@@ -4113,184 +4159,184 @@
       <c r="J112" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="K112" s="27">
+      <c r="K112" s="31">
         <v>4.5</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A113" s="2"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="42"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="27"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="31"/>
       <c r="I113" s="3" t="s">
         <v>302</v>
       </c>
       <c r="J113" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="K113" s="27"/>
+      <c r="K113" s="31"/>
     </row>
     <row r="114" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A114" s="2"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="42"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="27"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="31"/>
       <c r="I114" s="3" t="s">
         <v>304</v>
       </c>
       <c r="J114" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="K114" s="27"/>
+      <c r="K114" s="31"/>
     </row>
     <row r="115" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A115" s="2"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="42"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="27"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="31"/>
       <c r="I115" s="3" t="s">
         <v>306</v>
       </c>
       <c r="J115" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="K115" s="27"/>
+      <c r="K115" s="31"/>
     </row>
     <row r="116" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A116" s="2"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="27"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="31"/>
       <c r="I116" s="3" t="s">
         <v>308</v>
       </c>
       <c r="J116" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="K116" s="27"/>
+      <c r="K116" s="31"/>
     </row>
     <row r="117" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A117" s="2"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="42"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="27"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="31"/>
       <c r="I117" s="3" t="s">
         <v>310</v>
       </c>
       <c r="J117" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="K117" s="27"/>
+      <c r="K117" s="31"/>
     </row>
     <row r="118" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A118" s="2"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="27"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="31"/>
       <c r="I118" s="3" t="s">
         <v>312</v>
       </c>
       <c r="J118" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="K118" s="27"/>
+      <c r="K118" s="31"/>
     </row>
     <row r="119" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A119" s="2"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="42"/>
-      <c r="G119" s="26"/>
-      <c r="H119" s="27"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="31"/>
       <c r="I119" s="3" t="s">
         <v>314</v>
       </c>
       <c r="J119" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="K119" s="27"/>
+      <c r="K119" s="31"/>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A120" s="2"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="27"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="31"/>
       <c r="I120" s="3" t="s">
         <v>316</v>
       </c>
       <c r="J120" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="K120" s="27"/>
+      <c r="K120" s="31"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A121" s="2"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="42"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="27"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="31"/>
       <c r="I121" s="3" t="s">
         <v>318</v>
       </c>
       <c r="J121" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="K121" s="27"/>
+      <c r="K121" s="31"/>
     </row>
     <row r="122" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A122" s="2"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="26"/>
-      <c r="H122" s="27"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="31"/>
       <c r="I122" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J122" s="40" t="s">
+      <c r="J122" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="K122" s="27"/>
+      <c r="K122" s="31"/>
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" ht="26.4" customHeight="1">
       <c r="A123" s="2"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
       <c r="D123" s="2" t="s">
         <v>8</v>
       </c>
@@ -4304,8 +4350,8 @@
     </row>
     <row r="124" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A124" s="2"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
       <c r="D124" s="2" t="s">
         <v>8</v>
       </c>
@@ -4317,8 +4363,8 @@
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A125" s="2"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
       <c r="D125" s="2" t="s">
         <v>8</v>
       </c>
@@ -4330,8 +4376,8 @@
     </row>
     <row r="126" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A126" s="2"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
       <c r="D126" s="2" t="s">
         <v>8</v>
       </c>
@@ -4343,8 +4389,8 @@
     </row>
     <row r="127" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A127" s="2"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
       <c r="D127" s="2" t="s">
         <v>8</v>
       </c>
@@ -4355,23 +4401,23 @@
       <c r="G127" s="2"/>
     </row>
     <row r="128" spans="1:11" ht="18.75" customHeight="1">
-      <c r="B128" s="28" t="s">
+      <c r="B128" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C128" s="30" t="s">
+      <c r="C128" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D128" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="26" t="s">
+      <c r="D128" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26" t="s">
+      <c r="F128" s="30"/>
+      <c r="G128" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="H128" s="27" t="s">
+      <c r="H128" s="31" t="s">
         <v>246</v>
       </c>
       <c r="I128" t="s">
@@ -4380,186 +4426,186 @@
       <c r="J128" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="K128" s="34">
+      <c r="K128" s="32">
         <v>4.5</v>
       </c>
     </row>
     <row r="129" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B129" s="33"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="27"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="31"/>
       <c r="I129" t="s">
         <v>249</v>
       </c>
       <c r="J129" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="K129" s="34"/>
+      <c r="K129" s="32"/>
     </row>
     <row r="130" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B130" s="33"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="27"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="31"/>
       <c r="I130" t="s">
         <v>251</v>
       </c>
       <c r="J130" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="K130" s="34"/>
+      <c r="K130" s="32"/>
     </row>
     <row r="131" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B131" s="33"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="27"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="31"/>
       <c r="I131" t="s">
         <v>253</v>
       </c>
       <c r="J131" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="K131" s="34"/>
+      <c r="K131" s="32"/>
     </row>
     <row r="132" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B132" s="33"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="27"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="31"/>
       <c r="I132" t="s">
         <v>255</v>
       </c>
       <c r="J132" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="K132" s="34"/>
+      <c r="K132" s="32"/>
     </row>
     <row r="133" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B133" s="33"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="27"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="31"/>
       <c r="I133" t="s">
         <v>257</v>
       </c>
       <c r="J133" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="K133" s="34"/>
+      <c r="K133" s="32"/>
     </row>
     <row r="134" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B134" s="33"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="27"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="31"/>
       <c r="I134" t="s">
         <v>259</v>
       </c>
       <c r="J134" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="K134" s="34"/>
+      <c r="K134" s="32"/>
     </row>
     <row r="135" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B135" s="33"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="27"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="31"/>
       <c r="I135" t="s">
         <v>261</v>
       </c>
       <c r="J135" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="K135" s="34"/>
+      <c r="K135" s="32"/>
     </row>
     <row r="136" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B136" s="33"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="27"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="31"/>
       <c r="I136" t="s">
         <v>263</v>
       </c>
       <c r="J136" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="K136" s="34"/>
+      <c r="K136" s="32"/>
     </row>
     <row r="137" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B137" s="33"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="27"/>
+      <c r="B137" s="34"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="31"/>
       <c r="I137" t="s">
         <v>265</v>
       </c>
       <c r="J137" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="K137" s="34"/>
+      <c r="K137" s="32"/>
     </row>
     <row r="138" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B138" s="33"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="27"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="31"/>
       <c r="I138" t="s">
         <v>267</v>
       </c>
-      <c r="J138" s="40" t="s">
+      <c r="J138" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="K138" s="34"/>
+      <c r="K138" s="32"/>
     </row>
     <row r="139" spans="2:11" ht="31.8" customHeight="1">
-      <c r="B139" s="29"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="26" t="s">
+      <c r="B139" s="35"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F139" s="26" t="s">
+      <c r="F139" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G139" s="26" t="s">
+      <c r="G139" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="H139" s="27" t="s">
+      <c r="H139" s="31" t="s">
         <v>177</v>
       </c>
       <c r="I139" t="s">
@@ -4568,61 +4614,61 @@
       <c r="J139" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="K139" s="34">
+      <c r="K139" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="2:11" ht="31.8" customHeight="1">
-      <c r="B140" s="29"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="27"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="31"/>
       <c r="I140" s="22" t="s">
         <v>180</v>
       </c>
       <c r="J140" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="K140" s="34"/>
+      <c r="K140" s="32"/>
     </row>
     <row r="141" spans="2:11" ht="31.8" customHeight="1">
-      <c r="B141" s="29"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="27"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="31"/>
       <c r="I141" t="s">
         <v>182</v>
       </c>
       <c r="J141" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="K141" s="34"/>
+      <c r="K141" s="32"/>
     </row>
     <row r="142" spans="2:11" ht="31.8" customHeight="1">
-      <c r="B142" s="29"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="27"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="31"/>
       <c r="I142" t="s">
         <v>184</v>
       </c>
       <c r="J142" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="K142" s="34"/>
+      <c r="K142" s="32"/>
     </row>
     <row r="143" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B143" s="29"/>
-      <c r="C143" s="31"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="37"/>
       <c r="D143" s="2" t="s">
         <v>8</v>
       </c>
@@ -4634,37 +4680,59 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="G128:G138"/>
-    <mergeCell ref="H128:H138"/>
-    <mergeCell ref="K128:K138"/>
-    <mergeCell ref="D139:D142"/>
-    <mergeCell ref="E139:E142"/>
-    <mergeCell ref="F139:F142"/>
-    <mergeCell ref="G139:G142"/>
-    <mergeCell ref="H139:H142"/>
-    <mergeCell ref="K139:K142"/>
-    <mergeCell ref="B128:B143"/>
-    <mergeCell ref="C128:C143"/>
-    <mergeCell ref="D128:D138"/>
-    <mergeCell ref="E128:E138"/>
-    <mergeCell ref="F128:F138"/>
-    <mergeCell ref="F94:F107"/>
-    <mergeCell ref="G94:G107"/>
-    <mergeCell ref="H94:H107"/>
-    <mergeCell ref="K94:K107"/>
-    <mergeCell ref="B109:B127"/>
-    <mergeCell ref="C109:C127"/>
-    <mergeCell ref="D112:D122"/>
-    <mergeCell ref="E112:E122"/>
-    <mergeCell ref="F112:F122"/>
-    <mergeCell ref="G112:G122"/>
-    <mergeCell ref="H112:H122"/>
-    <mergeCell ref="K112:K122"/>
-    <mergeCell ref="A94:A108"/>
-    <mergeCell ref="B94:B108"/>
-    <mergeCell ref="C94:C108"/>
-    <mergeCell ref="D94:D107"/>
-    <mergeCell ref="E94:E107"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F46:F56"/>
+    <mergeCell ref="G46:G56"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="C2:C22"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="D9:D18"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="F9:F18"/>
+    <mergeCell ref="G9:G18"/>
+    <mergeCell ref="H9:H18"/>
+    <mergeCell ref="K9:K18"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="A23:A65"/>
+    <mergeCell ref="B23:B65"/>
+    <mergeCell ref="C23:C65"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="G38:G45"/>
+    <mergeCell ref="H38:H45"/>
+    <mergeCell ref="D46:D56"/>
+    <mergeCell ref="E46:E56"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="E28:E37"/>
+    <mergeCell ref="F28:F37"/>
+    <mergeCell ref="G28:G37"/>
+    <mergeCell ref="H28:H37"/>
+    <mergeCell ref="K28:K37"/>
+    <mergeCell ref="D66:D75"/>
+    <mergeCell ref="E66:E75"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="H46:H56"/>
     <mergeCell ref="F66:F75"/>
     <mergeCell ref="G66:G75"/>
     <mergeCell ref="H66:H75"/>
@@ -4681,98 +4749,76 @@
     <mergeCell ref="A66:A78"/>
     <mergeCell ref="B66:B78"/>
     <mergeCell ref="C66:C78"/>
-    <mergeCell ref="D66:D75"/>
-    <mergeCell ref="E66:E75"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="E28:E37"/>
-    <mergeCell ref="F28:F37"/>
-    <mergeCell ref="G28:G37"/>
-    <mergeCell ref="H28:H37"/>
-    <mergeCell ref="K28:K37"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="A23:A65"/>
-    <mergeCell ref="B23:B65"/>
-    <mergeCell ref="C23:C65"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="G38:G45"/>
-    <mergeCell ref="H38:H45"/>
-    <mergeCell ref="D46:D56"/>
-    <mergeCell ref="E46:E56"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B2:B22"/>
-    <mergeCell ref="C2:C22"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="D9:D18"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="F9:F18"/>
-    <mergeCell ref="G9:G18"/>
-    <mergeCell ref="H9:H18"/>
-    <mergeCell ref="K9:K18"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="F46:F56"/>
-    <mergeCell ref="G46:G56"/>
-    <mergeCell ref="H46:H56"/>
+    <mergeCell ref="A94:A108"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="D94:D107"/>
+    <mergeCell ref="E94:E107"/>
+    <mergeCell ref="F94:F107"/>
+    <mergeCell ref="G94:G107"/>
+    <mergeCell ref="H94:H107"/>
+    <mergeCell ref="K94:K107"/>
+    <mergeCell ref="B109:B127"/>
+    <mergeCell ref="C109:C127"/>
+    <mergeCell ref="D112:D122"/>
+    <mergeCell ref="E112:E122"/>
+    <mergeCell ref="F112:F122"/>
+    <mergeCell ref="G112:G122"/>
+    <mergeCell ref="H112:H122"/>
+    <mergeCell ref="K112:K122"/>
+    <mergeCell ref="B128:B143"/>
+    <mergeCell ref="C128:C143"/>
+    <mergeCell ref="D128:D138"/>
+    <mergeCell ref="E128:E138"/>
+    <mergeCell ref="F128:F138"/>
+    <mergeCell ref="G128:G138"/>
+    <mergeCell ref="H128:H138"/>
+    <mergeCell ref="K128:K138"/>
+    <mergeCell ref="D139:D142"/>
+    <mergeCell ref="E139:E142"/>
+    <mergeCell ref="F139:F142"/>
+    <mergeCell ref="G139:G142"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="K139:K142"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{1A5D5093-B9EF-4F16-BCA6-8793E8688269}"/>
-    <hyperlink ref="F112" r:id="rId2" xr:uid="{0A50A908-DC5E-4569-B705-31A392905163}"/>
-    <hyperlink ref="F78" r:id="rId3" xr:uid="{FA63CF2B-B0F3-47B6-88A1-A514FC7E1F84}"/>
-    <hyperlink ref="I2" r:id="rId4" xr:uid="{BA20200A-83C5-4EBB-AAEC-41CB170B100D}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{36DD197D-12D9-4C8D-8DFA-5A22C67B8047}"/>
-    <hyperlink ref="I20" r:id="rId6" xr:uid="{B7335A11-F8EB-4095-B8CF-B226136DBB46}"/>
-    <hyperlink ref="I22" r:id="rId7" xr:uid="{25A024E7-718D-4CB4-8D09-777675593D76}"/>
-    <hyperlink ref="I58" r:id="rId8" xr:uid="{4A3D6D2C-9594-4E63-A026-A3159C1D00C0}"/>
-    <hyperlink ref="I140" r:id="rId9" xr:uid="{CE31AA04-7C73-4923-8A8E-74DB446DED44}"/>
-    <hyperlink ref="I39" r:id="rId10" xr:uid="{76282930-42AF-4ABE-8CC9-C98F9D9BBDB3}"/>
-    <hyperlink ref="I9" r:id="rId11" xr:uid="{FFC7EE4A-5558-4B8B-BCAE-28B370A9D977}"/>
-    <hyperlink ref="I10" r:id="rId12" xr:uid="{1CB72247-480A-4E66-87E4-188D3886C3AF}"/>
-    <hyperlink ref="I11" r:id="rId13" xr:uid="{46C3810D-8D83-45BC-B828-3EDDB2EB6993}"/>
-    <hyperlink ref="I12" r:id="rId14" xr:uid="{F802EE0C-ABA7-4AA7-B9BC-9876FD716F22}"/>
-    <hyperlink ref="I13" r:id="rId15" xr:uid="{CF0AFA3D-2BC5-45EA-A86E-2A4A6A92A5D5}"/>
-    <hyperlink ref="I14" r:id="rId16" xr:uid="{B9F944CA-0F15-4E30-B4FD-FF90A0F87157}"/>
-    <hyperlink ref="I15" r:id="rId17" xr:uid="{6091D1F3-FC82-4834-B542-2DE0747BF08F}"/>
-    <hyperlink ref="I16" r:id="rId18" xr:uid="{13FB6019-7C42-4463-B2B9-E583040D72DC}"/>
-    <hyperlink ref="I18" r:id="rId19" xr:uid="{DFE84ACA-6E94-4B4E-8199-7DFFEE501850}"/>
-    <hyperlink ref="I37" r:id="rId20" xr:uid="{9B2CFFD1-7295-40FA-BC54-997A4ED0C29F}"/>
-    <hyperlink ref="I17" r:id="rId21" xr:uid="{2129A678-E6B7-483C-843A-0980AB53B8AA}"/>
-    <hyperlink ref="I74" r:id="rId22" xr:uid="{59224F3D-AF19-4F14-A1C0-039733B72AEF}"/>
-    <hyperlink ref="I36" r:id="rId23" xr:uid="{6B6C6AF9-C3B6-4FDE-97D8-701D92E88207}"/>
-    <hyperlink ref="I35" r:id="rId24" xr:uid="{B10D3E38-0191-4BC3-BC68-2E7FF38F297A}"/>
-    <hyperlink ref="I73" r:id="rId25" xr:uid="{56681F21-8BA1-465B-8922-722B714E6878}"/>
-    <hyperlink ref="I34" r:id="rId26" xr:uid="{921DA933-3D4A-4F3D-96AC-CDB836947276}"/>
-    <hyperlink ref="I72" r:id="rId27" xr:uid="{E16057E9-E21C-497A-AE90-8D13AF371B41}"/>
-    <hyperlink ref="I33" r:id="rId28" xr:uid="{AB694F87-D57B-43CE-AB6E-8BB92C43F4EE}"/>
-    <hyperlink ref="I71" r:id="rId29" xr:uid="{C1A0405C-3A24-4D67-8D53-DCC986838F30}"/>
-    <hyperlink ref="I32" r:id="rId30" xr:uid="{80A69E4B-170B-48C6-8A79-C290E45B9DAF}"/>
-    <hyperlink ref="I70" r:id="rId31" xr:uid="{93AFB8B8-1FEE-430E-80F1-C802F8F58E72}"/>
-    <hyperlink ref="I31" r:id="rId32" xr:uid="{36AD2610-880D-41DD-80BA-9D1A9EBB5B4E}"/>
-    <hyperlink ref="I30" r:id="rId33" xr:uid="{2485814F-5476-4804-B53E-AC042D525AC5}"/>
-    <hyperlink ref="I68" r:id="rId34" xr:uid="{234AAFC3-E8F6-4C88-B70E-1CB7D85C4BBB}"/>
-    <hyperlink ref="I29" r:id="rId35" xr:uid="{3BC4DA9C-3F8D-4D2F-A41C-94BF06B56452}"/>
-    <hyperlink ref="I28" r:id="rId36" xr:uid="{F0BBC377-D614-428C-8ECB-8F79FBBFD43F}"/>
-    <hyperlink ref="I80" r:id="rId37" xr:uid="{81C9A426-DCAA-4F88-971A-24B11E8CD733}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{AD28E7CA-08AA-45A0-81BB-EF7569DEED77}"/>
+    <hyperlink ref="F112" r:id="rId2" xr:uid="{069CAC29-B8DE-41FB-B69B-F00119732CFD}"/>
+    <hyperlink ref="F78" r:id="rId3" xr:uid="{93389A9A-1308-4B8B-AD3E-74F9D411DB0B}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{ECF62F22-21C0-4484-A10E-549582A2F52D}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{FFC0F51A-74A9-4706-ADE7-F85269D4644C}"/>
+    <hyperlink ref="I20" r:id="rId6" xr:uid="{0F551099-854C-42EE-A71F-083B83F77F76}"/>
+    <hyperlink ref="I22" r:id="rId7" xr:uid="{BC42FE10-E3CB-4816-9716-418DF8719917}"/>
+    <hyperlink ref="I58" r:id="rId8" xr:uid="{03711F68-D04D-4B72-B9B9-BBFF53574906}"/>
+    <hyperlink ref="I140" r:id="rId9" xr:uid="{48076C4E-4E93-4FA9-A960-A186D793699A}"/>
+    <hyperlink ref="I39" r:id="rId10" xr:uid="{B64F8B49-5023-4C9C-A2D3-A5705F971654}"/>
+    <hyperlink ref="I9" r:id="rId11" xr:uid="{A859E564-1203-461D-8EE9-BB12D01596A8}"/>
+    <hyperlink ref="I10" r:id="rId12" xr:uid="{CF4939FD-7BE5-4B88-8A83-808E72CE598D}"/>
+    <hyperlink ref="I11" r:id="rId13" xr:uid="{BEB52B72-F5F4-467D-890E-86140EDA21F6}"/>
+    <hyperlink ref="I12" r:id="rId14" xr:uid="{91646F42-1567-4C8E-8432-277188D95070}"/>
+    <hyperlink ref="I13" r:id="rId15" xr:uid="{4D34C7F3-53B9-45E8-9881-C81483ECBEFC}"/>
+    <hyperlink ref="I14" r:id="rId16" xr:uid="{5DACA730-E6BA-449B-9CD5-2047E1B0D53B}"/>
+    <hyperlink ref="I15" r:id="rId17" xr:uid="{1C54BA18-905B-4364-BF40-B98F1BF6BFA2}"/>
+    <hyperlink ref="I16" r:id="rId18" xr:uid="{F5AF1881-57BC-4ECC-9D1D-53DF35F43617}"/>
+    <hyperlink ref="I18" r:id="rId19" xr:uid="{62529F9B-EBEC-4401-86C1-4DD100AEC511}"/>
+    <hyperlink ref="I37" r:id="rId20" xr:uid="{9A652979-5348-45D6-BB30-C9FD669FF594}"/>
+    <hyperlink ref="I17" r:id="rId21" xr:uid="{1EF27D59-FAF7-4D86-8122-83A77906ADD8}"/>
+    <hyperlink ref="I74" r:id="rId22" xr:uid="{5D435F2C-F697-4686-ADAB-E9FC95894EF5}"/>
+    <hyperlink ref="I36" r:id="rId23" xr:uid="{698FCE04-0BA6-4D61-B7E3-97AAD7A28E67}"/>
+    <hyperlink ref="I35" r:id="rId24" xr:uid="{E75A4047-A129-4782-95EB-BCF09EA48C98}"/>
+    <hyperlink ref="I73" r:id="rId25" xr:uid="{D746D9AF-8E2E-4B89-BA53-B3342CFC55AA}"/>
+    <hyperlink ref="I34" r:id="rId26" xr:uid="{B8CFAD50-D6D2-4C82-BD47-D626FD08345A}"/>
+    <hyperlink ref="I72" r:id="rId27" xr:uid="{E644A223-89D5-463F-A6EE-7FB8DADEADAF}"/>
+    <hyperlink ref="I33" r:id="rId28" xr:uid="{AD848414-83E8-4EC8-81AD-7E7BF6F2F24A}"/>
+    <hyperlink ref="I71" r:id="rId29" xr:uid="{9F4655EA-B1CF-47DB-B905-2C903700EFEA}"/>
+    <hyperlink ref="I32" r:id="rId30" xr:uid="{6ABDA066-2F1B-4B2D-B30E-6EB62354C620}"/>
+    <hyperlink ref="I70" r:id="rId31" xr:uid="{4CCDAD47-D394-4157-ABFF-5E19F3A0CCCE}"/>
+    <hyperlink ref="I31" r:id="rId32" xr:uid="{DF690E37-F4B9-4D17-8B2A-F2CD3B2C192B}"/>
+    <hyperlink ref="I30" r:id="rId33" xr:uid="{273565DE-0F61-4820-8D69-98B12DF030F4}"/>
+    <hyperlink ref="I68" r:id="rId34" xr:uid="{DE9CC38B-CD9F-43CA-9942-90F27EB4EEAB}"/>
+    <hyperlink ref="I29" r:id="rId35" xr:uid="{099331CA-D1F2-4078-A56B-A11B0B4A6213}"/>
+    <hyperlink ref="I28" r:id="rId36" xr:uid="{FAFC6F4D-9BC5-4171-882B-99EED8FD0122}"/>
+    <hyperlink ref="I80" r:id="rId37" xr:uid="{9877C55A-D6CB-454F-940C-7609717A1CD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId38"/>
@@ -4783,7 +4829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29B74B4-BE24-421E-BD89-5193633DD653}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -4820,10 +4866,10 @@
       <c r="B2" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="24" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4856,7 +4902,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>205</v>
       </c>
       <c r="B5" t="s">
@@ -4873,7 +4919,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.4" customHeight="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>210</v>
       </c>
@@ -4888,7 +4934,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="25.8" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
       <c r="B7" t="s">
         <v>214</v>
       </c>

--- a/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
+++ b/wiseProductCatalog/static/required_documents/wiseProductCatalogContentSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\AutomationProductCatalogue\wiseProductCatalog\static\required_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D51A18E-4773-4638-8D67-7BC18D92ACD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F46F0-5611-494D-916A-09204F879C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="329">
   <si>
     <t>VariableName</t>
   </si>
@@ -294,13 +294,7 @@
     <t>wiseFooterPhoneNumber</t>
   </si>
   <si>
-    <t>XXXXX XXXXX</t>
-  </si>
-  <si>
     <t>wiseFooterGmail</t>
-  </si>
-  <si>
-    <t>example@gmail.com</t>
   </si>
   <si>
     <t>wiseFooterClock</t>
@@ -632,9 +626,6 @@
     <t>Wise Tech Source</t>
   </si>
   <si>
-    <t>https://bootstrapmade.com/demo/templates/NewBiz/assets/img/about-img.svg</t>
-  </si>
-  <si>
     <t>WiseTech Source Pvt Ltd. A venture of Wise Group of Companies, is a technology firm located in Chennai, India, providing automated software solutions and services using Artificial Intelligence (AI) technologies to the healthcare industry to enhance their productivity &amp; revenue. We have a team of highly experienced RCM domain experts who are specialized in Artificial Intelligence (AI) technology. We are expanding our business team to provide process automation &amp; intelligent software solutions to our end customers.</t>
   </si>
   <si>
@@ -644,9 +635,6 @@
     <t>Key Strengths</t>
   </si>
   <si>
-    <t>https://bootstrapmade.com/demo/templates/NewBiz/assets/img/about-extra-1.svg</t>
-  </si>
-  <si>
     <t>100+ Projects for US Healthcare Companies.Product Support for 2 billion dollar company.A big player in automation solutions with strong compliance adherence.Artificial Intelligence(AI) based Automation Solutions to US Healthcare Market.Research &amp; Development on new-age technologies and embedding to our solutions.With 50+ man-years of experience on Healthcare Domain in both Provider(RCM) and Payor(Insurance).</t>
   </si>
   <si>
@@ -654,12 +642,6 @@
   </si>
   <si>
     <t>Our Skills</t>
-  </si>
-  <si>
-    <t>https://bootstrapmade.com/demo/templates/NewBiz/assets/img/about-extra-2.svg</t>
-  </si>
-  <si>
-    <t>We are specialized in providing Offshore Development Services for companies who require technical solutions in Automation, Artificial Intelligence and Robotic Process Automation development. We fulfil technology requirements with our best-in-class enhancement platform and our expert Software Developers. We are the Authorized Automation Solution Provider, Distributor &amp; Trading Partner of “Automation Anywhere Inc. (AAI)” and provide RPA solutions to the IT Industries and to our clients in US &amp; India.Our Centre of Excellence (COE) team provide extensive automation solutions to enhance the productivity, efficiency and competitive advantages of enterprises by collaborating with “Automation Anywhere Inc. (AAI)” and using powerful techniques like Cybersecurity, Artificial Intelligence, Machine Learning etc.</t>
   </si>
   <si>
     <t>WiseTeam</t>
@@ -1122,6 +1104,27 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>product_screenshots_image</t>
+  </si>
+  <si>
+    <t>product_videos</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xJ7jC6WZcg9tStfwwdadvx8XbTi_gl0h/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19U1TwbqdLG6ZTWLUaDi4VXs0luot2zIE/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y0ARpe0XKxgZtYKCRlvHIeaRPPR4Iiol/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hWWDJYgS7Y8NnzctiX4EyHxUFUXKHhQv/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>We are specialized in providing Offshore Development Services for companies who require technical solutions in Automation, Artificial Intelligence and Robotic Process Automation development. We fulfil technology requirements with our best-in-class enhancement platform and our expert Software Developers. We are the Authorized Automation Solution Provider, Distributor &amp; Trading Partner of “Automation Anywhere Inc (AAI)” and provide RPA solutions to the IT Industries and to our clients in US &amp; India.Our Centre of Excellence (COE) team provide extensive automation solutions to enhance the productivity, efficiency and competitive advantages of enterprises by collaborating with “Automation Anywhere Inc (AAI)” and using powerful techniques like Cybersecurity, Artificial Intelligence, Machine Learning etc.</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1332,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,6 +1351,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1361,20 +1366,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1382,23 +1393,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1708,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1735,7 +1740,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>50</v>
@@ -1743,10 +1748,10 @@
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>50</v>
@@ -1856,7 +1861,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>
@@ -1911,7 +1916,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="7"/>
     </row>
@@ -1952,8 +1957,8 @@
       <c r="A22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>88</v>
+      <c r="B22" s="2">
+        <v>6382518155</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>8</v>
@@ -1961,10 +1966,10 @@
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>317</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>8</v>
@@ -1972,10 +1977,10 @@
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>8</v>
@@ -1983,10 +1988,10 @@
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>8</v>
@@ -1994,10 +1999,10 @@
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>8</v>
@@ -2005,10 +2010,10 @@
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
@@ -2016,10 +2021,10 @@
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
@@ -2027,10 +2032,10 @@
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
@@ -2038,7 +2043,7 @@
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>52</v>
@@ -2076,26 +2081,26 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>323</v>
+        <v>316</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2103,13 +2108,15 @@
     <mergeCell ref="A30:A33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C33EF254-9557-40C9-A5EE-6BEF10B21A26}"/>
-    <hyperlink ref="B18" r:id="rId2" xr:uid="{E25653A9-5CE9-45AB-B7CF-1E185AF7DE2A}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{2E9C48A7-57CC-4FD0-8BC4-BEA8F1E96E55}"/>
-    <hyperlink ref="B34" r:id="rId4" xr:uid="{F63D37EE-3DE0-4602-A3EA-28691BED86A4}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8535A117-AB0C-4671-983E-D60E7A20C7C6}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{EC569D79-C7B8-4792-8104-DB09F06891D2}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{171D59DE-FBA3-4C68-87C1-4E1735762874}"/>
+    <hyperlink ref="B34" r:id="rId4" xr:uid="{60622794-A73F-4603-81B1-07C3C7AE7D25}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{AC276054-329D-48B1-99A1-22A662CB027B}"/>
+    <hyperlink ref="B29" r:id="rId6" xr:uid="{583AF9CE-EADC-47C3-917E-338554D7EC34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2118,10 +2125,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E18"/>
+      <selection sqref="A1:M143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2139,7 +2146,7 @@
     <col min="11" max="11" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2156,32 +2163,38 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="L1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="35" t="s">
@@ -2191,120 +2204,138 @@
         <v>9</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>133</v>
+        <v>107</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="31">
+        <v>132</v>
+      </c>
+      <c r="K2" s="34">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="L2" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="35"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="19" t="s">
-        <v>135</v>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+        <v>134</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="35"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="18" t="s">
-        <v>137</v>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+        <v>136</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="35"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="18" t="s">
-        <v>139</v>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
+        <v>138</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="35"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="35"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="35"/>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="30" t="s">
         <v>8</v>
       </c>
@@ -2312,181 +2343,193 @@
         <v>10</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="K9" s="31">
+        <v>212</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="34">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="L9" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2494,14 +2537,14 @@
         <v>11</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="30" t="s">
         <v>8</v>
       </c>
@@ -2509,64 +2552,71 @@
         <v>12</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="J20" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="34">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="L20" s="43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+        <v>145</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="36" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A23" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="30" t="s">
@@ -2577,93 +2627,98 @@
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" t="s">
-        <v>240</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="K23" s="32">
+      <c r="K23" s="41">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="36"/>
+      <c r="L23" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A24" s="38"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+      <c r="H24" s="34"/>
       <c r="I24" t="s">
-        <v>241</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="32"/>
-    </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="36"/>
+        <v>235</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="41"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
+      <c r="H25" s="34"/>
       <c r="I25" t="s">
-        <v>242</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K25" s="32"/>
-    </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="36"/>
+        <v>236</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="41"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A26" s="38"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="H26" s="34"/>
       <c r="I26" t="s">
-        <v>243</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="K26" s="32"/>
-    </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="36"/>
+        <v>237</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A27" s="38"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="H27" s="34"/>
       <c r="I27" t="s">
-        <v>244</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="K27" s="32"/>
-    </row>
-    <row r="28" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A28" s="37"/>
+        <v>238</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="1:12" ht="27.6" customHeight="1">
+      <c r="A28" s="39"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="30" t="s">
         <v>8</v>
       </c>
@@ -2671,320 +2726,323 @@
         <v>10</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="K28" s="32">
+        <v>212</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" s="41">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A29" s="37"/>
+      <c r="L28" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="27.6" customHeight="1">
+      <c r="A29" s="39"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="37"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="K29" s="32"/>
-    </row>
-    <row r="30" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A30" s="37"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="1:12" ht="27.6" customHeight="1">
+      <c r="A30" s="39"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="37"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="K30" s="32"/>
-    </row>
-    <row r="31" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A31" s="37"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" s="41"/>
+    </row>
+    <row r="31" spans="1:12" ht="27.6" customHeight="1">
+      <c r="A31" s="39"/>
       <c r="B31" s="30"/>
-      <c r="C31" s="37"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="K31" s="32"/>
-    </row>
-    <row r="32" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A32" s="37"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="41"/>
+    </row>
+    <row r="32" spans="1:12" ht="27.6" customHeight="1">
+      <c r="A32" s="39"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="K32" s="32"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A33" s="37"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="37"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" s="32"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="K33" s="41"/>
     </row>
     <row r="34" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A34" s="37"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="30"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="K34" s="32"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A35" s="37"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="37"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="K35" s="32"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="K35" s="41"/>
     </row>
     <row r="36" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A36" s="37"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="K36" s="32"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A37" s="37"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="37"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="K37" s="32"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A38" s="37"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="30"/>
-      <c r="C38" s="37"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="30" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" t="s">
         <v>158</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="J38" s="20" t="s">
         <v>159</v>
-      </c>
-      <c r="I38" t="s">
-        <v>160</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="K38">
         <v>4.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A39" s="37"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="30"/>
-      <c r="C39" s="37"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>163</v>
+      <c r="H39" s="34"/>
+      <c r="I39" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A40" s="37"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="30"/>
-      <c r="C40" s="37"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
+      <c r="H40" s="34"/>
       <c r="I40" t="s">
-        <v>164</v>
-      </c>
-      <c r="J40" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A41" s="37"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="30"/>
-      <c r="C41" s="37"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
-      <c r="H41" s="31"/>
+      <c r="H41" s="34"/>
       <c r="I41" t="s">
-        <v>166</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A42" s="37"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="30"/>
-      <c r="C42" s="37"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
-      <c r="H42" s="31"/>
+      <c r="H42" s="34"/>
       <c r="I42" t="s">
-        <v>168</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A43" s="37"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="30"/>
-      <c r="C43" s="37"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
+      <c r="H43" s="34"/>
       <c r="I43" t="s">
-        <v>170</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A44" s="37"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="30"/>
-      <c r="C44" s="37"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
-      <c r="H44" s="31"/>
+      <c r="H44" s="34"/>
       <c r="I44" t="s">
-        <v>172</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A45" s="37"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="30"/>
-      <c r="C45" s="37"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
+      <c r="H45" s="34"/>
       <c r="I45" t="s">
-        <v>174</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A46" s="37"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="30"/>
-      <c r="C46" s="37"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="30" t="s">
         <v>8</v>
       </c>
@@ -2993,195 +3051,195 @@
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="H46" s="31" t="s">
-        <v>246</v>
+        <v>239</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>240</v>
       </c>
       <c r="I46" t="s">
-        <v>247</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="K46" s="32">
+        <v>241</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K46" s="41">
         <v>4.5</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A47" s="37"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="37"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
-      <c r="H47" s="31"/>
+      <c r="H47" s="34"/>
       <c r="I47" t="s">
-        <v>249</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="K47" s="32"/>
+        <v>243</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="K47" s="41"/>
     </row>
     <row r="48" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A48" s="37"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="37"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
+      <c r="H48" s="34"/>
       <c r="I48" t="s">
-        <v>251</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="K48" s="32"/>
+        <v>245</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="K48" s="41"/>
     </row>
     <row r="49" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A49" s="37"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="37"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
       <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
+      <c r="H49" s="34"/>
       <c r="I49" t="s">
-        <v>253</v>
-      </c>
-      <c r="J49" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="K49" s="32"/>
+        <v>247</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="K49" s="41"/>
     </row>
     <row r="50" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A50" s="37"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="30"/>
-      <c r="C50" s="37"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
-      <c r="H50" s="31"/>
+      <c r="H50" s="34"/>
       <c r="I50" t="s">
-        <v>255</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="K50" s="32"/>
+        <v>249</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="K50" s="41"/>
     </row>
     <row r="51" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A51" s="37"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="37"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
+      <c r="H51" s="34"/>
       <c r="I51" t="s">
-        <v>257</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="K51" s="32"/>
+        <v>251</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="K51" s="41"/>
     </row>
     <row r="52" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A52" s="37"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="37"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="30"/>
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
+      <c r="H52" s="34"/>
       <c r="I52" t="s">
-        <v>259</v>
-      </c>
-      <c r="J52" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="K52" s="32"/>
+        <v>253</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="K52" s="41"/>
     </row>
     <row r="53" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A53" s="37"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="30"/>
-      <c r="C53" s="37"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
-      <c r="H53" s="31"/>
+      <c r="H53" s="34"/>
       <c r="I53" t="s">
-        <v>261</v>
-      </c>
-      <c r="J53" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="K53" s="32"/>
+        <v>255</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="K53" s="41"/>
     </row>
     <row r="54" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A54" s="37"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="30"/>
-      <c r="C54" s="37"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
+      <c r="H54" s="34"/>
       <c r="I54" t="s">
-        <v>263</v>
-      </c>
-      <c r="J54" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="K54" s="32"/>
+        <v>257</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="K54" s="41"/>
     </row>
     <row r="55" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A55" s="37"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="37"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
-      <c r="H55" s="31"/>
+      <c r="H55" s="34"/>
       <c r="I55" t="s">
-        <v>265</v>
-      </c>
-      <c r="J55" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="K55" s="32"/>
+        <v>259</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="K55" s="41"/>
     </row>
     <row r="56" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A56" s="37"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="37"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
       <c r="G56" s="30"/>
-      <c r="H56" s="31"/>
+      <c r="H56" s="34"/>
       <c r="I56" t="s">
-        <v>267</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="K56" s="32"/>
+        <v>261</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="K56" s="41"/>
     </row>
     <row r="57" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A57" s="37"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="30"/>
-      <c r="C57" s="37"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="30" t="s">
         <v>8</v>
       </c>
@@ -3189,76 +3247,76 @@
         <v>18</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G57" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="I57" t="s">
         <v>176</v>
       </c>
-      <c r="H57" s="31" t="s">
+      <c r="J57" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="I57" t="s">
-        <v>178</v>
-      </c>
-      <c r="J57" s="21" t="s">
-        <v>179</v>
       </c>
       <c r="K57">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A58" s="37"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="30"/>
-      <c r="C58" s="37"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="21" t="s">
-        <v>181</v>
+      <c r="H58" s="34"/>
+      <c r="I58" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J58" s="20" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A59" s="37"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="30"/>
-      <c r="C59" s="37"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
-      <c r="H59" s="31"/>
+      <c r="H59" s="34"/>
       <c r="I59" t="s">
-        <v>182</v>
-      </c>
-      <c r="J59" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="31.2" customHeight="1">
-      <c r="A60" s="37"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="30"/>
-      <c r="C60" s="37"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
       <c r="G60" s="30"/>
-      <c r="H60" s="31"/>
+      <c r="H60" s="34"/>
       <c r="I60" t="s">
-        <v>184</v>
-      </c>
-      <c r="J60" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A61" s="37"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="30"/>
-      <c r="C61" s="37"/>
+      <c r="C61" s="39"/>
       <c r="D61" s="2" t="s">
         <v>8</v>
       </c>
@@ -3269,22 +3327,22 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A62" s="37"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="30"/>
-      <c r="C62" s="37"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="34.799999999999997" customHeight="1">
-      <c r="A63" s="37"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="30"/>
-      <c r="C63" s="37"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
@@ -3292,14 +3350,14 @@
         <v>20</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A64" s="37"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="30"/>
-      <c r="C64" s="37"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
@@ -3309,10 +3367,10 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
+    <row r="65" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="2" t="s">
         <v>8</v>
       </c>
@@ -3322,14 +3380,14 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A66" s="36" t="s">
+    <row r="66" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A66" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="30" t="s">
@@ -3339,181 +3397,181 @@
         <v>10</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="H66" s="31" t="s">
-        <v>219</v>
+        <v>212</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="I66" t="s">
-        <v>220</v>
-      </c>
-      <c r="J66" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="K66" s="32">
+        <v>214</v>
+      </c>
+      <c r="J66" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K66" s="41">
         <v>4.5</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A67" s="36"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="36"/>
+    <row r="67" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A67" s="38"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="30"/>
       <c r="E67" s="30"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="31"/>
+      <c r="H67" s="34"/>
       <c r="I67" t="s">
-        <v>222</v>
-      </c>
-      <c r="J67" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="K67" s="32"/>
-    </row>
-    <row r="68" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A68" s="36"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="36"/>
+        <v>216</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="K67" s="41"/>
+    </row>
+    <row r="68" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A68" s="38"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
       <c r="F68" s="30"/>
       <c r="G68" s="30"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="J68" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="K68" s="32"/>
-    </row>
-    <row r="69" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A69" s="36"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="36"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="J68" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="K68" s="41"/>
+    </row>
+    <row r="69" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A69" s="38"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="30"/>
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="31"/>
+      <c r="H69" s="34"/>
       <c r="I69" t="s">
-        <v>226</v>
-      </c>
-      <c r="J69" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="K69" s="32"/>
-    </row>
-    <row r="70" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A70" s="36"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="36"/>
+        <v>220</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="K69" s="41"/>
+    </row>
+    <row r="70" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A70" s="38"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="38"/>
       <c r="D70" s="30"/>
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
       <c r="G70" s="30"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="J70" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="K70" s="32"/>
-    </row>
-    <row r="71" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A71" s="36"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="36"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="K70" s="41"/>
+    </row>
+    <row r="71" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A71" s="38"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="30"/>
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
       <c r="G71" s="30"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="J71" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="K71" s="32"/>
-    </row>
-    <row r="72" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A72" s="36"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="36"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="J71" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="K71" s="41"/>
+    </row>
+    <row r="72" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A72" s="38"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="30"/>
       <c r="E72" s="30"/>
       <c r="F72" s="30"/>
       <c r="G72" s="30"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="J72" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="K72" s="32"/>
-    </row>
-    <row r="73" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A73" s="36"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="36"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K72" s="41"/>
+    </row>
+    <row r="73" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A73" s="38"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="30"/>
       <c r="E73" s="30"/>
       <c r="F73" s="30"/>
       <c r="G73" s="30"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="J73" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="K73" s="32"/>
-    </row>
-    <row r="74" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A74" s="36"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="36"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="J73" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="K73" s="41"/>
+    </row>
+    <row r="74" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A74" s="38"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="38"/>
       <c r="D74" s="30"/>
       <c r="E74" s="30"/>
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="J74" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="K74" s="32"/>
-    </row>
-    <row r="75" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A75" s="36"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="36"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="J74" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="K74" s="41"/>
+    </row>
+    <row r="75" spans="1:12" ht="30.6" customHeight="1">
+      <c r="A75" s="38"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="30"/>
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
       <c r="G75" s="30"/>
-      <c r="H75" s="31"/>
+      <c r="H75" s="34"/>
       <c r="I75" t="s">
-        <v>238</v>
-      </c>
-      <c r="J75" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="K75" s="32"/>
-    </row>
-    <row r="76" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
+        <v>232</v>
+      </c>
+      <c r="J75" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="K75" s="41"/>
+    </row>
+    <row r="76" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
@@ -3522,11 +3580,14 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
+      <c r="L76" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="27.6" customHeight="1">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
@@ -3534,14 +3595,14 @@
         <v>26</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:11" ht="31.8" customHeight="1">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
+    <row r="78" spans="1:12" ht="31.8" customHeight="1">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="2" t="s">
         <v>8</v>
       </c>
@@ -3549,18 +3610,18 @@
         <v>27</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A79" s="36" t="s">
+    <row r="79" spans="1:12" ht="32.4" customHeight="1">
+      <c r="A79" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="38" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="30" t="s">
@@ -3570,249 +3631,249 @@
         <v>31</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G79" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="H79" s="31" t="s">
-        <v>270</v>
+        <v>111</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="H79" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="I79" t="s">
-        <v>271</v>
-      </c>
-      <c r="J79" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="K79" s="32">
+        <v>265</v>
+      </c>
+      <c r="J79" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="K79" s="41">
         <v>4.5</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A80" s="36"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="36"/>
+    <row r="80" spans="1:12" ht="32.4" customHeight="1">
+      <c r="A80" s="38"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="38"/>
       <c r="D80" s="30"/>
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="J80" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="K80" s="32"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="J80" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="K80" s="41"/>
     </row>
     <row r="81" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A81" s="36"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="36"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="30"/>
       <c r="E81" s="30"/>
       <c r="F81" s="30"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
       <c r="I81" t="s">
-        <v>275</v>
-      </c>
-      <c r="J81" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="K81" s="32"/>
+        <v>269</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="K81" s="41"/>
     </row>
     <row r="82" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A82" s="36"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="36"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="38"/>
       <c r="D82" s="30"/>
       <c r="E82" s="30"/>
       <c r="F82" s="30"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
       <c r="I82" t="s">
-        <v>277</v>
-      </c>
-      <c r="J82" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="K82" s="32"/>
+        <v>271</v>
+      </c>
+      <c r="J82" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="K82" s="41"/>
     </row>
     <row r="83" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A83" s="36"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="36"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="30"/>
       <c r="E83" s="30"/>
       <c r="F83" s="30"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
       <c r="I83" t="s">
-        <v>279</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="K83" s="32"/>
+        <v>273</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="K83" s="41"/>
     </row>
     <row r="84" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A84" s="36"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="36"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="30"/>
       <c r="E84" s="30"/>
       <c r="F84" s="30"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
       <c r="I84" t="s">
-        <v>281</v>
-      </c>
-      <c r="J84" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="K84" s="32"/>
+        <v>275</v>
+      </c>
+      <c r="J84" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="K84" s="41"/>
     </row>
     <row r="85" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A85" s="36"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="36"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="38"/>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
       <c r="F85" s="30"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
       <c r="I85" t="s">
-        <v>283</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="K85" s="32"/>
+        <v>277</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="K85" s="41"/>
     </row>
     <row r="86" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A86" s="36"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="36"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="38"/>
       <c r="D86" s="30"/>
       <c r="E86" s="30"/>
       <c r="F86" s="30"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
       <c r="I86" t="s">
-        <v>285</v>
-      </c>
-      <c r="J86" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="K86" s="32"/>
+        <v>279</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="K86" s="41"/>
     </row>
     <row r="87" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A87" s="36"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="36"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="30"/>
       <c r="E87" s="30"/>
       <c r="F87" s="30"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
       <c r="I87" t="s">
-        <v>287</v>
-      </c>
-      <c r="J87" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="K87" s="32"/>
+        <v>281</v>
+      </c>
+      <c r="J87" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A88" s="36"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="36"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="38"/>
       <c r="D88" s="30"/>
       <c r="E88" s="30"/>
       <c r="F88" s="30"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
       <c r="I88" t="s">
-        <v>289</v>
-      </c>
-      <c r="J88" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="K88" s="32"/>
+        <v>283</v>
+      </c>
+      <c r="J88" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="K88" s="41"/>
     </row>
     <row r="89" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A89" s="36"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="36"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="30"/>
       <c r="E89" s="30"/>
       <c r="F89" s="30"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
       <c r="I89" t="s">
-        <v>291</v>
-      </c>
-      <c r="J89" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="K89" s="32"/>
+        <v>285</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="K89" s="41"/>
     </row>
     <row r="90" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A90" s="36"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="36"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="30"/>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
       <c r="I90" t="s">
-        <v>293</v>
-      </c>
-      <c r="J90" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="K90" s="32"/>
+        <v>287</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="K90" s="41"/>
     </row>
     <row r="91" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A91" s="36"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="36"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="30"/>
       <c r="E91" s="30"/>
       <c r="F91" s="30"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
       <c r="I91" t="s">
-        <v>295</v>
-      </c>
-      <c r="J91" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="K91" s="32"/>
+        <v>289</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:11" ht="32.4" customHeight="1">
-      <c r="A92" s="36"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="36"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="30"/>
       <c r="E92" s="30"/>
       <c r="F92" s="30"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
       <c r="I92" t="s">
-        <v>289</v>
-      </c>
-      <c r="J92" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="K92" s="32"/>
+        <v>283</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="K92" s="41"/>
     </row>
     <row r="93" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="2" t="s">
         <v>8</v>
       </c>
@@ -3823,13 +3884,13 @@
       <c r="G93" s="2"/>
     </row>
     <row r="94" spans="1:11" ht="30" customHeight="1">
-      <c r="A94" s="36" t="s">
+      <c r="A94" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D94" s="30" t="s">
@@ -3839,249 +3900,249 @@
         <v>31</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="H94" s="31" t="s">
-        <v>270</v>
+        <v>263</v>
+      </c>
+      <c r="H94" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="I94" t="s">
-        <v>271</v>
-      </c>
-      <c r="J94" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="K94" s="32">
+        <v>265</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="K94" s="41">
         <v>4.5</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" customHeight="1">
-      <c r="A95" s="36"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="36"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="30"/>
       <c r="E95" s="30"/>
       <c r="F95" s="30"/>
       <c r="G95" s="30"/>
-      <c r="H95" s="32"/>
+      <c r="H95" s="41"/>
       <c r="I95" t="s">
-        <v>273</v>
-      </c>
-      <c r="J95" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="K95" s="32"/>
+        <v>267</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="K95" s="41"/>
     </row>
     <row r="96" spans="1:11" ht="30" customHeight="1">
-      <c r="A96" s="36"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="36"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="30"/>
       <c r="E96" s="30"/>
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
-      <c r="H96" s="32"/>
+      <c r="H96" s="41"/>
       <c r="I96" t="s">
-        <v>275</v>
-      </c>
-      <c r="J96" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="K96" s="32"/>
+        <v>269</v>
+      </c>
+      <c r="J96" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="K96" s="41"/>
     </row>
     <row r="97" spans="1:11" ht="30" customHeight="1">
-      <c r="A97" s="36"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="36"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="30"/>
       <c r="E97" s="30"/>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
-      <c r="H97" s="32"/>
+      <c r="H97" s="41"/>
       <c r="I97" t="s">
-        <v>277</v>
-      </c>
-      <c r="J97" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="K97" s="32"/>
+        <v>271</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="K97" s="41"/>
     </row>
     <row r="98" spans="1:11" ht="30" customHeight="1">
-      <c r="A98" s="36"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="36"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="38"/>
       <c r="D98" s="30"/>
       <c r="E98" s="30"/>
       <c r="F98" s="30"/>
       <c r="G98" s="30"/>
-      <c r="H98" s="32"/>
+      <c r="H98" s="41"/>
       <c r="I98" t="s">
-        <v>279</v>
-      </c>
-      <c r="J98" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="K98" s="32"/>
+        <v>273</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="K98" s="41"/>
     </row>
     <row r="99" spans="1:11" ht="30" customHeight="1">
-      <c r="A99" s="36"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="36"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="38"/>
       <c r="D99" s="30"/>
       <c r="E99" s="30"/>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
-      <c r="H99" s="32"/>
+      <c r="H99" s="41"/>
       <c r="I99" t="s">
-        <v>281</v>
-      </c>
-      <c r="J99" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="K99" s="32"/>
+        <v>275</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="K99" s="41"/>
     </row>
     <row r="100" spans="1:11" ht="30" customHeight="1">
-      <c r="A100" s="36"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="36"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="38"/>
       <c r="D100" s="30"/>
       <c r="E100" s="30"/>
       <c r="F100" s="30"/>
       <c r="G100" s="30"/>
-      <c r="H100" s="32"/>
+      <c r="H100" s="41"/>
       <c r="I100" t="s">
-        <v>283</v>
-      </c>
-      <c r="J100" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="K100" s="32"/>
+        <v>277</v>
+      </c>
+      <c r="J100" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="K100" s="41"/>
     </row>
     <row r="101" spans="1:11" ht="30" customHeight="1">
-      <c r="A101" s="36"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="36"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="38"/>
       <c r="D101" s="30"/>
       <c r="E101" s="30"/>
       <c r="F101" s="30"/>
       <c r="G101" s="30"/>
-      <c r="H101" s="32"/>
+      <c r="H101" s="41"/>
       <c r="I101" t="s">
-        <v>285</v>
-      </c>
-      <c r="J101" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="K101" s="32"/>
+        <v>279</v>
+      </c>
+      <c r="J101" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="K101" s="41"/>
     </row>
     <row r="102" spans="1:11" ht="30" customHeight="1">
-      <c r="A102" s="36"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="36"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="38"/>
       <c r="D102" s="30"/>
       <c r="E102" s="30"/>
       <c r="F102" s="30"/>
       <c r="G102" s="30"/>
-      <c r="H102" s="32"/>
+      <c r="H102" s="41"/>
       <c r="I102" t="s">
-        <v>287</v>
-      </c>
-      <c r="J102" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="K102" s="32"/>
+        <v>281</v>
+      </c>
+      <c r="J102" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="K102" s="41"/>
     </row>
     <row r="103" spans="1:11" ht="30.6" customHeight="1">
-      <c r="A103" s="36"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="36"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="38"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="30"/>
       <c r="G103" s="30"/>
-      <c r="H103" s="32"/>
+      <c r="H103" s="41"/>
       <c r="I103" t="s">
-        <v>289</v>
-      </c>
-      <c r="J103" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="K103" s="32"/>
+        <v>283</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="K103" s="41"/>
     </row>
     <row r="104" spans="1:11" ht="30" customHeight="1">
-      <c r="A104" s="36"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="36"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="38"/>
       <c r="D104" s="30"/>
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
       <c r="G104" s="30"/>
-      <c r="H104" s="32"/>
+      <c r="H104" s="41"/>
       <c r="I104" t="s">
-        <v>291</v>
-      </c>
-      <c r="J104" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="K104" s="32"/>
+        <v>285</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="K104" s="41"/>
     </row>
     <row r="105" spans="1:11" ht="30" customHeight="1">
-      <c r="A105" s="36"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="36"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="38"/>
       <c r="D105" s="30"/>
       <c r="E105" s="30"/>
       <c r="F105" s="30"/>
       <c r="G105" s="30"/>
-      <c r="H105" s="32"/>
+      <c r="H105" s="41"/>
       <c r="I105" t="s">
-        <v>293</v>
-      </c>
-      <c r="J105" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="K105" s="32"/>
+        <v>287</v>
+      </c>
+      <c r="J105" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="K105" s="41"/>
     </row>
     <row r="106" spans="1:11" ht="30" customHeight="1">
-      <c r="A106" s="36"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="36"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="38"/>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
       <c r="G106" s="30"/>
-      <c r="H106" s="32"/>
+      <c r="H106" s="41"/>
       <c r="I106" t="s">
-        <v>295</v>
-      </c>
-      <c r="J106" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="K106" s="32"/>
+        <v>289</v>
+      </c>
+      <c r="J106" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="K106" s="41"/>
     </row>
     <row r="107" spans="1:11" ht="30" customHeight="1">
-      <c r="A107" s="36"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="36"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="30"/>
       <c r="E107" s="30"/>
       <c r="F107" s="30"/>
       <c r="G107" s="30"/>
-      <c r="H107" s="32"/>
+      <c r="H107" s="41"/>
       <c r="I107" t="s">
-        <v>295</v>
-      </c>
-      <c r="J107" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="K107" s="32"/>
+        <v>289</v>
+      </c>
+      <c r="J107" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="K107" s="41"/>
     </row>
     <row r="108" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
       <c r="D108" s="2" t="s">
         <v>8</v>
       </c>
@@ -4096,14 +4157,14 @@
       <c r="B109" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -4144,196 +4205,196 @@
       <c r="E112" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F112" s="38" t="s">
-        <v>118</v>
+      <c r="F112" s="42" t="s">
+        <v>116</v>
       </c>
       <c r="G112" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="H112" s="31" t="s">
-        <v>299</v>
+        <v>292</v>
+      </c>
+      <c r="H112" s="34" t="s">
+        <v>293</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="J112" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="K112" s="31">
+        <v>294</v>
+      </c>
+      <c r="J112" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="K112" s="34">
         <v>4.5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+    <row r="113" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
       <c r="D113" s="30"/>
       <c r="E113" s="30"/>
-      <c r="F113" s="38"/>
+      <c r="F113" s="42"/>
       <c r="G113" s="30"/>
-      <c r="H113" s="31"/>
+      <c r="H113" s="34"/>
       <c r="I113" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="J113" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="K113" s="31"/>
-    </row>
-    <row r="114" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+        <v>296</v>
+      </c>
+      <c r="J113" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="K113" s="34"/>
+    </row>
+    <row r="114" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="35"/>
       <c r="C114" s="35"/>
       <c r="D114" s="30"/>
       <c r="E114" s="30"/>
-      <c r="F114" s="38"/>
+      <c r="F114" s="42"/>
       <c r="G114" s="30"/>
-      <c r="H114" s="31"/>
+      <c r="H114" s="34"/>
       <c r="I114" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J114" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="K114" s="31"/>
-    </row>
-    <row r="115" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+        <v>298</v>
+      </c>
+      <c r="J114" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="K114" s="34"/>
+    </row>
+    <row r="115" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
       <c r="D115" s="30"/>
       <c r="E115" s="30"/>
-      <c r="F115" s="38"/>
+      <c r="F115" s="42"/>
       <c r="G115" s="30"/>
-      <c r="H115" s="31"/>
+      <c r="H115" s="34"/>
       <c r="I115" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J115" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="K115" s="31"/>
-    </row>
-    <row r="116" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+        <v>300</v>
+      </c>
+      <c r="J115" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="K115" s="34"/>
+    </row>
+    <row r="116" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="35"/>
       <c r="C116" s="35"/>
       <c r="D116" s="30"/>
       <c r="E116" s="30"/>
-      <c r="F116" s="38"/>
+      <c r="F116" s="42"/>
       <c r="G116" s="30"/>
-      <c r="H116" s="31"/>
+      <c r="H116" s="34"/>
       <c r="I116" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J116" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="K116" s="31"/>
-    </row>
-    <row r="117" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+        <v>302</v>
+      </c>
+      <c r="J116" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="K116" s="34"/>
+    </row>
+    <row r="117" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="35"/>
       <c r="C117" s="35"/>
       <c r="D117" s="30"/>
       <c r="E117" s="30"/>
-      <c r="F117" s="38"/>
+      <c r="F117" s="42"/>
       <c r="G117" s="30"/>
-      <c r="H117" s="31"/>
+      <c r="H117" s="34"/>
       <c r="I117" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J117" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="K117" s="31"/>
-    </row>
-    <row r="118" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+        <v>304</v>
+      </c>
+      <c r="J117" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="K117" s="34"/>
+    </row>
+    <row r="118" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
       <c r="D118" s="30"/>
       <c r="E118" s="30"/>
-      <c r="F118" s="38"/>
+      <c r="F118" s="42"/>
       <c r="G118" s="30"/>
-      <c r="H118" s="31"/>
+      <c r="H118" s="34"/>
       <c r="I118" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="J118" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="K118" s="31"/>
-    </row>
-    <row r="119" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+        <v>306</v>
+      </c>
+      <c r="J118" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="K118" s="34"/>
+    </row>
+    <row r="119" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="35"/>
       <c r="C119" s="35"/>
       <c r="D119" s="30"/>
       <c r="E119" s="30"/>
-      <c r="F119" s="38"/>
+      <c r="F119" s="42"/>
       <c r="G119" s="30"/>
-      <c r="H119" s="31"/>
+      <c r="H119" s="34"/>
       <c r="I119" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J119" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="K119" s="31"/>
-    </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+        <v>308</v>
+      </c>
+      <c r="J119" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="K119" s="34"/>
+    </row>
+    <row r="120" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="35"/>
       <c r="C120" s="35"/>
       <c r="D120" s="30"/>
       <c r="E120" s="30"/>
-      <c r="F120" s="38"/>
+      <c r="F120" s="42"/>
       <c r="G120" s="30"/>
-      <c r="H120" s="31"/>
+      <c r="H120" s="34"/>
       <c r="I120" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="J120" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="K120" s="31"/>
-    </row>
-    <row r="121" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+        <v>310</v>
+      </c>
+      <c r="J120" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="K120" s="34"/>
+    </row>
+    <row r="121" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="35"/>
       <c r="C121" s="35"/>
       <c r="D121" s="30"/>
       <c r="E121" s="30"/>
-      <c r="F121" s="38"/>
+      <c r="F121" s="42"/>
       <c r="G121" s="30"/>
-      <c r="H121" s="31"/>
+      <c r="H121" s="34"/>
       <c r="I121" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="J121" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="K121" s="31"/>
-    </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" ht="28.8" customHeight="1">
+        <v>312</v>
+      </c>
+      <c r="J121" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="K121" s="34"/>
+    </row>
+    <row r="122" spans="1:12" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="35"/>
       <c r="C122" s="35"/>
       <c r="D122" s="30"/>
       <c r="E122" s="30"/>
-      <c r="F122" s="38"/>
+      <c r="F122" s="42"/>
       <c r="G122" s="30"/>
-      <c r="H122" s="31"/>
+      <c r="H122" s="34"/>
       <c r="I122" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J122" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="K122" s="31"/>
-    </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="26.4" customHeight="1">
+        <v>314</v>
+      </c>
+      <c r="J122" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="K122" s="34"/>
+    </row>
+    <row r="123" spans="1:12" s="3" customFormat="1" ht="26.4" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
@@ -4344,11 +4405,11 @@
         <v>41</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="124" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="35"/>
       <c r="C124" s="35"/>
@@ -4361,7 +4422,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="125" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="35"/>
       <c r="C125" s="35"/>
@@ -4374,7 +4435,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="126" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
@@ -4386,8 +4447,11 @@
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="L126" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="35"/>
       <c r="C127" s="35"/>
@@ -4400,11 +4464,11 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:11" ht="18.75" customHeight="1">
+    <row r="128" spans="1:12" ht="18.75" customHeight="1">
       <c r="B128" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D128" s="30" t="s">
@@ -4415,184 +4479,184 @@
       </c>
       <c r="F128" s="30"/>
       <c r="G128" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="H128" s="31" t="s">
-        <v>246</v>
+        <v>239</v>
+      </c>
+      <c r="H128" s="34" t="s">
+        <v>240</v>
       </c>
       <c r="I128" t="s">
-        <v>247</v>
-      </c>
-      <c r="J128" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="K128" s="32">
+        <v>241</v>
+      </c>
+      <c r="J128" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="K128" s="41">
         <v>4.5</v>
       </c>
     </row>
     <row r="129" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B129" s="34"/>
-      <c r="C129" s="36"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="38"/>
       <c r="D129" s="30"/>
       <c r="E129" s="30"/>
       <c r="F129" s="30"/>
       <c r="G129" s="30"/>
-      <c r="H129" s="31"/>
+      <c r="H129" s="34"/>
       <c r="I129" t="s">
-        <v>249</v>
-      </c>
-      <c r="J129" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="K129" s="32"/>
+        <v>243</v>
+      </c>
+      <c r="J129" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="K129" s="41"/>
     </row>
     <row r="130" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B130" s="34"/>
-      <c r="C130" s="36"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="38"/>
       <c r="D130" s="30"/>
       <c r="E130" s="30"/>
       <c r="F130" s="30"/>
       <c r="G130" s="30"/>
-      <c r="H130" s="31"/>
+      <c r="H130" s="34"/>
       <c r="I130" t="s">
-        <v>251</v>
-      </c>
-      <c r="J130" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="K130" s="32"/>
+        <v>245</v>
+      </c>
+      <c r="J130" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="K130" s="41"/>
     </row>
     <row r="131" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B131" s="34"/>
-      <c r="C131" s="36"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="38"/>
       <c r="D131" s="30"/>
       <c r="E131" s="30"/>
       <c r="F131" s="30"/>
       <c r="G131" s="30"/>
-      <c r="H131" s="31"/>
+      <c r="H131" s="34"/>
       <c r="I131" t="s">
-        <v>253</v>
-      </c>
-      <c r="J131" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="K131" s="32"/>
+        <v>247</v>
+      </c>
+      <c r="J131" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="K131" s="41"/>
     </row>
     <row r="132" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B132" s="34"/>
-      <c r="C132" s="36"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="38"/>
       <c r="D132" s="30"/>
       <c r="E132" s="30"/>
       <c r="F132" s="30"/>
       <c r="G132" s="30"/>
-      <c r="H132" s="31"/>
+      <c r="H132" s="34"/>
       <c r="I132" t="s">
-        <v>255</v>
-      </c>
-      <c r="J132" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="K132" s="32"/>
+        <v>249</v>
+      </c>
+      <c r="J132" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="K132" s="41"/>
     </row>
     <row r="133" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B133" s="34"/>
-      <c r="C133" s="36"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="38"/>
       <c r="D133" s="30"/>
       <c r="E133" s="30"/>
       <c r="F133" s="30"/>
       <c r="G133" s="30"/>
-      <c r="H133" s="31"/>
+      <c r="H133" s="34"/>
       <c r="I133" t="s">
-        <v>257</v>
-      </c>
-      <c r="J133" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="K133" s="32"/>
+        <v>251</v>
+      </c>
+      <c r="J133" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="K133" s="41"/>
     </row>
     <row r="134" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B134" s="34"/>
-      <c r="C134" s="36"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="38"/>
       <c r="D134" s="30"/>
       <c r="E134" s="30"/>
       <c r="F134" s="30"/>
       <c r="G134" s="30"/>
-      <c r="H134" s="31"/>
+      <c r="H134" s="34"/>
       <c r="I134" t="s">
-        <v>259</v>
-      </c>
-      <c r="J134" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="K134" s="32"/>
+        <v>253</v>
+      </c>
+      <c r="J134" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="K134" s="41"/>
     </row>
     <row r="135" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B135" s="34"/>
-      <c r="C135" s="36"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="38"/>
       <c r="D135" s="30"/>
       <c r="E135" s="30"/>
       <c r="F135" s="30"/>
       <c r="G135" s="30"/>
-      <c r="H135" s="31"/>
+      <c r="H135" s="34"/>
       <c r="I135" t="s">
-        <v>261</v>
-      </c>
-      <c r="J135" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="K135" s="32"/>
+        <v>255</v>
+      </c>
+      <c r="J135" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="K135" s="41"/>
     </row>
     <row r="136" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B136" s="34"/>
-      <c r="C136" s="36"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="38"/>
       <c r="D136" s="30"/>
       <c r="E136" s="30"/>
       <c r="F136" s="30"/>
       <c r="G136" s="30"/>
-      <c r="H136" s="31"/>
+      <c r="H136" s="34"/>
       <c r="I136" t="s">
-        <v>263</v>
-      </c>
-      <c r="J136" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="K136" s="32"/>
+        <v>257</v>
+      </c>
+      <c r="J136" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="K136" s="41"/>
     </row>
     <row r="137" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B137" s="34"/>
-      <c r="C137" s="36"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="38"/>
       <c r="D137" s="30"/>
       <c r="E137" s="30"/>
       <c r="F137" s="30"/>
       <c r="G137" s="30"/>
-      <c r="H137" s="31"/>
+      <c r="H137" s="34"/>
       <c r="I137" t="s">
-        <v>265</v>
-      </c>
-      <c r="J137" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="K137" s="32"/>
+        <v>259</v>
+      </c>
+      <c r="J137" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="K137" s="41"/>
     </row>
     <row r="138" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B138" s="34"/>
-      <c r="C138" s="36"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="38"/>
       <c r="D138" s="30"/>
       <c r="E138" s="30"/>
       <c r="F138" s="30"/>
       <c r="G138" s="30"/>
-      <c r="H138" s="31"/>
+      <c r="H138" s="34"/>
       <c r="I138" t="s">
-        <v>267</v>
-      </c>
-      <c r="J138" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="K138" s="32"/>
+        <v>261</v>
+      </c>
+      <c r="J138" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="K138" s="41"/>
     </row>
     <row r="139" spans="2:11" ht="31.8" customHeight="1">
       <c r="B139" s="35"/>
-      <c r="C139" s="37"/>
+      <c r="C139" s="39"/>
       <c r="D139" s="30" t="s">
         <v>8</v>
       </c>
@@ -4600,75 +4664,75 @@
         <v>18</v>
       </c>
       <c r="F139" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G139" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H139" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="I139" t="s">
         <v>176</v>
       </c>
-      <c r="H139" s="31" t="s">
+      <c r="J139" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="I139" t="s">
-        <v>178</v>
-      </c>
-      <c r="J139" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="K139" s="32">
+      <c r="K139" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="140" spans="2:11" ht="31.8" customHeight="1">
       <c r="B140" s="35"/>
-      <c r="C140" s="37"/>
+      <c r="C140" s="39"/>
       <c r="D140" s="30"/>
       <c r="E140" s="30"/>
       <c r="F140" s="30"/>
       <c r="G140" s="30"/>
-      <c r="H140" s="31"/>
-      <c r="I140" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="J140" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="K140" s="32"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J140" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K140" s="41"/>
     </row>
     <row r="141" spans="2:11" ht="31.8" customHeight="1">
       <c r="B141" s="35"/>
-      <c r="C141" s="37"/>
+      <c r="C141" s="39"/>
       <c r="D141" s="30"/>
       <c r="E141" s="30"/>
       <c r="F141" s="30"/>
       <c r="G141" s="30"/>
-      <c r="H141" s="31"/>
+      <c r="H141" s="34"/>
       <c r="I141" t="s">
-        <v>182</v>
-      </c>
-      <c r="J141" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="K141" s="32"/>
+        <v>180</v>
+      </c>
+      <c r="J141" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K141" s="41"/>
     </row>
     <row r="142" spans="2:11" ht="31.8" customHeight="1">
       <c r="B142" s="35"/>
-      <c r="C142" s="37"/>
+      <c r="C142" s="39"/>
       <c r="D142" s="30"/>
       <c r="E142" s="30"/>
       <c r="F142" s="30"/>
       <c r="G142" s="30"/>
-      <c r="H142" s="31"/>
+      <c r="H142" s="34"/>
       <c r="I142" t="s">
-        <v>184</v>
-      </c>
-      <c r="J142" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="K142" s="32"/>
+        <v>182</v>
+      </c>
+      <c r="J142" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K142" s="41"/>
     </row>
     <row r="143" spans="2:11" ht="18.75" customHeight="1">
       <c r="B143" s="35"/>
-      <c r="C143" s="37"/>
+      <c r="C143" s="39"/>
       <c r="D143" s="2" t="s">
         <v>8</v>
       </c>
@@ -4679,28 +4743,81 @@
       <c r="G143" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="F46:F56"/>
-    <mergeCell ref="G46:G56"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B2:B22"/>
-    <mergeCell ref="C2:C22"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="D9:D18"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="F9:F18"/>
-    <mergeCell ref="G9:G18"/>
-    <mergeCell ref="H9:H18"/>
-    <mergeCell ref="K9:K18"/>
-    <mergeCell ref="D20:D22"/>
+  <mergeCells count="108">
+    <mergeCell ref="L9:L18"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="G128:G138"/>
+    <mergeCell ref="H128:H138"/>
+    <mergeCell ref="K128:K138"/>
+    <mergeCell ref="D139:D142"/>
+    <mergeCell ref="E139:E142"/>
+    <mergeCell ref="F139:F142"/>
+    <mergeCell ref="G139:G142"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="K139:K142"/>
+    <mergeCell ref="B128:B143"/>
+    <mergeCell ref="C128:C143"/>
+    <mergeCell ref="D128:D138"/>
+    <mergeCell ref="E128:E138"/>
+    <mergeCell ref="F128:F138"/>
+    <mergeCell ref="F94:F107"/>
+    <mergeCell ref="G94:G107"/>
+    <mergeCell ref="H94:H107"/>
+    <mergeCell ref="K94:K107"/>
+    <mergeCell ref="B109:B127"/>
+    <mergeCell ref="C109:C127"/>
+    <mergeCell ref="D112:D122"/>
+    <mergeCell ref="E112:E122"/>
+    <mergeCell ref="F112:F122"/>
+    <mergeCell ref="G112:G122"/>
+    <mergeCell ref="H112:H122"/>
+    <mergeCell ref="K112:K122"/>
+    <mergeCell ref="A94:A108"/>
+    <mergeCell ref="B94:B108"/>
+    <mergeCell ref="C94:C108"/>
+    <mergeCell ref="D94:D107"/>
+    <mergeCell ref="E94:E107"/>
+    <mergeCell ref="F79:F92"/>
+    <mergeCell ref="G79:G92"/>
+    <mergeCell ref="H79:H92"/>
+    <mergeCell ref="K79:K92"/>
+    <mergeCell ref="A66:A78"/>
+    <mergeCell ref="B66:B78"/>
+    <mergeCell ref="C66:C78"/>
+    <mergeCell ref="A79:A93"/>
+    <mergeCell ref="B79:B93"/>
+    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="D79:D92"/>
+    <mergeCell ref="E79:E92"/>
+    <mergeCell ref="D66:D75"/>
+    <mergeCell ref="E66:E75"/>
+    <mergeCell ref="K46:K56"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="H46:H56"/>
+    <mergeCell ref="F66:F75"/>
+    <mergeCell ref="G66:G75"/>
+    <mergeCell ref="H66:H75"/>
+    <mergeCell ref="K66:K75"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="E28:E37"/>
+    <mergeCell ref="F28:F37"/>
+    <mergeCell ref="G28:G37"/>
+    <mergeCell ref="H28:H37"/>
+    <mergeCell ref="K28:K37"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="A23:A65"/>
     <mergeCell ref="B23:B65"/>
@@ -4717,111 +4834,73 @@
     <mergeCell ref="H38:H45"/>
     <mergeCell ref="D46:D56"/>
     <mergeCell ref="E46:E56"/>
-    <mergeCell ref="K23:K27"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="E28:E37"/>
-    <mergeCell ref="F28:F37"/>
-    <mergeCell ref="G28:G37"/>
-    <mergeCell ref="H28:H37"/>
-    <mergeCell ref="K28:K37"/>
-    <mergeCell ref="D66:D75"/>
-    <mergeCell ref="E66:E75"/>
-    <mergeCell ref="K46:K56"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="H46:H56"/>
-    <mergeCell ref="F66:F75"/>
-    <mergeCell ref="G66:G75"/>
-    <mergeCell ref="H66:H75"/>
-    <mergeCell ref="K66:K75"/>
-    <mergeCell ref="A79:A93"/>
-    <mergeCell ref="B79:B93"/>
-    <mergeCell ref="C79:C93"/>
-    <mergeCell ref="D79:D92"/>
-    <mergeCell ref="E79:E92"/>
-    <mergeCell ref="F79:F92"/>
-    <mergeCell ref="G79:G92"/>
-    <mergeCell ref="H79:H92"/>
-    <mergeCell ref="K79:K92"/>
-    <mergeCell ref="A66:A78"/>
-    <mergeCell ref="B66:B78"/>
-    <mergeCell ref="C66:C78"/>
-    <mergeCell ref="A94:A108"/>
-    <mergeCell ref="B94:B108"/>
-    <mergeCell ref="C94:C108"/>
-    <mergeCell ref="D94:D107"/>
-    <mergeCell ref="E94:E107"/>
-    <mergeCell ref="F94:F107"/>
-    <mergeCell ref="G94:G107"/>
-    <mergeCell ref="H94:H107"/>
-    <mergeCell ref="K94:K107"/>
-    <mergeCell ref="B109:B127"/>
-    <mergeCell ref="C109:C127"/>
-    <mergeCell ref="D112:D122"/>
-    <mergeCell ref="E112:E122"/>
-    <mergeCell ref="F112:F122"/>
-    <mergeCell ref="G112:G122"/>
-    <mergeCell ref="H112:H122"/>
-    <mergeCell ref="K112:K122"/>
-    <mergeCell ref="B128:B143"/>
-    <mergeCell ref="C128:C143"/>
-    <mergeCell ref="D128:D138"/>
-    <mergeCell ref="E128:E138"/>
-    <mergeCell ref="F128:F138"/>
-    <mergeCell ref="G128:G138"/>
-    <mergeCell ref="H128:H138"/>
-    <mergeCell ref="K128:K138"/>
-    <mergeCell ref="D139:D142"/>
-    <mergeCell ref="E139:E142"/>
-    <mergeCell ref="F139:F142"/>
-    <mergeCell ref="G139:G142"/>
-    <mergeCell ref="H139:H142"/>
-    <mergeCell ref="K139:K142"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="C2:C22"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="D9:D18"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="F9:F18"/>
+    <mergeCell ref="G9:G18"/>
+    <mergeCell ref="H9:H18"/>
+    <mergeCell ref="K9:K18"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F46:F56"/>
+    <mergeCell ref="G46:G56"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{AD28E7CA-08AA-45A0-81BB-EF7569DEED77}"/>
-    <hyperlink ref="F112" r:id="rId2" xr:uid="{069CAC29-B8DE-41FB-B69B-F00119732CFD}"/>
-    <hyperlink ref="F78" r:id="rId3" xr:uid="{93389A9A-1308-4B8B-AD3E-74F9D411DB0B}"/>
-    <hyperlink ref="I2" r:id="rId4" xr:uid="{ECF62F22-21C0-4484-A10E-549582A2F52D}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{FFC0F51A-74A9-4706-ADE7-F85269D4644C}"/>
-    <hyperlink ref="I20" r:id="rId6" xr:uid="{0F551099-854C-42EE-A71F-083B83F77F76}"/>
-    <hyperlink ref="I22" r:id="rId7" xr:uid="{BC42FE10-E3CB-4816-9716-418DF8719917}"/>
-    <hyperlink ref="I58" r:id="rId8" xr:uid="{03711F68-D04D-4B72-B9B9-BBFF53574906}"/>
-    <hyperlink ref="I140" r:id="rId9" xr:uid="{48076C4E-4E93-4FA9-A960-A186D793699A}"/>
-    <hyperlink ref="I39" r:id="rId10" xr:uid="{B64F8B49-5023-4C9C-A2D3-A5705F971654}"/>
-    <hyperlink ref="I9" r:id="rId11" xr:uid="{A859E564-1203-461D-8EE9-BB12D01596A8}"/>
-    <hyperlink ref="I10" r:id="rId12" xr:uid="{CF4939FD-7BE5-4B88-8A83-808E72CE598D}"/>
-    <hyperlink ref="I11" r:id="rId13" xr:uid="{BEB52B72-F5F4-467D-890E-86140EDA21F6}"/>
-    <hyperlink ref="I12" r:id="rId14" xr:uid="{91646F42-1567-4C8E-8432-277188D95070}"/>
-    <hyperlink ref="I13" r:id="rId15" xr:uid="{4D34C7F3-53B9-45E8-9881-C81483ECBEFC}"/>
-    <hyperlink ref="I14" r:id="rId16" xr:uid="{5DACA730-E6BA-449B-9CD5-2047E1B0D53B}"/>
-    <hyperlink ref="I15" r:id="rId17" xr:uid="{1C54BA18-905B-4364-BF40-B98F1BF6BFA2}"/>
-    <hyperlink ref="I16" r:id="rId18" xr:uid="{F5AF1881-57BC-4ECC-9D1D-53DF35F43617}"/>
-    <hyperlink ref="I18" r:id="rId19" xr:uid="{62529F9B-EBEC-4401-86C1-4DD100AEC511}"/>
-    <hyperlink ref="I37" r:id="rId20" xr:uid="{9A652979-5348-45D6-BB30-C9FD669FF594}"/>
-    <hyperlink ref="I17" r:id="rId21" xr:uid="{1EF27D59-FAF7-4D86-8122-83A77906ADD8}"/>
-    <hyperlink ref="I74" r:id="rId22" xr:uid="{5D435F2C-F697-4686-ADAB-E9FC95894EF5}"/>
-    <hyperlink ref="I36" r:id="rId23" xr:uid="{698FCE04-0BA6-4D61-B7E3-97AAD7A28E67}"/>
-    <hyperlink ref="I35" r:id="rId24" xr:uid="{E75A4047-A129-4782-95EB-BCF09EA48C98}"/>
-    <hyperlink ref="I73" r:id="rId25" xr:uid="{D746D9AF-8E2E-4B89-BA53-B3342CFC55AA}"/>
-    <hyperlink ref="I34" r:id="rId26" xr:uid="{B8CFAD50-D6D2-4C82-BD47-D626FD08345A}"/>
-    <hyperlink ref="I72" r:id="rId27" xr:uid="{E644A223-89D5-463F-A6EE-7FB8DADEADAF}"/>
-    <hyperlink ref="I33" r:id="rId28" xr:uid="{AD848414-83E8-4EC8-81AD-7E7BF6F2F24A}"/>
-    <hyperlink ref="I71" r:id="rId29" xr:uid="{9F4655EA-B1CF-47DB-B905-2C903700EFEA}"/>
-    <hyperlink ref="I32" r:id="rId30" xr:uid="{6ABDA066-2F1B-4B2D-B30E-6EB62354C620}"/>
-    <hyperlink ref="I70" r:id="rId31" xr:uid="{4CCDAD47-D394-4157-ABFF-5E19F3A0CCCE}"/>
-    <hyperlink ref="I31" r:id="rId32" xr:uid="{DF690E37-F4B9-4D17-8B2A-F2CD3B2C192B}"/>
-    <hyperlink ref="I30" r:id="rId33" xr:uid="{273565DE-0F61-4820-8D69-98B12DF030F4}"/>
-    <hyperlink ref="I68" r:id="rId34" xr:uid="{DE9CC38B-CD9F-43CA-9942-90F27EB4EEAB}"/>
-    <hyperlink ref="I29" r:id="rId35" xr:uid="{099331CA-D1F2-4078-A56B-A11B0B4A6213}"/>
-    <hyperlink ref="I28" r:id="rId36" xr:uid="{FAFC6F4D-9BC5-4171-882B-99EED8FD0122}"/>
-    <hyperlink ref="I80" r:id="rId37" xr:uid="{9877C55A-D6CB-454F-940C-7609717A1CD1}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{E1B649BD-6303-4852-AC27-5373A75E4B70}"/>
+    <hyperlink ref="F112" r:id="rId2" xr:uid="{79AA05DD-7789-4A44-B5C3-B3E74CB29D25}"/>
+    <hyperlink ref="F78" r:id="rId3" xr:uid="{EB4B1AF5-62D0-4F04-A874-560470C037ED}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{6510B9BD-599F-48CA-9648-DD71156A76C0}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{49827F33-87B8-458F-89F0-ACC0A079177B}"/>
+    <hyperlink ref="I20" r:id="rId6" xr:uid="{67B7AAE8-9871-4FEF-B6F9-678347D674B4}"/>
+    <hyperlink ref="I22" r:id="rId7" xr:uid="{2048F573-DE2B-4BF6-9337-51EDA85CCCEB}"/>
+    <hyperlink ref="I58" r:id="rId8" xr:uid="{816FCD98-D011-439C-8A4B-903A7B82D9CF}"/>
+    <hyperlink ref="I140" r:id="rId9" xr:uid="{95DE06F6-03B3-466F-9290-2A9B228507DB}"/>
+    <hyperlink ref="I39" r:id="rId10" xr:uid="{1CDD5D74-4D57-42B0-A836-9435A2E5632D}"/>
+    <hyperlink ref="I9" r:id="rId11" xr:uid="{29021D07-02FD-4966-BB1B-63B085F685B2}"/>
+    <hyperlink ref="I10" r:id="rId12" xr:uid="{673DEAE6-B171-4337-827C-05589E13515C}"/>
+    <hyperlink ref="I11" r:id="rId13" xr:uid="{B1CC73FD-2B68-464D-9472-89FAE81E7140}"/>
+    <hyperlink ref="I12" r:id="rId14" xr:uid="{822591C5-D1D1-419A-9885-7853EFA28DD2}"/>
+    <hyperlink ref="I13" r:id="rId15" xr:uid="{69335B27-78EF-4823-AF7D-81A36867A77E}"/>
+    <hyperlink ref="I14" r:id="rId16" xr:uid="{09D38703-B4E9-4051-B0E8-F62C7235C8B7}"/>
+    <hyperlink ref="I15" r:id="rId17" xr:uid="{13B1A527-6D61-4BD7-A7A9-A0F43E9D0FC4}"/>
+    <hyperlink ref="I16" r:id="rId18" xr:uid="{13469DC3-CCD3-4EF0-8A03-885435211114}"/>
+    <hyperlink ref="I18" r:id="rId19" xr:uid="{6886CCB4-DE12-4340-AC8D-11B24F8DC804}"/>
+    <hyperlink ref="I37" r:id="rId20" xr:uid="{EB2708EC-23B0-4F34-8B9C-98E4DE9927DA}"/>
+    <hyperlink ref="I17" r:id="rId21" xr:uid="{6D031106-C6E0-45D5-B612-FF3C9117ADBD}"/>
+    <hyperlink ref="I74" r:id="rId22" xr:uid="{E1C5D829-15C4-443A-8EFA-6D865A46B641}"/>
+    <hyperlink ref="I36" r:id="rId23" xr:uid="{34E473D5-4360-462A-A728-1C9DCD6A6794}"/>
+    <hyperlink ref="I35" r:id="rId24" xr:uid="{EE366E9C-8808-401C-BC7A-86B68BE6EE1C}"/>
+    <hyperlink ref="I73" r:id="rId25" xr:uid="{275AF056-082F-434D-AE81-3B3DB21F63B9}"/>
+    <hyperlink ref="I34" r:id="rId26" xr:uid="{64851277-3C0C-4DE9-A85F-4233F5DE6740}"/>
+    <hyperlink ref="I72" r:id="rId27" xr:uid="{27E0553A-A22A-404F-ACCB-7FB0C1857DFF}"/>
+    <hyperlink ref="I33" r:id="rId28" xr:uid="{976C223A-DD43-4120-A968-360B465A2F5F}"/>
+    <hyperlink ref="I71" r:id="rId29" xr:uid="{BFEEAFB9-5D65-4990-95D3-11CAE7151CB6}"/>
+    <hyperlink ref="I32" r:id="rId30" xr:uid="{B97562AE-9F67-4472-9CAC-CC3D278EAD84}"/>
+    <hyperlink ref="I70" r:id="rId31" xr:uid="{BD793B37-73E4-47E4-B4AD-FC6922B905B4}"/>
+    <hyperlink ref="I31" r:id="rId32" xr:uid="{97A07B83-4503-4A43-AB7D-EF4B4F58C4CA}"/>
+    <hyperlink ref="I30" r:id="rId33" xr:uid="{FCCD6D00-96DC-4D84-856B-E8300834BEED}"/>
+    <hyperlink ref="I68" r:id="rId34" xr:uid="{0378CD97-35E5-4247-A0D8-BEE8754BB39A}"/>
+    <hyperlink ref="I29" r:id="rId35" xr:uid="{A0C1CCCA-95A9-46CB-B1C3-0C727A925366}"/>
+    <hyperlink ref="I28" r:id="rId36" xr:uid="{23D1C8B3-985A-43D3-8DEF-456637F342DC}"/>
+    <hyperlink ref="I80" r:id="rId37" xr:uid="{3ABDECF2-6CC2-4C30-80F1-D0BD029C82D2}"/>
+    <hyperlink ref="L23" r:id="rId38" xr:uid="{B90D1075-1570-4D39-9BFD-81664FFD5053}"/>
+    <hyperlink ref="L2" r:id="rId39" xr:uid="{BBCA24E4-8530-43FF-9916-E35D0521DDF0}"/>
+    <hyperlink ref="L20" r:id="rId40" xr:uid="{A0296B48-54AD-4F4D-9537-19D01EF6C6E4}"/>
+    <hyperlink ref="L76" r:id="rId41" xr:uid="{86249166-B774-49B0-B009-07E08E4D0559}"/>
+    <hyperlink ref="L9" r:id="rId42" xr:uid="{7E9C2439-309B-4AD4-A663-E96F2EF5E0FE}"/>
+    <hyperlink ref="L28" r:id="rId43" xr:uid="{A32156AF-3390-4AD4-99A9-F19EBFEEF9C6}"/>
+    <hyperlink ref="L126" r:id="rId44" xr:uid="{8608F89B-8A43-4A63-9DCA-2E405B791142}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
 
@@ -4829,8 +4908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29B74B4-BE24-421E-BD89-5193633DD653}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4844,108 +4923,108 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
         <v>189</v>
-      </c>
-      <c r="B1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" t="s">
-        <v>191</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="48" customHeight="1">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="48.6" customHeight="1">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" t="s">
-        <v>200</v>
+        <v>326</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="49.2" customHeight="1">
       <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39" customHeight="1">
+      <c r="A5" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="E5" t="s">
         <v>203</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="32.4" customHeight="1">
+      <c r="A6" s="41"/>
+      <c r="B6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="39" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="C6" t="s">
         <v>205</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="E6" t="s">
         <v>207</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="25.8" customHeight="1">
+      <c r="A7" s="41"/>
+      <c r="B7" t="s">
         <v>208</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="32.4" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" t="s">
+      <c r="D7" t="s">
         <v>210</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" t="s">
         <v>211</v>
-      </c>
-      <c r="D6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.8" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27.6" customHeight="1"/>
@@ -4954,10 +5033,10 @@
     <mergeCell ref="A5:A7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{54001FC5-B861-49AB-A34A-B020911EF250}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{B3F7FED8-6902-4DC7-80A9-E057EA149979}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{CC687779-68B4-4E9C-91B1-821C3EA8A16F}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{6FFDCCDE-580C-4672-8EA9-C94BC8CE0FA8}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{8996CDA7-DAC0-461F-BA04-E0AE8608B221}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{9F37E289-7D0F-4FF4-8ABD-206CB2C2CECB}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{5BB0C063-EBCB-4556-901D-69293E8CD928}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{B2D2F7E6-3EA5-449A-BF53-10A2E366651F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
